--- a/file db đuôi xlsx/bảng_audio.xlsx
+++ b/file db đuôi xlsx/bảng_audio.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>ID Course</t>
   </si>
@@ -27,24 +27,463 @@
     <t>ID Part</t>
   </si>
   <si>
+    <t>Name File</t>
+  </si>
+  <si>
     <t>Content Audio</t>
   </si>
   <si>
     <t>Content Lesson</t>
   </si>
   <si>
-    <t xml:space="preserve"> A: Good evening, Ms. Walsh. How are you?
-  B: Good. And you? How are you, Zo?
-  A: I'm great! I just wanted to make sure you were in your office so I can stop by for the homework; I'm going on my big trip tomorrow!
-  B: Ah, yes! Is tomorrow Wednesday?
-  A: Yep, tomorrow’s Wednesday.
-  B: How nice! Well, I'm going home now, but I'll leave the homework with the secretary. Have a great trip!
-  A: Thank you, Ms. Walsh! See you later!</t>
-  </si>
-  <si>
-    <t>&lt;div class="lsn3-lesson-notes"&gt;
+    <t>audio5-1</t>
+  </si>
+  <si>
+    <t>audio5-2</t>
+  </si>
+  <si>
+    <t>audio5-3</t>
+  </si>
+  <si>
+    <t>audio5-4</t>
+  </si>
+  <si>
+    <t>audio5-5</t>
+  </si>
+  <si>
+    <t>audio5-6</t>
+  </si>
+  <si>
+    <t>audio5-7</t>
+  </si>
+  <si>
+    <t>audio5-8</t>
+  </si>
+  <si>
+    <t>audio5-9</t>
+  </si>
+  <si>
+    <t>audio5-10</t>
+  </si>
+  <si>
+    <t>audio6-1</t>
+  </si>
+  <si>
+    <t>audio6-2</t>
+  </si>
+  <si>
+    <t>audio6-3</t>
+  </si>
+  <si>
+    <t>audio6-4</t>
+  </si>
+  <si>
+    <t>audio6-5</t>
+  </si>
+  <si>
+    <t>audio6-6</t>
+  </si>
+  <si>
+    <t>audio6-7</t>
+  </si>
+  <si>
+    <t>audio6-8</t>
+  </si>
+  <si>
+    <t>audio6-9</t>
+  </si>
+  <si>
+    <t>audio6-10</t>
+  </si>
+  <si>
+    <t>audio7-1</t>
+  </si>
+  <si>
+    <t>audio7-2</t>
+  </si>
+  <si>
+    <t>audio7-3</t>
+  </si>
+  <si>
+    <t>audio7-4</t>
+  </si>
+  <si>
+    <t>audio7-5</t>
+  </si>
+  <si>
+    <t>audio7-6</t>
+  </si>
+  <si>
+    <t>audio7-7</t>
+  </si>
+  <si>
+    <t>audio7-8</t>
+  </si>
+  <si>
+    <t>audio7-9</t>
+  </si>
+  <si>
+    <t>audio7-10</t>
+  </si>
+  <si>
+    <t>audio8-1</t>
+  </si>
+  <si>
+    <t>audio8-2</t>
+  </si>
+  <si>
+    <t>audio8-3</t>
+  </si>
+  <si>
+    <t>audio8-4</t>
+  </si>
+  <si>
+    <t>audio8-5</t>
+  </si>
+  <si>
+    <t>audio8-6</t>
+  </si>
+  <si>
+    <t>audio8-7</t>
+  </si>
+  <si>
+    <t>audio8-8</t>
+  </si>
+  <si>
+    <t>audio8-9</t>
+  </si>
+  <si>
+    <t>audio8-10</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
                                             &lt;h3&gt;Grammar&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;strong&gt;&lt;span&gt;The Focus of This Lesson is Discussing the Weather&lt;/span&gt;&lt;br&gt;&lt;span&gt; "&lt;/span&gt;&lt;/strong&gt;&lt;strong&gt;&lt;span&gt;The weather forecast said that it will probably snow heavily later."&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;In this lesson, we will learn how to:&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;&lt;strong&gt;&amp;nbsp;Use adjectives to describe the weather&lt;/strong&gt;&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;&amp;nbsp;Form the present continuous tense&lt;/strong&gt;&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;&amp;nbsp;State and differentiate level of certainty&lt;/strong&gt;&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;
+&lt;/p&gt;&lt;hr&gt;&lt;p&gt;&lt;strong&gt;&lt;span&gt;1. Using Adjectives to Describe the Weather&lt;/span&gt;
+&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;An adjective is a word that is used to describe or modify a noun or pronoun. When talking about the weather, we use many adjectives. Weather adjectives are easy to learn, because they are based on weather nouns!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td width="100" class="lsn3-th"&gt;
+&lt;p&gt;&lt;span&gt;&lt;strong&gt;Noun&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="105" class="lsn3-th"&gt;
+&lt;p&gt;&lt;span&gt;&lt;strong&gt;Adjective&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="321" class="lsn3-th"&gt;
+&lt;p&gt;&lt;span&gt;&lt;strong&gt;Examples&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width="100"&gt;
+&lt;p&gt;rain&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="105"&gt;
+&lt;p&gt;rainy&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="321"&gt;
+&lt;p&gt;The &lt;strong&gt;rain &lt;/strong&gt;was cold&lt;/p&gt;
+&lt;p&gt;It was &lt;strong&gt;rainy &lt;/strong&gt;this afternoon&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width="100"&gt;
+&lt;p&gt;sun&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="105"&gt;
+&lt;p&gt;sunny&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="321"&gt;
+&lt;p&gt;The &lt;strong&gt;sun &lt;/strong&gt;is strong and bright.&lt;/p&gt;
+&lt;p&gt;It is very &lt;strong&gt;sunny &lt;/strong&gt;outside.&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width="100"&gt;
+&lt;p&gt;snow&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="105"&gt;
+&lt;p&gt;snowy&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="321"&gt;
+&lt;p&gt;I love   playing in the &lt;strong&gt;snow&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;Winter is a   &lt;strong&gt;snowy &lt;/strong&gt;season.&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width="100"&gt;
+&lt;p&gt;cloud&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="105"&gt;
+&lt;p&gt;cloudy&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="321"&gt;
+&lt;p&gt;I can't see   the stars because of the &lt;strong&gt;cloud&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;The sky is   too &lt;strong&gt;cloudy &lt;/strong&gt;to see the stars.&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width="100"&gt;
+&lt;p&gt;storm&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="105"&gt;
+&lt;p&gt;stormy&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="321"&gt;
+&lt;p&gt;A &lt;strong&gt;storm &lt;/strong&gt;is forecast for tomorrow.&lt;/p&gt;
+&lt;p&gt;It is too &lt;strong&gt;stormy &lt;/strong&gt;to drive safely.&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;We can describe the weather in more detail by using weather phrases.&lt;/p&gt;
+&lt;p&gt;If the weather is extremely hot, we can say that it is "boiling hot." Or, if it's very cold we can say that it is "freezing cold."&lt;/p&gt;
+&lt;p&gt;We can also use adverbs and adjectives to further describe the weather.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td width="105" class="lsn3-th"&gt;
+&lt;p&gt;&lt;span&gt;&lt;strong&gt;Adjective&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="119" class="lsn3-th"&gt;
+&lt;p&gt;&lt;span&gt;&lt;strong&gt;Adverb&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="303" class="lsn3-th"&gt;
+&lt;p&gt;&lt;span&gt;&lt;strong&gt;Example&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width="105"&gt;
+&lt;p&gt;light&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="119"&gt;
+&lt;p&gt;lightly&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="303"&gt;
+&lt;p&gt;There is a &lt;strong&gt;light &lt;/strong&gt;rain.&lt;/p&gt;
+&lt;p&gt;It is   raining &lt;strong&gt;lightly&lt;/strong&gt;.&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width="105"&gt;
+&lt;p&gt;heavy&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="119"&gt;
+&lt;p&gt;heavily&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="303"&gt;
+&lt;p&gt;We need   skis in this &lt;strong&gt;heavy &lt;/strong&gt;snow.&lt;/p&gt;
+&lt;p&gt;It is   snowing &lt;strong&gt;heavily &lt;/strong&gt;in the mountains.&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width="105"&gt;
+&lt;p&gt;strong&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="119"&gt;
+&lt;p&gt;strongly&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="303"&gt;
+&lt;p&gt;There is a &lt;strong&gt;strong &lt;/strong&gt;storm heading our way.&lt;/p&gt;
+&lt;p&gt;The wind is   blowing &lt;strong&gt;strongly&lt;/strong&gt;.&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width="105"&gt;
+&lt;p&gt;weak&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="119"&gt;
+&lt;p&gt;weakly&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="303"&gt;
+&lt;p&gt;The windows   were being rattled by a &lt;strong&gt;weak &lt;/strong&gt;wind.&lt;/p&gt;
+&lt;p&gt;The wind   blows &lt;strong&gt;weakly &lt;/strong&gt;in the city.&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;span&gt;2. Forming the Present Continuous Tense &lt;/span&gt;
+&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;We use the present continuous tense to describe something that is, or isn't, happening right now.&lt;/p&gt;
+&lt;p&gt;Present continuous sentences are formed like this:&lt;/p&gt;
+&lt;p&gt;[subject] + [be] + [~ing verb] + [object/complement]&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "You are studying English now."&lt;/li&gt;
+&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "I am teaching English."&lt;/li&gt;
+&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "You're not driving a car."&lt;/li&gt;
+&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "I am not swimming."&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td width="95" class="lsn3-th"&gt;
+&lt;p&gt;&lt;span&gt;&lt;strong&gt;Infinitive&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="116" class="lsn3-th"&gt;
+&lt;p&gt;&lt;span&gt;&lt;strong&gt;Present Simple&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="127" class="lsn3-th"&gt;
+&lt;p&gt;&lt;span&gt;&lt;strong&gt;Present Continuous&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="189" class="lsn3-th"&gt;
+&lt;p&gt;&lt;span&gt;&lt;strong&gt;Example&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width="95"&gt;
+&lt;p&gt;to walk&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="116"&gt;
+&lt;p&gt;walk&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="127"&gt;
+&lt;p&gt;walking&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="189"&gt;
+&lt;p&gt;I am   walking to school&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width="95"&gt;
+&lt;p&gt;to eat&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="116"&gt;
+&lt;p&gt;eat&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="127"&gt;
+&lt;p&gt;eating&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="189"&gt;
+&lt;p&gt;I am eating   lunch.&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width="95"&gt;
+&lt;p&gt;to sleep&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="116"&gt;
+&lt;p&gt;sleep&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="127"&gt;
+&lt;p&gt;sleeping&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="189"&gt;
+&lt;p&gt;He is   sleeping now.&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width="95"&gt;
+&lt;p&gt;to study&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="116"&gt;
+&lt;p&gt;study&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="127"&gt;
+&lt;p&gt;studying&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="189"&gt;
+&lt;p&gt;She is   studying maths.&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width="95"&gt;
+&lt;p&gt;to run&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="116"&gt;
+&lt;p&gt;run&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="127"&gt;
+&lt;p&gt;running&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="189"&gt;
+&lt;p&gt;I am   running for the train.&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Katrina uses this form when she says "It's raining now" in the dialogue.&lt;/p&gt;
+&lt;p&gt;It's easy to use this form to describe weather. Let's look at this weather report:&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;"Good morning everyone, here is the weather report. In London, the sun is shining and temperatures are warm. In Birmingham the wind is blowing, but it isn't cold. In Liverpool it is raining lightly and in Manchester it is raining heavily. In Inverness it is snowing. My friend lives in the north of Scotland and he isn't driving to work today. I suggest that everyone stays at home!" &lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;span&gt;3. Stating and Differentiating Level of Certainty &lt;/span&gt;
+&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;We can use modal verbs to show how certain something is. An example of this from the dialogue is "It's supposed to be freezing cold later."&lt;/p&gt;
+&lt;p&gt;The table below has some of the most common modal verbs. The level of certainty decreases down the table.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td width="148"&gt;
+&lt;p&gt;&lt;strong&gt;Highest&lt;/strong&gt;&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="171"&gt;
+&lt;p&gt;will&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="208"&gt;
+&lt;p&gt;It &lt;strong&gt;will&lt;/strong&gt; rain tomorrow.&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width="148"&gt;
+&lt;p&gt;&lt;strong&gt;&lt;br&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="171"&gt;
+&lt;p&gt;should&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="208"&gt;
+&lt;p&gt;It &lt;strong&gt;should &lt;/strong&gt;rain tomorrow.&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width="148"&gt;
+&lt;p&gt;&lt;strong&gt;&lt;br&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="171"&gt;
+&lt;p&gt;supposed&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="208"&gt;
+&lt;p&gt;It is &lt;strong&gt;supposed &lt;/strong&gt;to rain tomorrow.&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width="148"&gt;
+&lt;p&gt;&lt;strong&gt;&lt;br&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="171"&gt;
+&lt;p&gt;may&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="208"&gt;
+&lt;p&gt;It &lt;strong&gt;may &lt;/strong&gt;rain tomorrow.&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width="148"&gt;
+&lt;p&gt;&lt;strong&gt;&lt;br&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="171"&gt;
+&lt;p&gt;might&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="208"&gt;
+&lt;p&gt;It &lt;strong&gt;might &lt;/strong&gt;rain tomorrow.&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width="148"&gt;
+&lt;p&gt;&lt;strong&gt;&lt;br&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="171"&gt;
+&lt;p&gt;could&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="208"&gt;
+&lt;p&gt;It &lt;strong&gt;could &lt;/strong&gt;rain tomorrow.&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width="148"&gt;
+&lt;p&gt;&lt;strong&gt;&lt;br&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="171"&gt;
+&lt;p&gt;shouldn't&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="208"&gt;
+&lt;p&gt;It &lt;strong&gt;shouldn't &lt;/strong&gt;rain tomorrow.&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width="148"&gt;
+&lt;p&gt;&lt;strong&gt;Lowest&lt;/strong&gt;&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="171"&gt;
+&lt;p&gt;won't&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="208"&gt;
+&lt;p&gt;It &lt;strong&gt;won't &lt;/strong&gt;rain tomorrow.&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Examples from the dialogue:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "The weather forecast said that it will probably snow heavily later."&lt;/li&gt;
+&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; "Yeah, but it's supposed to be freezing cold tonight."&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;span&gt;&lt;strong&gt;Sample Sentences&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;
+&lt;/p&gt;&lt;hr&gt;&lt;ol&gt;&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; "I wanted to go to the park, but it is raining heavily."&lt;/li&gt;
+&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; "Today is so sunny that I don't want to go to school."&lt;/li&gt;
+&lt;li&gt;&amp;nbsp;"It'll probably snow on my birthday."&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                                                &lt;h3&gt;Cultural Insights&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;strong&gt;&lt;span&gt;Weather in the UK&lt;/span&gt;
+&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;The UK's climate is pretty mild as winter temperatures are cool, but not freezing, and summer temperatures warm without being boiling hot. Snow does fall across the UK and can occasionally be heavy, but throughout most of England and Wales it isn't severe. The UK has very unsettled weather, and can experience cloud, sun, and rain within the space of a few hours. If you go to the UK, always have an umbrella with you!&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;As the weather is so changeable, it is a very popular topic of conversation. British people like to talk about the weather and complain about the heat, cold, or rain. There are many weather idioms that people like to use, such as "raining cats and dogs" or "the heavens opened" to describe heavy rain. People also use weather words to describe other situations, such as "storm in a teacup" for a situation that isn't serious or "face like thunder" to describe someone who is angry.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                        &lt;div class="lsn3-button--controls"&gt;
+                                                    &lt;div class="lsn3-button--a"&gt;
+                                                            &lt;/div&gt;
+                                            &lt;/div&gt;
+                &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+                                            &lt;h3&gt;Grammar&lt;/h3&gt;
+                        &lt;div&gt;
                             &lt;p&gt;&lt;span&gt; &lt;strong&gt; &lt;span&gt;The Focus of This Lesson is Affirmative Sentences.&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;span&gt; &lt;strong&gt; "Yes, tomorrow is Wednesday."&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
 &lt;p&gt;&lt;span&gt;&lt;span&gt; &lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
 &lt;hr&gt;&lt;p&gt;When asked a question, you can make an &lt;strong&gt;affirmative sentence&lt;/strong&gt;&lt;em&gt; &lt;/em&gt;by opening with "yes," and a form of the verb "to be."&lt;/p&gt;
@@ -67,7 +506,7 @@
 &lt;li&gt;&lt;span&gt;&lt;strong&gt;Question:&lt;/strong&gt; "Will you study English for a long time?"&lt;br&gt;&lt;strong&gt;Answer:&lt;/strong&gt;&lt;/span&gt;&lt;/li&gt;
 &lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
                                                                 &lt;h3&gt;Cultural Insights&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
+                        &lt;div&gt;
                             &lt;p&gt;&lt;span&gt; &lt;strong&gt; Please "Stop By!" &lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;hr&gt;&lt;p&gt;Zo calls his teacher to find out if he can "stop by."&lt;/p&gt;
@@ -80,29 +519,16 @@
 &lt;li&gt;"Let's stop by the store on the way home."&lt;/li&gt;
 &lt;li&gt;"Do you mind if I stop by after work?"&lt;/li&gt;
 &lt;/ol&gt;&lt;p&gt;The next time you want to visit a friend, call him up and ask if you can stop by!&lt;/p&gt;                        &lt;/div&gt;
-                                        &lt;div class="lsn3-button--controls"&gt;
-                                                    &lt;div class="lsn3-button--a"&gt;
+                                        &lt;div&gt;
+                                                    &lt;div&gt;
                                                             &lt;/div&gt;
                                             &lt;/div&gt;
                 &lt;/div&gt;</t>
   </si>
   <si>
-    <t>A: (singing a pop song)
-  B: Excuse me. May I pass by you? My seat’s next to yours.
-  A: Oh, sorry! Go ahead, please.
-  B: Hello. How are you? I'm Zo.
-  A: Hi! Nice to meet you. I'm Michelle.
-  B: I'm sorry. Your name again, please. Slowly.
-  A: Michelle.
-  B: Michelle.
-  A: That's it. But please call me Shelly.
-  B: Shelly. Nice to meet you.
-  A: Nice to meet you too</t>
-  </si>
-  <si>
-    <t>&lt;div class="lsn3-lesson-notes"&gt;
+    <t>&lt;div&gt;
                                             &lt;h3&gt;Grammar&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
+                        &lt;div&gt;
                             &lt;p&gt;&lt;span&gt; &lt;strong&gt; &lt;span&gt;The Focus of This Lesson is Making a Request or Asking For Something Using, "Please." &lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;span&gt; &lt;strong&gt; "Please call me Shelly."&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;hr&gt;&lt;p&gt;Making a request or asking for something in English is easy. Say, "Please," followed by your request:&lt;/p&gt;
@@ -118,7 +544,7 @@
 &lt;p&gt;2.&lt;/p&gt;
 &lt;p&gt;3.&lt;/p&gt;                        &lt;/div&gt;
                                                                 &lt;h3&gt;Cultural Insights&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
+                        &lt;div&gt;
                             &lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;&lt;span&gt;&lt;strong&gt;Meeting for the First Time...&lt;/strong&gt;&lt;/span&gt;&lt;strong&gt;&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
@@ -127,30 +553,16 @@
 &lt;p&gt;Michelle has given Zo, whom she has never met, permission to call her by her nickname, or short version of her name. She says, "Please call me Shelly." "Please call me..." means, "Please call me by this name&lt;em&gt;."&lt;/em&gt;&lt;br&gt;&lt;br&gt; In some cultures, nicknames are only used by family and close friends. In America, it's not uncommon for some people to be known only by their nicknames. Some names and nicknames common in the US.&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Name:&lt;/strong&gt; James&lt;br&gt;&lt;strong&gt;Nickname:&lt;/strong&gt; Jim&lt;br&gt;&lt;br&gt;&lt;strong&gt;Name:&lt;/strong&gt; Alexandra&lt;br&gt;&lt;strong&gt;Nickname:&lt;/strong&gt; Alex&lt;br&gt;&lt;br&gt;&lt;strong&gt;Name:&lt;/strong&gt; William&lt;br&gt;&lt;strong&gt;Nickname:&lt;/strong&gt; Bill or Will&lt;br&gt;&lt;br&gt; Do you have a nickname? Do you use it?&lt;/p&gt;
 &lt;p&gt;What are some common names and nicknames in your country?&lt;/p&gt;                        &lt;/div&gt;
-                                        &lt;div class="lsn3-button--controls"&gt;
-                                                    &lt;div class="lsn3-button--a"&gt;
+                                        &lt;div&gt;
+                                                    &lt;div&gt;
                                                             &lt;/div&gt;
                                             &lt;/div&gt;
                 &lt;/div&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> A: So who’s the singer?
-  B: I'm sorry?
-  A: The song you were singing.
-  B: Oh my gosh! I'm embarrassed! It's Beyoncé. [laughs]
-  A: Oh, of course! Good choice. So where are you from?
-  B: I'm from Los Angeles.
-  A: Ah, yes, Los Angeles.
-  B: And you? Where are you from? Are you South African?
-  A: Yes, I’m South African!
-  B: Are you from Johannesburg?
-  A: No, I'm not. I'm from Cape Town.
-  B: Oh, is that so?</t>
-  </si>
-  <si>
-    <t>&lt;div class="lsn3-lesson-notes"&gt;
+    <t>&lt;div&gt;
                                             &lt;h3&gt;Grammar&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
+                        &lt;div&gt;
                             &lt;p&gt;&lt;strong&gt;&lt;span&gt; The Focus of This Lesson is Asking "Who" and "Where" and Answering Questions About Yourself.&lt;/span&gt;&lt;br&gt;&lt;span&gt; "So, who's the singer?"&lt;br&gt; "Where are you from?"&lt;/span&gt;&lt;br&gt;&lt;/strong&gt;&lt;/p&gt;
 &lt;hr&gt;&lt;p&gt;In this lesson, we are going to cover a couple different ways to ask and answer questions in English. We'll begin with interrogative pronouns and move on to answering questions about yourself with negative and affirmative statements. Let's get started!&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
@@ -193,34 +605,22 @@
 &lt;li&gt;Are you a good student?&lt;/li&gt;
 &lt;/ol&gt;                        &lt;/div&gt;
                                                                 &lt;h3&gt;Cultural Insights&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
+                        &lt;div&gt;
                             &lt;p&gt;&lt;span&gt; &lt;strong&gt; More About Asking Where People are From!&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;hr&gt;&lt;p&gt;How does Michelle know where Zo is from before he tells her? She probably hears his accent and recognizes it as being from South Africa. Michelle tests her knowledge by asking Zo if he is in fact from (country). Zo seems excited that Michelle correctly identifies where he is from, even though she is wrong about the city.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;While doing so is considered rude in some countries, it is not uncommon for Americans to ask foreign strangers where they are from. Usually it is a sign of genuine curiosity. As the years go by, America and other countries in the western world are becoming more and more diverse, and so is general interest in unfamiliar people and places. Granted, not everyone has good feelings about the world becoming more international, but if someone asks you where you're from, you can be fairly sure that they want to get to know you better, even if only for a short time.&lt;/p&gt;                        &lt;/div&gt;
-                                        &lt;div class="lsn3-button--controls"&gt;
-                                                    &lt;div class="lsn3-button--a"&gt;
+                                        &lt;div&gt;
+                                                    &lt;div&gt;
                                                             &lt;/div&gt;
                                             &lt;/div&gt;
                 &lt;/div&gt;</t>
   </si>
   <si>
-    <t>A: (to flight attendant) Excuse me, may I have some water, please?
-  B: Oh, certainly, ma'am.
-  A: Sorry. So, Cape Town’s nice. It seems so…interesting!
-  C: (laughs) Los Angeles is nice, too! So, what do you do in Los Angeles?
-  A: I'm a nutritionist and personal trainer.
-  C: Once again, slowly please.
-  A: I'm a (enunciating) nu-tri-tion-ist, and a per-so-nal trai-ner.
-  C: Sorry, I don't understand.
-  A: Nutritionist and personal trainer. I help people eat healthy foods and exercise the right way!
-  C: Oh, I see!</t>
-  </si>
-  <si>
-    <t>&lt;div class="lsn3-lesson-notes"&gt;
+    <t>&lt;div&gt;
                                             &lt;h3&gt;Grammar&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
+                        &lt;div&gt;
                             &lt;p&gt;&lt;strong&gt;&lt;span&gt; The Focus of This Lesson is Asking, "What Do You Do?" and Talking About Jobs &lt;/span&gt;&lt;br&gt;&lt;span&gt; "So, what do you do in Los Angeles?" &lt;br&gt; "I'm a nutritionist and personal trainer." &lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;hr&gt;&lt;p&gt;"What do you do?" is probably one of the most commonly used phrases in the English language, particularly among those who have just met. In many English-speaking countries, especially America, talk about jobs and work can steer entire conversations. Luckily, asking someone what he does for a living is quite easy. You simply say, "What do you do?"&lt;/p&gt;
@@ -254,28 +654,22 @@
 &lt;li&gt;Do you enjoy it?&lt;/li&gt;
 &lt;/ol&gt;                        &lt;/div&gt;
                                                                 &lt;h3&gt;Cultural Insights&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
+                        &lt;div&gt;
                             &lt;p&gt;&lt;span&gt; &lt;strong&gt; The Best Ways to Strike Up a Conversation in English&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;hr&gt;&lt;p&gt;The weather is probably one of the most common topics of conversation. The second most popular topic of conversation is jobs, or what people do for a living.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
-                                        &lt;div class="lsn3-button--controls"&gt;
-                                                    &lt;div class="lsn3-button--a"&gt;
+                                        &lt;div&gt;
+                                                    &lt;div&gt;
                                                             &lt;/div&gt;
                                             &lt;/div&gt;
                 &lt;/div&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> A: Good afternoon, everyone. This is the pilot. Welcome to New York. The time now is three PM on Thursday, April 30th. The temperature’s a cool fifty-three degrees Fahrenheit, which is about twelve degrees Celsius. Enjoy your stay in New York.
-  B: Fifty-three degrees? Wow. It's cold.
-  C: Yep, I have a jacket.
-  B: [sounding forlorn] Oh. I don't.</t>
-  </si>
-  <si>
-    <t>&lt;div class="lsn3-lesson-notes"&gt;
+    <t>&lt;div&gt;
                                             &lt;h3&gt;Grammar&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
+                        &lt;div&gt;
                             &lt;p&gt;&lt;strong&gt;&lt;span&gt; The Focus of This Lesson is Talking About the Time, Date, and Temperature.&lt;/span&gt;&lt;br&gt;&lt;span&gt; "The time is 3:00 PM on Thursday."&lt;br&gt; "The temperature is a cool 53 degrees."&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;&lt;span style="text-decoration:underline;"&gt; &lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
 &lt;hr&gt;&lt;p&gt;&lt;strong&gt; Talking About the Time&lt;/strong&gt;&lt;br&gt;&lt;br&gt; It's easy to talk about the time. In the dialogue, the pilot says, "The time now is 3:00 PM." In other words, it's three in the afternoon. To ASK about the time say, "What time is it?" Another way of asking about the time is, "Do you have the time?" Still another is, "Do you know what time it is?" To ANSWER, "What time is it?" you can say, "It's 6:00 PM." or, "it's 6:00 in the evening."&lt;br&gt;&lt;br&gt;&lt;strong&gt;AM&lt;/strong&gt; is used to mean &lt;strong&gt;morning&lt;/strong&gt;.&lt;br&gt;&lt;strong&gt;PM&lt;/strong&gt; is used to mean &lt;strong&gt;afternoon&lt;/strong&gt; or &lt;strong&gt;evening&lt;/strong&gt;.&lt;br&gt;&lt;br&gt; For each time listed below, write another way of expressing the same time.&lt;br&gt;&lt;br&gt;&lt;strong&gt;Example&lt;/strong&gt;&lt;br&gt; 2:00 PM = two o'clock in the afternoon&lt;/p&gt;
@@ -317,31 +711,21 @@
 &lt;p&gt;&lt;strong&gt;For example:&lt;br&gt;&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;Question:&lt;/strong&gt; "What's the weather like today?"&lt;br&gt;&lt;strong&gt;Answer:&lt;/strong&gt; "Well, it'll be about fifty degrees in the morning, but it'll reach seventy-five degrees in the afternoon."&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;What's the weather like where you are?&lt;/strong&gt;&lt;/p&gt;                        &lt;/div&gt;
                                                                 &lt;h3&gt;Cultural Insights&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
+                        &lt;div&gt;
                             &lt;p&gt;&lt;span&gt;&lt;strong&gt;Be Ready for the Cold&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;hr&gt;&lt;p&gt;New York will get very cold in the winter. If you're planning on visiting the city, make sure you bring a proper jacket. It also snows, so it's a good idea to bring a warm hat or beenie.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
-                                        &lt;div class="lsn3-button--controls"&gt;
-                                                    &lt;div class="lsn3-button--a"&gt;
+                                        &lt;div&gt;
+                                                    &lt;div&gt;
                                                             &lt;/div&gt;
                                             &lt;/div&gt;
                 &lt;/div&gt;</t>
   </si>
   <si>
-    <t>A: Foreign passport holders this way. Foreign passport holders this way.
-  B: Well, it was nice to meet you.
-  C: Same here.
-  B: By the way, this is my business card. This is my e-mail address, and this is my phone number.
-  C: Oh, thanks! I have a business card too. This is my business card. Here you are. My e-mail and my cell phone number are here. E-mail me!
-  B: Okay! Thank you!
-  C: Bye-bye! Enjoy your stay!
-  B: Thanks Bye!</t>
-  </si>
-  <si>
-    <t>&lt;div class="lsn3-lesson-notes"&gt;
+    <t>&lt;div&gt;
                                             &lt;h3&gt;Grammar&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
+                        &lt;div&gt;
                             &lt;p&gt;&lt;span&gt;&lt;strong&gt;The Focus of This Lesson is &lt;/strong&gt;&lt;/span&gt;&lt;span&gt;&lt;strong&gt;Possessive Adjectives used with&lt;/strong&gt;&lt;strong&gt; the Conjunction "And," and t&lt;/strong&gt;&lt;/span&gt;&lt;span&gt;&lt;strong&gt;he Demonstrative "This," plus &lt;/strong&gt;&lt;/span&gt;&lt;span&gt;&lt;strong&gt;Informal Imperatives.&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
 &lt;p&gt;&lt;span&gt;&lt;strong&gt;"This is my business card. This is my e-mail address and this is my phone number.&lt;/strong&gt;&lt;/span&gt;&lt;span&gt;&lt;strong&gt; E-mail me!"&lt;/strong&gt;&lt;/span&gt;&lt;span&gt;&lt;strong&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
 &lt;p&gt;&lt;span&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
@@ -370,37 +754,21 @@
 &lt;p&gt;&lt;strong&gt;Take&lt;/strong&gt;&lt;br&gt;Polite:&lt;br&gt;Informal:&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Follow&lt;/strong&gt;&lt;br&gt;Polite:&lt;br&gt;Informal:&lt;/p&gt;                        &lt;/div&gt;
                                                                 &lt;h3&gt;Cultural Insights&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
+                        &lt;div&gt;
                             &lt;p&gt;&lt;span&gt;&lt;strong&gt;Networking&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
 &lt;hr&gt;&lt;p&gt;The most polite way to ask for someone's contact information—their phone number, email address, etc.—is to first offer your own. If the person is indeed interested in communicating with you further, her or she will offer his or her contact information in return. If the person does NOT offer their information in return, it is safe to assume that he or she is not interested in continuing a relationship with you. It's considered rude to demand that someone give you their personal information.&lt;/p&gt;
 &lt;p&gt;Luckily for our main character, Zo, Michelle IS interested in talking with him more!&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
-                                        &lt;div class="lsn3-button--controls"&gt;
-                                                    &lt;div class="lsn3-button--a"&gt;
+                                        &lt;div&gt;
+                                                    &lt;div&gt;
                                                             &lt;/div&gt;
                                             &lt;/div&gt;
                 &lt;/div&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> A: Next. Passport, please.
-  B: Hello. Here you are.
-  A: How long will you stay?
-  B: Once again, please.
-  A: How long will you stay?
-  B: For 2 weeks.
-  A: Where will you stay?
-  B: At the L Hotel.
-  A: What’s the purpose of your stay?
-  B: Once again, please. Slowly please.
-  A: [annoyed but slowly] What’s the purpose of your stay?
-  B: I'm here on business, and to sightsee.
-  A: Okay. Thank you. Welcome to the United States.
-</t>
-  </si>
-  <si>
-    <t>&lt;div class="lsn3-lesson-notes"&gt;
+    <t>&lt;div&gt;
                                             &lt;h3&gt;Grammar&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
+                        &lt;div&gt;
                             &lt;p&gt;&lt;span&gt;&lt;strong&gt;The Focus of This Lesson is&lt;span&gt; &lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;span&gt;&lt;strong&gt;Implied Verbs&lt;/strong&gt;&lt;/span&gt;&lt;span&gt;&lt;strong&gt;&lt;span&gt; a&lt;/span&gt;nd Prepositions&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;span&gt;&lt;strong&gt;&lt;span&gt;"Passport, please."&lt;br&gt;"For two weeks." &lt;br&gt;"At The L Hotel."&lt;br&gt;"I'm here on business and to sight see."&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
 &lt;hr&gt;&lt;p&gt;&lt;span&gt;&lt;strong&gt;Implied Verbs&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
@@ -428,167 +796,20 @@
 &lt;p&gt;4.&lt;/p&gt;
 &lt;p&gt;5.&lt;/p&gt;                        &lt;/div&gt;
                                                                 &lt;h3&gt;Cultural Insights&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
+                        &lt;div&gt;
                             &lt;p&gt;&lt;span&gt;&lt;strong&gt;Running the Customs Gauntlet&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;hr&gt;&lt;p&gt;You'll notice that the customs official is very short with Zo—that is to say, he or she doesn't provide long questions or answers. He or she simply wants to get the job done. He or she is not interested in friendly conversation, hence the absence of polite requests and small talk. The customs official is a man or woman of very few words; he or she is all about business, as we say. This seems to be true, however, of customs officials all over the world. Their job of keeping the airports—and countries, really—safe from intruders with bad intentions is a very serious one. If they were to be nice and polite and relaxed, it's likely that criminals would take advantage of them, and that the process of getting through customs would be much longer than it is. Customs officials have a high volume of visitors to process, as well as anxious visitors who simply want to move through the line quickly and easily so they can claim their baggage and be on their way. It's understandble that customs officials would want to do their jobs as efficiently and as quickly as possible. Which means very few words! And very little—if any—conversation!&lt;/p&gt;                        &lt;/div&gt;
-                                        &lt;div class="lsn3-button--controls"&gt;
-                                                    &lt;div class="lsn3-button--a"&gt;
+                                        &lt;div&gt;
+                                                    &lt;div&gt;
                                                             &lt;/div&gt;
                                             &lt;/div&gt;
                 &lt;/div&gt;</t>
   </si>
   <si>
-    <t>A: Next, please.
-  B: I'd like to go to Times Square. Please, what time’s the shuttle bus?
-  A: Four o'clock.
-  B: Okay. 1 ticket, please.
-  A: $40. Cash or credit card?
-  B: Credit card.
-  A: Sign, please.
-  Here's the receipt and ticket. Stop number 3 at 4 p.m.
-  B: Thank you.
-  A: Next.</t>
-  </si>
-  <si>
-    <t>&lt;div class="lsn3-lesson-notes"&gt;
+    <t>&lt;div&gt;
                                             &lt;h3&gt;Grammar&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
-                            &lt;p&gt;&lt;span&gt;&lt;strong&gt;The Focus of This Lesson is&lt;/strong&gt; &lt;strong&gt;the Infinitive "to go," &lt;/strong&gt;&lt;strong&gt;Asking About Train or Bus Times&lt;/strong&gt;&lt;strong&gt;, and The Conjunction "Or"&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;span&gt;&lt;strong&gt;&lt;span&gt;"I'd like to go to Times Square&lt;/span&gt;."&lt;/strong&gt;&lt;/span&gt;&lt;span&gt;&lt;strong&gt;&lt;span&gt;&lt;br&gt;"What time is the train or bus to..."&lt;br&gt;&lt;span&gt;"Cash or credit card?&lt;/span&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;span&gt;"&lt;br&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;hr&gt;&lt;p&gt;&lt;span style="text-decoration:underline;"&gt;&lt;strong&gt;&lt;br&gt;&lt;/strong&gt;&lt;/span&gt;&lt;span&gt;&lt;strong&gt;The Infinitive, "to go"&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;hr&gt;&lt;p&gt;The &lt;em&gt;infinitive&lt;/em&gt;, "to go" means to move, start, continue, pass. In the dialogue, the main character, Zo, tells the ticket seller, "I'd like &lt;strong&gt;to go&lt;/strong&gt; to Times Square." Zo would like to move toward, to start for, to progress to Times Square. He is at the airport, but he'd like &lt;strong&gt;to go&lt;/strong&gt; to Times Square.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;"To go" is the &lt;em&gt;infinitive&lt;/em&gt; of the verb, "go."&lt;br&gt;&lt;br&gt;An &lt;em&gt;infinitive&lt;/em&gt; is created quite simply:&lt;/p&gt;
-&lt;p&gt;to + [simple form of a verb]&lt;/p&gt;
-&lt;p&gt;Like this:&lt;/p&gt;
-&lt;p&gt;To + sleep = to sleep&lt;br&gt;To + walk = to walk&lt;br&gt;To + run = to run&lt;br&gt;To + study = to study&lt;br&gt;To + read = to read&lt;br&gt;&lt;br&gt;And in the dialogue,&lt;/p&gt;
-&lt;p&gt;to + go = to go&lt;/p&gt;
-&lt;p&gt;&lt;em&gt;"I'd like &lt;strong&gt;to go&lt;/strong&gt; to Times Square.&lt;/em&gt;"&lt;br&gt;&lt;br&gt;Infinitives can be used as nouns, adjectives, or adverbs. And when they are, they become part of what is called an &lt;em&gt;infinitive phrase&lt;/em&gt;.&lt;/p&gt;
-&lt;p&gt;&lt;em&gt;"I'd like &lt;strong&gt;to go&lt;/strong&gt; to Times Square.&lt;/em&gt;"&lt;br&gt;&lt;br&gt;...is an infinitive phrase in which the infinitive "to go" acts as a noun. &lt;br&gt;&lt;br&gt;&lt;strong&gt;Zo&lt;/strong&gt; (subject) + &lt;strong&gt;would like&lt;/strong&gt; (verb) + &lt;strong&gt;to go&lt;/strong&gt; (infinitive) + &lt;strong&gt;to Times Square&lt;/strong&gt; (direct object).&lt;/p&gt;
-&lt;p&gt;Take a look at these other sentences that use the infinitive, "to go":&lt;br&gt;&lt;br&gt;"I want &lt;strong&gt;to go&lt;/strong&gt; out."&lt;/p&gt;
-&lt;p&gt;"I'd like to leave, but I don't know where &lt;strong&gt;to go&lt;/strong&gt;."&lt;br&gt;&lt;br&gt;"Is it okay &lt;strong&gt;to go&lt;/strong&gt; beyond the fence?"&lt;/p&gt;
-&lt;p&gt;"I don't want &lt;strong&gt;to go&lt;/strong&gt; with you."&lt;br&gt;&lt;br&gt;&lt;strong&gt;Create infinitive phrase with the infinitive forms of these verbs:&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;play&lt;/p&gt;
-&lt;p&gt;win&lt;/p&gt;
-&lt;p&gt;talk&lt;/p&gt;
-&lt;p&gt;ask&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;span&gt;&lt;strong&gt;Asking About Train or Bus Times&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;hr&gt;&lt;p&gt;Asking about train or bus times is simple. In the dialogue, Zo asks the ticket seller, "What time is the bus?"&lt;br&gt;&lt;br&gt;In the dialogue, Zo says, "I'd like to go to Times Square. What time is the bus?"&lt;br&gt;&lt;br&gt;He says the name of the place he'd like to get to first, and then asks for the bus time.&lt;br&gt;&lt;br&gt;The easiest way to ask for a train or bus time is to use the phrase:&lt;br&gt;&lt;strong&gt;&lt;br&gt;&lt;em&gt;"What time is the train/bus to [location]?&lt;/em&gt;&lt;/strong&gt;"&lt;br&gt;&lt;br&gt;For example,&lt;br&gt;&lt;br&gt;"What time is the bus to New Jersey?"&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;span&gt;&lt;strong&gt;EXERCISE&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Answer these questions about asking for a train or bus time:&lt;/strong&gt;&lt;br&gt;&lt;br&gt;1. How would you ask when the train to Philadelphia is?&lt;/p&gt;
-&lt;p&gt;2. What about the bus to Boston?&lt;br&gt;&lt;br&gt;3. Or the train to New Haven?&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;span&gt;&lt;strong&gt;The Conjunction, "or"&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;hr&gt;&lt;p&gt;The ticket seller asks Zo, "Cash &lt;strong&gt;or&lt;/strong&gt; credit card?"&lt;br&gt;&lt;br&gt;"Or" is a conjunction. You may remember from previous lessons that a conjunction is a word that links two words or phrases together. "Or" shows two choices or possibilities. For example:&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;"Would you like tea or coffee?"&lt;/p&gt;
-&lt;p&gt;"Do you prefer to sit here or there?"&lt;/p&gt;
-&lt;p&gt;"Would you like to eat inside or outside?"&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Write sentences using the conjunction "or" for each of these pairs of words:&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;EXAMPLE:&lt;br&gt;&lt;br&gt;New York&lt;br&gt; Los Angeles&lt;br&gt;&lt;br&gt;"Would you rather live in New York &lt;strong&gt;or&lt;/strong&gt; Los Angeles?"&lt;/p&gt;
-&lt;p&gt;1. today&lt;br&gt; tomorrow&lt;br&gt;&lt;br&gt;2. now&lt;br&gt; later&lt;/p&gt;
-&lt;p&gt;3. small&lt;br&gt; large&lt;br&gt;&lt;br&gt;4. with&lt;br&gt; without&lt;/p&gt;                        &lt;/div&gt;
-                                                                &lt;h3&gt;Cultural Insights&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
-                            &lt;p&gt;&lt;span&gt;&lt;strong&gt;Getting from A to B&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;hr&gt;&lt;p&gt;As you probably know, transportation options at airports are plentiful. There are trains, taxis, buses, private cars, and a few other ways to get from the airport to your accommodations—where you're staying. In the dialogue, Zo has landed at JFK International Airport in New York and will be traveling by &lt;em&gt;shuttle bus&lt;/em&gt; to Times Square. Shuttle buses are so called because they "shuttle," or transport, people quickly between two locations. While standard buses make many stops along a route, shuttle buses travel between two locations. Even though many feature extra room for luggage, airport shuttle buses are usually much smaller than standard buses. The most well-known airport shuttle bus company in America is Supershuttle, which serves air travelers across the country.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
-                                        &lt;div class="lsn3-button--controls"&gt;
-                                                    &lt;div class="lsn3-button--a"&gt;
-                                                            &lt;/div&gt;
-                                            &lt;/div&gt;
-                &lt;/div&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A: Good evening, sir!
-  B: Hello. [Places items on the counter]
-  C: Okay—so that’s 3 bottles of water, 1 bottle of orange juice, 1 can of soda, a sandwich, a box of crackers, and a pack of gum. Is that all?
-  B: What’s that?
-  A: Oh—that’s carrot cake. It's delicious!
-  B: Oh, yeah? One, please!
-  A: That'll be $23.
-  B: Here's a fifty.
-  A: All right. $27 is your change. Thank you. Come again!
-  B: Thank you.</t>
-  </si>
-  <si>
-    <t>&lt;div class="lsn3-lesson-notes"&gt;
-                                            &lt;h3&gt;Grammar&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
-                            &lt;p&gt;&lt;span&gt;&lt;strong&gt;The Focus of This Lesson is &lt;/strong&gt;&lt;strong&gt;Counters&lt;/strong&gt;&lt;strong&gt; and t&lt;/strong&gt;&lt;strong&gt;he phrase, "What is that?"&lt;/strong&gt;&lt;/span&gt;&lt;span&gt;&lt;strong&gt;&lt;em&gt;&lt;/em&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span&gt;&lt;strong&gt;&lt;span&gt;"Okay—so that’s three bottles of water, one bottle of orange juice, one can of soda, a sand&lt;span&gt;wich, &lt;/span&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;span&gt;&lt;strong&gt;a box of crackers, and a pack of gum&lt;/strong&gt;&lt;strong&gt;.&lt;/strong&gt;&lt;/span&gt;"&lt;br&gt;&lt;span&gt;&lt;strong&gt;&lt;span&gt;"What is that?"&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;span&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;hr&gt;&lt;p&gt;&lt;span&gt;&lt;strong&gt;Counters&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;hr&gt;&lt;p&gt;When Zo places the items he is buying on the counter in the store, the cashier takes stock—counts—all of Zo purchases:&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;span&gt;&lt;em&gt;"Okay—so that’s 3 bottles of water, 1 bottle of orange juice, 1 can of soda, a sandwich, a&amp;nbsp; box of crackers, and a pack of gum."&lt;/em&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;Counting nouns—especially foods—in English is, in a sense, quite easy. If you know the container that a food or drink is packaged in, or the shape a particular food is cooked or served in, you may already have an idea of how to count that food or drink. The list of counters, or "counting words," is nearly endless, as are the counters that you use for any given object. &lt;br&gt;&lt;br&gt;&lt;strong&gt;Take a look at the first three counters that appear in the dialogue:&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;em&gt;3 bottles of water&lt;br&gt;1 bottle of orange juice&lt;br&gt;I can of soda&lt;/em&gt;&lt;br&gt;&lt;br&gt;Zo is buying water that has been packaged in bottles. The orange juice has been packaged into a bottle, too. He is also buying a can of soda—the soda has been packaged into a can.&lt;/p&gt;
-&lt;p&gt;Of course, there are other ways to package water, juice, and soda:&lt;/p&gt;
-&lt;p&gt;water in three (3) jugs = 3 jugs of water&lt;br&gt;orange juice in two (2) cartons = 2 cartons of orange juice&lt;br&gt;soda in a one (1) bottle = a bottle of soda&lt;br&gt;&lt;br&gt;As you can see, &lt;strong&gt;the counter, or "counting word," you use for an object depends on how that object is packaged.&lt;/strong&gt;&lt;br&gt;&lt;br&gt;*Note: the number one (1) can always be signified with the particle "a": &lt;em&gt;&lt;strong&gt;a&lt;/strong&gt; can of soda, &lt;strong&gt;a&lt;/strong&gt; bottle of water, &lt;strong&gt;a&lt;/strong&gt; carton of orange juice.&lt;/em&gt;&lt;/p&gt;
-&lt;p&gt;Zo also buys:&lt;br&gt;&lt;br&gt;&lt;em&gt;a sandwich&lt;br&gt;a &lt;strong&gt;box&lt;/strong&gt; of crackers&lt;br&gt;a &lt;strong&gt;pack&lt;/strong&gt; of gum&lt;br&gt;&lt;br&gt;A sandwich = &lt;/em&gt;one sandwich; sandwiches typically don't require counters&lt;br&gt;&lt;em&gt;A box of crackers = &lt;/em&gt;one box of crackers&lt;em&gt;&lt;br&gt;A pack of gum = &lt;/em&gt;one pack (chewing gum packaging) of gum&lt;br&gt;&lt;br&gt;Here are some more counters used for foods and drinks:&lt;br&gt;&lt;br&gt;&lt;em&gt;Five &lt;strong&gt;slices&lt;/strong&gt; of pizza&lt;br&gt;&lt;br&gt;Three &lt;strong&gt;glasses &lt;/strong&gt;of wine&lt;br&gt;&lt;br&gt;One &lt;strong&gt;plate&lt;/strong&gt; of vegetables&lt;br&gt;&lt;br&gt;Six &lt;strong&gt;cups&lt;/strong&gt; of tea&lt;br&gt;&lt;br&gt;A &lt;strong&gt;stick&lt;/strong&gt; of gum&lt;br&gt;&lt;br&gt;Three apple &lt;strong&gt;wedges&lt;/strong&gt; (small, triangle-shaped pieces)&lt;/em&gt;&lt;br&gt;&lt;br&gt;The list goes on and on! What other counters can you think of?&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;span&gt;&lt;strong&gt;"What Is That?&lt;/strong&gt;&lt;strong&gt;"&lt;/strong&gt;&lt;/span&gt;&lt;span style="text-decoration:underline;"&gt;&lt;strong&gt;&lt;br&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;hr&gt;&lt;p&gt;Zo sees a strange food behind the counter in the convenience store. He doesn't know what it is, so he asks the cashier:&lt;/p&gt;
-&lt;p&gt;&lt;span&gt;&lt;em&gt;"What is &lt;strong&gt;that&lt;/strong&gt;?"&lt;/em&gt;&lt;/span&gt;&lt;span&gt;&lt;br&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;&lt;em&gt;That &lt;/em&gt;&lt;/strong&gt;is a &lt;em&gt;demonstrative.&lt;/em&gt;&lt;/p&gt;
-&lt;p&gt;&lt;em&gt;Demonstratives &lt;/em&gt;are adjectives and pronouns that identify which object or person the person speaking about. In this case, &lt;em&gt;that&lt;/em&gt; is a &lt;em&gt;demonsrative pronoun&lt;/em&gt;.&lt;/p&gt;
-&lt;p&gt;Demonstratives agree in number (singular or plural) with the objects or people being identified and change depending on how far they are from the speaker.&lt;/p&gt;
-&lt;p&gt;&lt;em&gt;"What is that?"&lt;/em&gt; = "What is that thing (singular) &lt;em&gt;over there&lt;/em&gt;?"&lt;br&gt;&lt;br&gt;The table below illustrates the proper demonstrative pronoun to use depending on 1) whether the thing it refers to is singular or plural, and 2) whether the thing is near to or far from the speaker:&lt;br&gt;&lt;br&gt;&lt;/p&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;
-&lt;td&gt;&lt;span&gt;&lt;strong&gt;NEAR&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
-&lt;td&gt;&lt;span&gt;&lt;strong&gt;FAR&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
-&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;SINGULAR&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
-&lt;td&gt;"this"&lt;/td&gt;
-&lt;td&gt;"that"&lt;/td&gt;
-&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;PLURAL&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
-&lt;td&gt;"these"&lt;/td&gt;
-&lt;td&gt;"those"&lt;/td&gt;
-&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Write whether the following demonstratives and nouns are a) SINGULAR or PLURAL and b) NEAR or FAR:&lt;br&gt;&lt;br&gt;1. These cats&lt;br&gt;a)&lt;br&gt;b)&lt;/p&gt;
-&lt;p&gt;&lt;br&gt;2. Those boxes&lt;br&gt;a)&lt;br&gt; b)&lt;br&gt;&lt;br&gt;3. This bag&lt;br&gt;a)&lt;br&gt; b)&lt;br&gt;&lt;br&gt;4. That book&lt;br&gt;a)&lt;br&gt; b)&lt;/p&gt;                        &lt;/div&gt;
-                                                                &lt;h3&gt;Cultural Insights&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
-                            &lt;p&gt;&lt;span&gt;&lt;strong&gt;The Land of Convenience&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;hr&gt;&lt;p&gt;It's probably safe to say that there are convenience stores in every heavily populated corner of the world. But also that every country and every city has its own brand of convenience stores. In New York, there are two main types of convenience stores: chains—or a series of stores owned by one big company—and independently owned, smaller stores and street stalls.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Of course, the chain stores (or "chains"), because they're owned and operated by a big corporation, have the largest and broadest selection of products. From sewing kits and gift wrap to magazines and cold medicine, chain convenience stores have just about anything you might need for any given situation. Smaller, independently-owned convenience stores—sometimes called "corner stores," because of their common location at or near street corners—and street stalls (sometimes called &lt;em&gt;bodegas&lt;/em&gt;) take up far less space and so have fewer items to choose from, most of which are foods and snacks, and important household items like toilet paper, paper towels, and toothpaste. These smaller operations often sell sandwiches and other prepared foods, and are often open until the late hours of the night.&lt;/p&gt;
-&lt;p&gt;At one time, chains kept regular business hours and closed in the evening; these days, to compete with the smaller convenience stores and street stalls, which are open quite late, more and more chains stay open either late into the evening, or for 24 hours.&lt;/p&gt;                        &lt;/div&gt;
-                                        &lt;div class="lsn3-button--controls"&gt;
-                                                    &lt;div class="lsn3-button--a"&gt;
-                                                            &lt;/div&gt;
-                                            &lt;/div&gt;
-                &lt;/div&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A: Welcome to the L Hotel!
-  B: Hello. I have a reservation.
-  A: Your name, please.
-  B: Zo Viljoen.
-  A: Spell it, please.
-  B: V-I-L-J-O-E-N.
-  A: Ah, yes. Mr. Viljoen, you are in room number 515. Here's the key.
-  B: Is there Internet in the room?
-  A: Yes, there’s complimentary wireless Internet.
-  B: And are there toiletries?
-  A: Yes, sir.
-  B: Thank you. Oh, and a wake up call, please.
-  A: Of course. What time?
-  B: 7 a.m., please. What time’s breakfast?
-  C: From 6:00 a.m. to 7:30 a.m. on the first floor in the dining room.</t>
-  </si>
-  <si>
-    <t>&lt;div class="lsn3-lesson-notes"&gt;
-                                            &lt;h3&gt;Grammar&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
+                        &lt;div&gt;
                             &lt;p&gt;&lt;span&gt;&lt;strong&gt;The Focus of This Lesson is Simple Interrogative Sentences Using "Is/Are there..." and (More) Prepositions&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;span&gt;&lt;strong&gt;"Is there Internet in the room?&lt;/strong&gt;&lt;/span&gt;"&lt;br&gt;&lt;span&gt;&lt;strong&gt;"Welcome to The L Hotel!&lt;/strong&gt;&lt;/span&gt;"&lt;br&gt;&lt;span&gt;&lt;strong&gt;"From 6:00 A.M. &lt;/strong&gt;&lt;strong&gt;to 7:30 A.M. &lt;/strong&gt;&lt;strong&gt;on the first floor &lt;/strong&gt;&lt;strong&gt;in the dining room.&lt;/strong&gt;"&lt;/span&gt;&lt;/p&gt;
 &lt;hr&gt;&lt;p&gt;&lt;span style="text-decoration:underline;"&gt;&lt;strong&gt;&lt;br&gt;&lt;/strong&gt;&lt;/span&gt;&lt;span&gt;&lt;strong&gt;Simple Interrogative Sentences: &lt;/strong&gt;&lt;/span&gt;&lt;span&gt;&lt;strong&gt;"Is/Are There"&lt;/strong&gt;&lt;/span&gt;&lt;em&gt;&lt;/em&gt;&lt;/p&gt;
 &lt;p&gt;&lt;em&gt; &lt;/em&gt;&lt;/p&gt;
@@ -621,29 +842,20 @@
 &lt;p&gt;2.&lt;/p&gt;
 &lt;p&gt;3.&lt;/p&gt;                        &lt;/div&gt;
                                                                 &lt;h3&gt;Cultural Insights&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
+                        &lt;div&gt;
                             &lt;p&gt;&lt;span&gt;&lt;strong&gt;Limitless Hotel Options&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
 &lt;hr&gt;&lt;p&gt;Zo has finally arrived in New York and, after a "pit stop" at a nearby convenience store, the hotel he'll be staying at. It seems like a nice place; the front desk worker is quite serious and answers all of Zo's questions quickly but with much professional courtesy—very politely.&lt;/p&gt;
 &lt;p&gt;Of course, New York has every sort of hotel you can imagine: major, luxury hotels like the Ritz-Carlton or the Waldorf-Astoria, design and boutique hotels like the Gramercy Park Hotel or The W Hotel, youth hostels, and even the YMCA. One can pay hundreds and hundreds of dollars for an incredibly stylish, perfectly located hotel where no detail is left unattended and your every desire is met with a smile by a gracious, attentive staff, or you can pay under US$50 for bed in a hostel room you share with other young travelers on tight budgets. At any rate, the possibilities are endless. As with everything else in New York, there's something for everyone!&lt;/p&gt;                        &lt;/div&gt;
-                                        &lt;div class="lsn3-button--controls"&gt;
-                                                    &lt;div class="lsn3-button--a"&gt;
+                                        &lt;div&gt;
+                                                    &lt;div&gt;
                                                             &lt;/div&gt;
                                             &lt;/div&gt;
                 &lt;/div&gt;</t>
   </si>
   <si>
-    <t>A: Welcome to the UK. Why are you visiting the UK?
-  B: I am here to study.
-  A: How long will you stay for?
-  B: I will stay for one year.
-  A: Where will you live?
-  B: I will live in London.
-  A: Thank you. Enjoy your stay.</t>
-  </si>
-  <si>
-    <t>&lt;div class="lsn3-lesson-notes"&gt;
+    <t>&lt;div&gt;
                                             &lt;h3&gt;Grammar&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
+                        &lt;div&gt;
                             &lt;p&gt;&lt;strong&gt;&lt;span&gt;The Focus of This Lesson is Using the Future Simple Tense to Answer Formal Questions &lt;/span&gt;&lt;br&gt;&lt;span&gt; "I am here to study."&lt;/span&gt;
 &lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;In this lesson, we will learn how to:&lt;/p&gt;
@@ -767,31 +979,22 @@
 &lt;li&gt;&amp;nbsp;"I will study maths at university."&amp;nbsp;&lt;/li&gt;
 &lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
                                                                 &lt;h3&gt;Cultural Insights&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
+                        &lt;div&gt;
                             &lt;p&gt;&lt;strong&gt;&lt;span&gt;Formality in English&lt;/span&gt;
 &lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;Although English doesn't have the strict rules of some other languages, it still has formal and informal ways of speaking. Formal English isn't as distinctly different from informal English as other languages either, but there is a difference. Speaking informally when formal language is expected won't impress the people you are talking to. If you're able to switch between formal and informal language depending on the situation, your English will sound more natural and fluent than if you can't. When you're in a formal situation, it's always best to use a full sentence instead of just one- or two-word answers, and to not use any slang or colloquialisms you may have picked up from English TV programmes or friends. If you're talking to strangers, people in authority, or are in a situation such as a job interview, always speak formally. But, if the situation becomes more relaxed and they speak informally to you, then you can speak informally as well. If in doubt though, stick to formal language.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
-                                        &lt;div class="lsn3-button--controls"&gt;
-                                                    &lt;div class="lsn3-button--a"&gt;
+                                        &lt;div&gt;
+                                                    &lt;div&gt;
                                                             &lt;/div&gt;
                                             &lt;/div&gt;
                 &lt;/div&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> A: I like this flat. How much is the rent?
-  B: It is £350 per week.
-  A: That is a little expensive. Does the flat have a garden?
-  B: The building has a garden that everyone can use.
-  A: Does the flat have a parking space?
-  B: Yes, there is space for one car.
-  A: Okay, I'll take it.</t>
-  </si>
-  <si>
-    <t>&lt;div class="lsn3-lesson-notes"&gt;
+    <t>&lt;div&gt;
                                             &lt;h3&gt;Grammar&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
+                        &lt;div&gt;
                             &lt;p&gt;&lt;span&gt; &lt;/span&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;&lt;span&gt;The Focus of This Lesson is Using Questions to Gather Information&lt;br&gt;&lt;/span&gt;&lt;span&gt;"Does the flat have a parking space?"&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
@@ -933,31 +1136,22 @@
 &lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; "Did you clean your room?"&lt;/li&gt;
 &lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
                                                                 &lt;h3&gt;Cultural Insights&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
+                        &lt;div&gt;
                             &lt;p&gt;&lt;span&gt;&lt;strong&gt;Houses in the UK&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
 &lt;p&gt;
 &lt;/p&gt;&lt;hr&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;In the UK, you will find many housing estates where many similar houses are grouped together. Popular housing types include terraced, where houses are attached in a row, semi-detached, where houses only have one house attached to them, and detached, where houses have no houses attached next door. Generally, people buy their own houses in the UK, although renting houses is popular in big cities or with younger people who can't afford to buy a house. Space is limited in the UK, so houses are small and very expensive compared to other countries. Blocks of flats are common sights in inner cities as they make the most of the limited space on offer. Most houses though have a garden. These are usually at the back of the house and are usually very green, with lots of grass and plant life. Some houses have small gardens at the front too, and a popular weekend pastime for people in the UK is to tidy up the garden.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
-                                        &lt;div class="lsn3-button--controls"&gt;
-                                                    &lt;div class="lsn3-button--a"&gt;
+                                        &lt;div&gt;
+                                                    &lt;div&gt;
                                                             &lt;/div&gt;
                                             &lt;/div&gt;
                 &lt;/div&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> A: I want to make an omelette for tea, so I need eggs.
-  B: The eggs are over here, in this aisle.
-  A: Hmm, I think I need medium-sized eggs.
-  B: Free-range eggs?
-  A: Yeah! I think half a dozen will be enough.
-  B: How about these?
-  A: Perfect! Thanks!</t>
-  </si>
-  <si>
-    <t>&lt;div class="lsn3-lesson-notes"&gt;
+    <t>&lt;div&gt;
                                             &lt;h3&gt;Grammar&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
+                        &lt;div&gt;
                             &lt;p&gt;&lt;strong&gt;&lt;span&gt;The Focus of This Lesson is Using Adjectives and Numbers to Describe What is Needed&lt;/span&gt;&lt;br&gt;&lt;span&gt;"Hmm, I think I need medium-sized eggs."&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
 &lt;hr&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
@@ -1103,221 +1297,22 @@
 &lt;li&gt;&amp;nbsp;"He has a small, red car."&lt;/li&gt;
 &lt;/ol&gt;                        &lt;/div&gt;
                                                                 &lt;h3&gt;Cultural Insights&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
+                        &lt;div&gt;
                             &lt;p&gt;&lt;strong&gt;&lt;span&gt;Supermarkets in the UK&lt;/span&gt;
 &lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;The UK used to have many small grocery shops throughout the country where people did their weekly shopping, but these have become less popular as more large supermarkets have opened. The supermarkets use their size and buying power to sell goods more cheaply. There are four big supermarket chains that own the majority of the market: Tesco, ASDA, Sainsbury's, and Morrisons. Some supermarkets are in easy-to-reach locations in the centre of towns and villages, but some of the bigger supermarkets are on the outskirts and need a car or bus ride to reach. British people usually shop big, and often buy enough food to last a week or two at a time. Meat and vegetables are popular foods to buy for people who cook at home, as most traditional British food is based around them. Other foods such as rice and pasta are eaten, but are less popular than in other countries. Most supermarkets also do a wide range of frozen meals that are quick and easy to prepare by simply microwaving them. These 'ready meals' are becoming increasingly popular.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
-                                        &lt;div class="lsn3-button--controls"&gt;
-                                                    &lt;div class="lsn3-button--a"&gt;
+                                        &lt;div&gt;
+                                                    &lt;div&gt;
                                                             &lt;/div&gt;
                                             &lt;/div&gt;
                 &lt;/div&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> A: I'll help you carry this food home. Where do you live?
-  B: I live in a third floor flat near the high street. Do you know the high street?
-  A: Yeah, I do.
-  B: If you turn right at the traffic lights, my flat is on that road.
-  A: Which traffic lights?
-  B: The lights next to the pub.
-  A: I know it! Let's go!</t>
-  </si>
-  <si>
-    <t>&lt;div class="lsn3-lesson-notes"&gt;
+    <t>&lt;div&gt;
                                             &lt;h3&gt;Grammar&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
-                            &lt;p&gt;&lt;strong&gt;&lt;span&gt;The Focus of This Lesson is Giving Directions &lt;/span&gt;&lt;br&gt;&lt;span&gt; "&lt;/span&gt;&lt;/strong&gt;&lt;strong&gt;&lt;span&gt;If you turn right at the traffic lights, my flat is on that road."&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-&lt;hr&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;In this lesson, we will learn how to:&lt;/p&gt;
-&lt;ol&gt;&lt;li&gt;&lt;strong&gt;&amp;nbsp;Use positional and directional words&lt;/strong&gt;&lt;/li&gt;
-&lt;li&gt;&lt;strong&gt;&amp;nbsp;Form imperative sentences/give simple commands&lt;/strong&gt;&lt;/li&gt;
-&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;&lt;/strong&gt;&lt;/p&gt;
-&lt;hr&gt;&lt;p&gt;&lt;strong&gt;&lt;span&gt;1. Using Positional and Directional Words&lt;/span&gt;
-&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;The most useful words when giving directions are prepositions of place. The most commonly used ones are:&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td width="148"&gt;
-&lt;p&gt;next to&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="148"&gt;
-&lt;p&gt;adjacent to&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;tr&gt;&lt;td width="148"&gt;
-&lt;p&gt;by&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="148"&gt;
-&lt;p&gt;near to,   next to&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;tr&gt;&lt;td width="148"&gt;
-&lt;p&gt;across from&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="148"&gt;
-&lt;p&gt;on the   other side&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;tr&gt;&lt;td width="148"&gt;
-&lt;p&gt;behind&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="148"&gt;
-&lt;p&gt;at the back   of&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;tr&gt;&lt;td width="148"&gt;
-&lt;p&gt;in front of&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="148"&gt;
-&lt;p&gt;before&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;We use these prepositions in front of the building or place that we are using as a reference.&lt;/p&gt;
-&lt;p&gt;For example, if we are giving directions to the bank:&lt;/p&gt;
-&lt;ol&gt;&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "The bank is next to the park."&lt;/li&gt;
-&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "The bank is by the post office."&lt;/li&gt;
-&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "The bank is across from the school."&lt;/li&gt;
-&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "The bank is behind the library."&lt;/li&gt;
-&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "The bank is in front of the supermarket."&lt;/li&gt;
-&lt;/ol&gt;&lt;p&gt;We can also use adverbs of place to help give directions. Some common ones are:&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td width="148"&gt;
-&lt;p&gt;outside&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="148"&gt;
-&lt;p&gt;not inside,   the exterior&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;tr&gt;&lt;td width="148"&gt;
-&lt;p&gt;nearby&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="148"&gt;
-&lt;p&gt;close, in   the vicinity&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;tr&gt;&lt;td width="148"&gt;
-&lt;p&gt;around&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="148"&gt;
-&lt;p&gt;in the   vicinity of, in all directions&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;tr&gt;&lt;td width="148"&gt;
-&lt;p&gt;inside&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="148"&gt;
-&lt;p&gt;within, the   interior&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;We use also use adverbs of place as prepositions. In these sentences, a noun isn't always needed and we can make a sentence just with the subject and adverb.&lt;/p&gt;
-&lt;p&gt;For example, if we are looking for Mark:&lt;/p&gt;
-&lt;ol&gt;&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "Mark is outside."&lt;/li&gt;
-&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "Mark is nearby."&lt;/li&gt;
-&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "Mark is around."&lt;/li&gt;
-&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "Mark is inside."&lt;/li&gt;
-&lt;/ol&gt;&lt;p&gt;If we do use a noun, then again the adverb goes before the noun.&lt;/p&gt;
-&lt;ol&gt;&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "Mark is outside the train station."&lt;/li&gt;
-&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "Mark is nearby the school."&lt;/li&gt;
-&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "Mark is around the park."&lt;/li&gt;
-&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "Mark is inside the bakery."&lt;/li&gt;
-&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;&lt;span&gt;2. Forming Imperative Sentences/Giving Simple Commands&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-&lt;hr&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;An imperative sentence is a sentence that gives a direct command. Often, imperative sentences have no subject and are formed from the base form of a verb.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td width="98" class="lsn3-th"&gt;
-&lt;p&gt;&lt;span&gt;&lt;strong&gt;Infinitive Form&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="98" class="lsn3-th"&gt;
-&lt;p&gt;&lt;span&gt;&lt;strong&gt;Imperative Form&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="98" class="lsn3-th"&gt;
-&lt;p&gt;&lt;span&gt;&lt;strong&gt;Example&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;tr&gt;&lt;td width="98"&gt;
-&lt;p&gt;to shut&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="98"&gt;
-&lt;p&gt;shut&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="98"&gt;
-&lt;p&gt;Shut the   door!&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;tr&gt;&lt;td width="98"&gt;
-&lt;p&gt;to pass&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="98"&gt;
-&lt;p&gt;pass&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="98"&gt;
-&lt;p&gt;Pass the   salt.&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;tr&gt;&lt;td width="98"&gt;
-&lt;p&gt;to go&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="98"&gt;
-&lt;p&gt;go&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="98"&gt;
-&lt;p&gt;Let's go!&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;tr&gt;&lt;td width="98"&gt;
-&lt;p&gt;to be&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="98"&gt;
-&lt;p&gt;be&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="98"&gt;
-&lt;p&gt;Be there at   3pm.&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;To make a negative imperative sentence, just add "do not/don't" before the imperative form.&lt;/p&gt;
-&lt;ol&gt;&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "Do not shut the door!"&lt;/li&gt;
-&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "Do not pass the salt."&lt;/li&gt;
-&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "Don't go!"&lt;/li&gt;
-&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "Do not be there at 3 p.m."&lt;/li&gt;
-&lt;/ol&gt;&lt;p&gt;&lt;br&gt; If you want to make the command more forceful in writing, then you can add an exclamation mark to the end of the sentence.&lt;/p&gt;
-&lt;p&gt;The imperative form is often used in instructions, as they need to be short and tell people what to do. It is also often used when giving directions, as again you are telling people what to do.&lt;/p&gt;
-&lt;p&gt;For example:&lt;/p&gt;
-&lt;ol&gt;&lt;li&gt;A: "Excuse me, do you know where a post office is?"&lt;br&gt;B: "Sure, go straight down this street until you see the lights. Make a right onto the main street and walk straight down toward the park. It's past the library on the left side."&lt;/li&gt;
-&lt;/ol&gt;&lt;p&gt;When giving directions, you can also use your hands and point in the right direction to help. If you ask somebody, try repeating the directions the person says so that you know for sure that you understand. If somebody asks you, you might have to repeat the directions to clarify.&lt;/p&gt;
-&lt;p&gt;But be careful—if you are asking somebody to do something for you, then don't use an imperative sentence as it can be seen as rude in that case!&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Examples from the dialogue:&lt;/strong&gt;&lt;/p&gt;
-&lt;ol&gt;&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "If you turn right at the traffic lights, my flat is on that road."&lt;/li&gt;
-&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; "The lights next to the pub."&lt;/li&gt;
-&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;span&gt;&lt;strong&gt;Sample Sentences&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;hr&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;ol&gt;&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; "Take the third exit at the island."&lt;/li&gt;
-&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; "Go straight down this road for about ten minutes and turn left at the bank."&lt;/li&gt;
-&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; "Turn left at the third set of traffic lights."&lt;/li&gt;
-&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
-                                                                &lt;h3&gt;Cultural Insights&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
-                            &lt;p&gt;&lt;strong&gt;&lt;span&gt;Giving Directions&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-&lt;hr&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Giving directions in the UK isn't the easiest thing to do. Cities and towns are not neatly laid out in blocks, but have roads that twist and turn and go in all directions. For longer distances there are many convenient and well looked-after motorways and major roads, but navigating around cities can be tricky. Although road names are usually well signposted and easy to spot, most people in the UK give directions using landmarks, such as shops or pubs, or use traffic lights and islands. There are usually several different ways to get somewhere and the shortest route isn't always the quickest as it depends on traffic and the time of day. There are many ways to give directions and it is very easy to get lost. Sat navs have become very popular in recent years!&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
-                                        &lt;div class="lsn3-button--controls"&gt;
-                                                    &lt;div class="lsn3-button--a"&gt;
-                                                            &lt;/div&gt;
-                                            &lt;/div&gt;
-                &lt;/div&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A: Do you have your university timetable yet?
-  B: Yeah, I got it yesterday. My classes start on Monday in the main lecture hall.
-  A: Do you have many classes?
-  B: I have two classes every morning, and one every afternoon.
-  A: What time do your classes start?
-  B: They start at 9.30 in the morning. It's a one hour-long class.</t>
-  </si>
-  <si>
-    <t>&lt;div class="lsn3-lesson-notes"&gt;
-                                            &lt;h3&gt;Grammar&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
+                        &lt;div&gt;
                             &lt;p&gt;&lt;strong&gt;&lt;span&gt;The Focus of This Lesson is Understanding and Explaining Time and Schedule&lt;/span&gt;&lt;br&gt;&lt;span&gt;"&lt;/span&gt;&lt;/strong&gt;&lt;span&gt;&lt;strong&gt;They start at 9.30 in the morning. It's a one hour-long class."&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
 &lt;p&gt;
 &lt;/p&gt;&lt;hr&gt;&lt;p&gt;In this lesson, we will learn how to:&lt;/p&gt;
@@ -1491,7 +1486,7 @@
 &lt;li&gt;&amp;nbsp;"We will hold a party in March."&lt;/li&gt;
 &lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
                                                                 &lt;h3&gt;Cultural Insights&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
+                        &lt;div&gt;
                             &lt;p&gt;&lt;strong&gt;&lt;span&gt;School in the UK&lt;/span&gt;
 &lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
@@ -1499,8 +1494,8 @@
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
-                                        &lt;div class="lsn3-button--controls"&gt;
-                                                    &lt;div class="lsn3-button--a"&gt;
+                                        &lt;div&gt;
+                                                    &lt;div&gt;
                                                                     &lt;a href="/pdfs/B_S2L5_012916_eclass101.pdf" target="_blank" data-trackurl="/pdfs/B_S2L5_012916_eclass101.pdf" title="Right Click &amp;amp; 'Save As'"&gt;
                                         Download as PDF
                                     &lt;/a&gt;
@@ -1509,350 +1504,9 @@
                 &lt;/div&gt;</t>
   </si>
   <si>
-    <t>A: Hey, Katrina! Do you have any snow boots?
-  B: No, I don't. Will it snow?
-  A: The weather forecast said that it will probably snow heavily later.
-  B: Really? It's raining now but it's still warm.
-  A: Yeah, but it's supposed to be freezing cold tonight.
-  B: I hope it doesn't snow until after I get home.</t>
-  </si>
-  <si>
-    <t>&lt;div class="lsn3-lesson-notes"&gt;
+    <t>&lt;div&gt;
                                             &lt;h3&gt;Grammar&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
-                            &lt;p&gt;&lt;strong&gt;&lt;span&gt;The Focus of This Lesson is Discussing the Weather&lt;/span&gt;&lt;br&gt;&lt;span&gt; "&lt;/span&gt;&lt;/strong&gt;&lt;strong&gt;&lt;span&gt;The weather forecast said that it will probably snow heavily later."&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-&lt;hr&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;In this lesson, we will learn how to:&lt;/p&gt;
-&lt;ol&gt;&lt;li&gt;&lt;strong&gt;&amp;nbsp;Use adjectives to describe the weather&lt;/strong&gt;&lt;/li&gt;
-&lt;li&gt;&lt;strong&gt;&amp;nbsp;Form the present continuous tense&lt;/strong&gt;&lt;/li&gt;
-&lt;li&gt;&lt;strong&gt;&amp;nbsp;State and differentiate level of certainty&lt;/strong&gt;&lt;/li&gt;
-&lt;/ol&gt;&lt;p&gt;
-&lt;/p&gt;&lt;hr&gt;&lt;p&gt;&lt;strong&gt;&lt;span&gt;1. Using Adjectives to Describe the Weather&lt;/span&gt;
-&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;An adjective is a word that is used to describe or modify a noun or pronoun. When talking about the weather, we use many adjectives. Weather adjectives are easy to learn, because they are based on weather nouns!&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td width="100" class="lsn3-th"&gt;
-&lt;p&gt;&lt;span&gt;&lt;strong&gt;Noun&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="105" class="lsn3-th"&gt;
-&lt;p&gt;&lt;span&gt;&lt;strong&gt;Adjective&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="321" class="lsn3-th"&gt;
-&lt;p&gt;&lt;span&gt;&lt;strong&gt;Examples&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;tr&gt;&lt;td width="100"&gt;
-&lt;p&gt;rain&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="105"&gt;
-&lt;p&gt;rainy&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="321"&gt;
-&lt;p&gt;The &lt;strong&gt;rain &lt;/strong&gt;was cold&lt;/p&gt;
-&lt;p&gt;It was &lt;strong&gt;rainy &lt;/strong&gt;this afternoon&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;tr&gt;&lt;td width="100"&gt;
-&lt;p&gt;sun&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="105"&gt;
-&lt;p&gt;sunny&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="321"&gt;
-&lt;p&gt;The &lt;strong&gt;sun &lt;/strong&gt;is strong and bright.&lt;/p&gt;
-&lt;p&gt;It is very &lt;strong&gt;sunny &lt;/strong&gt;outside.&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;tr&gt;&lt;td width="100"&gt;
-&lt;p&gt;snow&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="105"&gt;
-&lt;p&gt;snowy&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="321"&gt;
-&lt;p&gt;I love   playing in the &lt;strong&gt;snow&lt;/strong&gt;.&lt;/p&gt;
-&lt;p&gt;Winter is a   &lt;strong&gt;snowy &lt;/strong&gt;season.&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;tr&gt;&lt;td width="100"&gt;
-&lt;p&gt;cloud&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="105"&gt;
-&lt;p&gt;cloudy&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="321"&gt;
-&lt;p&gt;I can't see   the stars because of the &lt;strong&gt;cloud&lt;/strong&gt;.&lt;/p&gt;
-&lt;p&gt;The sky is   too &lt;strong&gt;cloudy &lt;/strong&gt;to see the stars.&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;tr&gt;&lt;td width="100"&gt;
-&lt;p&gt;storm&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="105"&gt;
-&lt;p&gt;stormy&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="321"&gt;
-&lt;p&gt;A &lt;strong&gt;storm &lt;/strong&gt;is forecast for tomorrow.&lt;/p&gt;
-&lt;p&gt;It is too &lt;strong&gt;stormy &lt;/strong&gt;to drive safely.&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;We can describe the weather in more detail by using weather phrases.&lt;/p&gt;
-&lt;p&gt;If the weather is extremely hot, we can say that it is "boiling hot." Or, if it's very cold we can say that it is "freezing cold."&lt;/p&gt;
-&lt;p&gt;We can also use adverbs and adjectives to further describe the weather.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td width="105" class="lsn3-th"&gt;
-&lt;p&gt;&lt;span&gt;&lt;strong&gt;Adjective&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="119" class="lsn3-th"&gt;
-&lt;p&gt;&lt;span&gt;&lt;strong&gt;Adverb&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="303" class="lsn3-th"&gt;
-&lt;p&gt;&lt;span&gt;&lt;strong&gt;Example&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;tr&gt;&lt;td width="105"&gt;
-&lt;p&gt;light&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="119"&gt;
-&lt;p&gt;lightly&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="303"&gt;
-&lt;p&gt;There is a &lt;strong&gt;light &lt;/strong&gt;rain.&lt;/p&gt;
-&lt;p&gt;It is   raining &lt;strong&gt;lightly&lt;/strong&gt;.&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;tr&gt;&lt;td width="105"&gt;
-&lt;p&gt;heavy&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="119"&gt;
-&lt;p&gt;heavily&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="303"&gt;
-&lt;p&gt;We need   skis in this &lt;strong&gt;heavy &lt;/strong&gt;snow.&lt;/p&gt;
-&lt;p&gt;It is   snowing &lt;strong&gt;heavily &lt;/strong&gt;in the mountains.&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;tr&gt;&lt;td width="105"&gt;
-&lt;p&gt;strong&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="119"&gt;
-&lt;p&gt;strongly&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="303"&gt;
-&lt;p&gt;There is a &lt;strong&gt;strong &lt;/strong&gt;storm heading our way.&lt;/p&gt;
-&lt;p&gt;The wind is   blowing &lt;strong&gt;strongly&lt;/strong&gt;.&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;tr&gt;&lt;td width="105"&gt;
-&lt;p&gt;weak&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="119"&gt;
-&lt;p&gt;weakly&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="303"&gt;
-&lt;p&gt;The windows   were being rattled by a &lt;strong&gt;weak &lt;/strong&gt;wind.&lt;/p&gt;
-&lt;p&gt;The wind   blows &lt;strong&gt;weakly &lt;/strong&gt;in the city.&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;&lt;span&gt;2. Forming the Present Continuous Tense &lt;/span&gt;
-&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;We use the present continuous tense to describe something that is, or isn't, happening right now.&lt;/p&gt;
-&lt;p&gt;Present continuous sentences are formed like this:&lt;/p&gt;
-&lt;p&gt;[subject] + [be] + [~ing verb] + [object/complement]&lt;/p&gt;
-&lt;ol&gt;&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "You are studying English now."&lt;/li&gt;
-&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "I am teaching English."&lt;/li&gt;
-&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "You're not driving a car."&lt;/li&gt;
-&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "I am not swimming."&lt;/li&gt;
-&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td width="95" class="lsn3-th"&gt;
-&lt;p&gt;&lt;span&gt;&lt;strong&gt;Infinitive&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="116" class="lsn3-th"&gt;
-&lt;p&gt;&lt;span&gt;&lt;strong&gt;Present Simple&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="127" class="lsn3-th"&gt;
-&lt;p&gt;&lt;span&gt;&lt;strong&gt;Present Continuous&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="189" class="lsn3-th"&gt;
-&lt;p&gt;&lt;span&gt;&lt;strong&gt;Example&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;tr&gt;&lt;td width="95"&gt;
-&lt;p&gt;to walk&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="116"&gt;
-&lt;p&gt;walk&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="127"&gt;
-&lt;p&gt;walking&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="189"&gt;
-&lt;p&gt;I am   walking to school&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;tr&gt;&lt;td width="95"&gt;
-&lt;p&gt;to eat&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="116"&gt;
-&lt;p&gt;eat&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="127"&gt;
-&lt;p&gt;eating&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="189"&gt;
-&lt;p&gt;I am eating   lunch.&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;tr&gt;&lt;td width="95"&gt;
-&lt;p&gt;to sleep&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="116"&gt;
-&lt;p&gt;sleep&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="127"&gt;
-&lt;p&gt;sleeping&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="189"&gt;
-&lt;p&gt;He is   sleeping now.&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;tr&gt;&lt;td width="95"&gt;
-&lt;p&gt;to study&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="116"&gt;
-&lt;p&gt;study&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="127"&gt;
-&lt;p&gt;studying&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="189"&gt;
-&lt;p&gt;She is   studying maths.&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;tr&gt;&lt;td width="95"&gt;
-&lt;p&gt;to run&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="116"&gt;
-&lt;p&gt;run&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="127"&gt;
-&lt;p&gt;running&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="189"&gt;
-&lt;p&gt;I am   running for the train.&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Katrina uses this form when she says "It's raining now" in the dialogue.&lt;/p&gt;
-&lt;p&gt;It's easy to use this form to describe weather. Let's look at this weather report:&lt;/p&gt;
-&lt;ol&gt;&lt;li&gt;"Good morning everyone, here is the weather report. In London, the sun is shining and temperatures are warm. In Birmingham the wind is blowing, but it isn't cold. In Liverpool it is raining lightly and in Manchester it is raining heavily. In Inverness it is snowing. My friend lives in the north of Scotland and he isn't driving to work today. I suggest that everyone stays at home!" &lt;/li&gt;
-&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;&lt;span&gt;3. Stating and Differentiating Level of Certainty &lt;/span&gt;
-&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;We can use modal verbs to show how certain something is. An example of this from the dialogue is "It's supposed to be freezing cold later."&lt;/p&gt;
-&lt;p&gt;The table below has some of the most common modal verbs. The level of certainty decreases down the table.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td width="148"&gt;
-&lt;p&gt;&lt;strong&gt;Highest&lt;/strong&gt;&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="171"&gt;
-&lt;p&gt;will&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="208"&gt;
-&lt;p&gt;It &lt;strong&gt;will&lt;/strong&gt; rain tomorrow.&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;tr&gt;&lt;td width="148"&gt;
-&lt;p&gt;&lt;strong&gt;&lt;br&gt;&lt;/strong&gt;&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="171"&gt;
-&lt;p&gt;should&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="208"&gt;
-&lt;p&gt;It &lt;strong&gt;should &lt;/strong&gt;rain tomorrow.&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;tr&gt;&lt;td width="148"&gt;
-&lt;p&gt;&lt;strong&gt;&lt;br&gt;&lt;/strong&gt;&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="171"&gt;
-&lt;p&gt;supposed&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="208"&gt;
-&lt;p&gt;It is &lt;strong&gt;supposed &lt;/strong&gt;to rain tomorrow.&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;tr&gt;&lt;td width="148"&gt;
-&lt;p&gt;&lt;strong&gt;&lt;br&gt;&lt;/strong&gt;&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="171"&gt;
-&lt;p&gt;may&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="208"&gt;
-&lt;p&gt;It &lt;strong&gt;may &lt;/strong&gt;rain tomorrow.&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;tr&gt;&lt;td width="148"&gt;
-&lt;p&gt;&lt;strong&gt;&lt;br&gt;&lt;/strong&gt;&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="171"&gt;
-&lt;p&gt;might&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="208"&gt;
-&lt;p&gt;It &lt;strong&gt;might &lt;/strong&gt;rain tomorrow.&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;tr&gt;&lt;td width="148"&gt;
-&lt;p&gt;&lt;strong&gt;&lt;br&gt;&lt;/strong&gt;&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="171"&gt;
-&lt;p&gt;could&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="208"&gt;
-&lt;p&gt;It &lt;strong&gt;could &lt;/strong&gt;rain tomorrow.&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;tr&gt;&lt;td width="148"&gt;
-&lt;p&gt;&lt;strong&gt;&lt;br&gt;&lt;/strong&gt;&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="171"&gt;
-&lt;p&gt;shouldn't&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="208"&gt;
-&lt;p&gt;It &lt;strong&gt;shouldn't &lt;/strong&gt;rain tomorrow.&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;tr&gt;&lt;td width="148"&gt;
-&lt;p&gt;&lt;strong&gt;Lowest&lt;/strong&gt;&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="171"&gt;
-&lt;p&gt;won't&lt;/p&gt;
-&lt;/td&gt;
-&lt;td width="208"&gt;
-&lt;p&gt;It &lt;strong&gt;won't &lt;/strong&gt;rain tomorrow.&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Examples from the dialogue:&lt;/strong&gt;&lt;/p&gt;
-&lt;ol&gt;&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "The weather forecast said that it will probably snow heavily later."&lt;/li&gt;
-&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; "Yeah, but it's supposed to be freezing cold tonight."&lt;/li&gt;
-&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;span&gt;&lt;strong&gt;Sample Sentences&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-&lt;/p&gt;&lt;hr&gt;&lt;ol&gt;&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; "I wanted to go to the park, but it is raining heavily."&lt;/li&gt;
-&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; "Today is so sunny that I don't want to go to school."&lt;/li&gt;
-&lt;li&gt;&amp;nbsp;"It'll probably snow on my birthday."&lt;/li&gt;
-&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
-                                                                &lt;h3&gt;Cultural Insights&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
-                            &lt;p&gt;&lt;strong&gt;&lt;span&gt;Weather in the UK&lt;/span&gt;
-&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;The UK's climate is pretty mild as winter temperatures are cool, but not freezing, and summer temperatures warm without being boiling hot. Snow does fall across the UK and can occasionally be heavy, but throughout most of England and Wales it isn't severe. The UK has very unsettled weather, and can experience cloud, sun, and rain within the space of a few hours. If you go to the UK, always have an umbrella with you!&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;As the weather is so changeable, it is a very popular topic of conversation. British people like to talk about the weather and complain about the heat, cold, or rain. There are many weather idioms that people like to use, such as "raining cats and dogs" or "the heavens opened" to describe heavy rain. People also use weather words to describe other situations, such as "storm in a teacup" for a situation that isn't serious or "face like thunder" to describe someone who is angry.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
-                                        &lt;div class="lsn3-button--controls"&gt;
-                                                    &lt;div class="lsn3-button--a"&gt;
-                                                            &lt;/div&gt;
-                                            &lt;/div&gt;
-                &lt;/div&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A: It's your birthday next week, isn't it? Do you have any plans yet?
-  B: Not yet! What do you think I should do?
-  A: You should have a party.
-  B: That takes too much organising at short notice. How about going to a restaurant?
-  A: That sounds good! The new Chinese restaurant has discounts if you go on Thursdays.
-  B: Okay, let's go on Thursday!</t>
-  </si>
-  <si>
-    <t>&lt;div class="lsn3-lesson-notes"&gt;
-                                            &lt;h3&gt;Grammar&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
+                        &lt;div&gt;
                             &lt;p&gt;&lt;strong&gt;&lt;span&gt;The Focus of This Lesson is Asking for Advice and Suggestions&lt;/span&gt;&lt;br&gt;&lt;span&gt;"Not yet! What do you think I should do?"&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;hr&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
@@ -2043,29 +1697,20 @@
 &lt;li&gt;&amp;nbsp;"I might go to China for my summer holiday."&lt;/li&gt;
 &lt;/ol&gt;                        &lt;/div&gt;
                                                                 &lt;h3&gt;Cultural Insights&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
+                        &lt;div&gt;
                             &lt;p&gt;&lt;strong&gt;&lt;span&gt;Celebrating in the UK&lt;/span&gt;
 &lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;There are many reasons to celebrate in the UK. The most popular reasons for parties and celebrations are birthdays and weddings. Important birthdays, such as 18 and any year after 20 that ends in 0 are especially celebrated. People may also have celebrations for landmark wedding anniversaries such as 25 or 50. You might get invited to smaller celebrations too, such as for a pregnancy, leaving a job, retiring, or moving house. Large parties are usually held at a special place such as a hotel, event room at a pub, or a church or public hall. Small celebrations can be held at home or at a restaurant. For bigger parties such as weddings and birthdays you might receive a paper invitation. This will have the details of the party, including location and time. It is polite to send a reply saying if you will go or not. For smaller celebrations, you might just get asked during a conversation.&lt;/p&gt;                        &lt;/div&gt;
-                                        &lt;div class="lsn3-button--controls"&gt;
-                                                    &lt;div class="lsn3-button--a"&gt;
+                                        &lt;div&gt;
+                                                    &lt;div&gt;
                                                             &lt;/div&gt;
                                             &lt;/div&gt;
                 &lt;/div&gt;</t>
   </si>
   <si>
-    <t>A: Hey, Phil. I need to go to the library but it's a little far. Can I borrow your bike?
-  B: When do you need it?
-  A: Um, now? I'll be back by 4 p.m.
-  B: I really need it back by 3.30 p.m. as I have to go to school.
-  A: Okay, 3.30 p.m. is fine!
-  B: Don't be late!
-  A: I won't! Thanks Phil, I owe you one.</t>
-  </si>
-  <si>
-    <t>&lt;div class="lsn3-lesson-notes"&gt;
+    <t>&lt;div&gt;
                                             &lt;h3&gt;Grammar&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
+                        &lt;div&gt;
                             &lt;p&gt;&lt;strong&gt;&lt;span&gt;The Focus of This Lesson is Asking for Permission to Borrow an Item&lt;/span&gt;&lt;br&gt;&lt;span&gt;"&lt;/span&gt;&lt;/strong&gt;&lt;span&gt;&lt;strong&gt;Hey, Phil. I need to go to the library but it's a little far. Can I borrow your bike?"&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
 &lt;p&gt;
 &lt;/p&gt;&lt;hr&gt;&lt;p&gt;In this lesson, we will learn how to:&lt;/p&gt;
@@ -2168,31 +1813,285 @@
 &lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; "Don't speak!"&lt;/li&gt;
 &lt;/ol&gt;                        &lt;/div&gt;
                                                                 &lt;h3&gt;Cultural Insights&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
+                        &lt;div&gt;
                             &lt;p&gt;&lt;strong&gt;&lt;span&gt;Riding Bikes in the UK&lt;/span&gt;
 &lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;Bikes aren't as popular a mode of transport in the UK compared to other countries. The UK is lacking in bike paths and many roads are busy and congested, so it is dangerous to ride a bike. The UK also has many hills, so it can be difficult to ride a bike too far! There aren't many places to safely park a bike either. Most people prefer to drive a car or use public transport, such as buses and trains, to get to their destination. For those that do ride a bike, there are many laws. Bikes should be ridden on the road, not on the pavement, and it is the law for cyclists to wear helmets. These laws and the extra energy and time needed to cycle are a great deterrent for many people.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
-                                        &lt;div class="lsn3-button--controls"&gt;
-                                                    &lt;div class="lsn3-button--a"&gt;
+                                        &lt;div&gt;
+                                                    &lt;div&gt;
                                                             &lt;/div&gt;
                                             &lt;/div&gt;
                 &lt;/div&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> A: This gym has a squash court too. Fancy a game?
-  B: Oh, I can't play squash.
-  A: What!?
-  B: I'm really bad at it. I always miss the ball.
-  A: That doesn't matter. You can still try, right?
-  B: There's a swimming pool here, isn't there? I'm good at swimming. Let's go swimming!
-  A: Ah, I can't swim!
-  B: That's okay, I can teach you!</t>
-  </si>
-  <si>
-    <t>&lt;div class="lsn3-lesson-notes"&gt;
+    <t>&lt;div&gt;
                                             &lt;h3&gt;Grammar&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt; &lt;strong&gt;The Focus of This Lesson Is Using the Simple Past Verb Tense.&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;span&gt; &lt;strong&gt;"Oh, Michelle and I broke up. I married Susan."&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;When talking about events that began and finished before now, we use the simple&lt;strong&gt; &lt;/strong&gt;past form. We often use it with finished-time expressions like "yesterday" and "last year." We use the simple&lt;strong&gt; &lt;/strong&gt;past to talk about things that happen one after another, and so we often use it in telling stories.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;You make most simple past sentences by adding &lt;strong&gt;&lt;em&gt;-&lt;/em&gt;&lt;/strong&gt;ed to the end of the infinitive (dictionary form).&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example&lt;/strong&gt;:&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;"help" + &lt;strong&gt;&lt;em&gt;-&lt;/em&gt;ed&lt;/strong&gt; = "helped"&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;When the verb ends in -e, simply add -d at the end of the infinitive form.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example&lt;/strong&gt;:&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;"lik&lt;strong&gt;e&lt;/strong&gt;" + &lt;strong&gt;-d&lt;/strong&gt; = "lik&lt;strong&gt;ed&lt;/strong&gt;"&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;When the verb ends in &lt;em&gt;-&lt;/em&gt;y with a vowel (-a, -e, -i, -o, or -u) directly before it, replace -y with &lt;strong&gt;&lt;em&gt;-&lt;/em&gt;&lt;/strong&gt;yed.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example&lt;/strong&gt;:&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;"enjo&lt;strong&gt;y"&lt;/strong&gt; becomes "enjo&lt;strong&gt;yed&lt;/strong&gt;"&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;When the verb ends in a &lt;em&gt;-&lt;/em&gt;y with a consonant (e.g., -b, -c, -d, -f, -g) directly before it, -ied replaces &lt;em&gt;-&lt;/em&gt;y.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example&lt;/strong&gt;:&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;"tr&lt;strong&gt;y&lt;/strong&gt;" becomes "tr&lt;strong&gt;ied&lt;/strong&gt;"&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;For some verbs that end with a consonant, double the consonant* when using the past tense.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;"stop" becomes "sto&lt;strong&gt;pp&lt;/strong&gt;ed"&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;If the verb ends in one vowel and one consonant, then double the consonant.&lt;strong&gt;*&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt; "stop" becomes "sto&lt;strong&gt;pp&lt;/strong&gt;ed"&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;If the verb ends in two vowels and one consonant, then don't double the ending consonant.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;"seem" becomes "seem&lt;strong&gt;ed&lt;/strong&gt;"&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;If the verb ends in two consonants, then don't double the ending consonant.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;1.&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; "want" becomes "wan&lt;strong&gt;t&lt;/strong&gt;ed"&lt;/p&gt;
+&lt;p&gt;Only double the ending consonants of stressed syllables.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;"pre&lt;strong&gt;FER"&lt;/strong&gt; becomes "prefe&lt;strong&gt;rr&lt;/strong&gt;ed"&lt;/li&gt;
+&lt;li&gt;"&lt;strong&gt;WON&lt;/strong&gt;der&lt;strong&gt;"&lt;/strong&gt; becomes "wonde&lt;strong&gt;&lt;em&gt;r&lt;/em&gt;&lt;/strong&gt;ed"&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;There are several &lt;strong&gt;irregular verbs&lt;/strong&gt;. You must learn these forms separately.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;Here are some examples from the dialogue:&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;"I married Susan."&lt;/li&gt;
+&lt;li&gt;"I got married!"&lt;/li&gt;
+&lt;li&gt;"Michelle and I broke up."&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                                                &lt;h3&gt;Cultural Insights&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt; &lt;strong&gt;Can I Buy You a Drink After Work?&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;Pubs and bars are popular social environments where people can go drink and chat with both friends and colleagues. Workers may relax in a bar after work or meet up with friends for a few drinks at the end of the week. Although some restaurants may serve food and drinks, people go to pubs and bars mainly for the drink and not to eat.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                        &lt;div&gt;
+                                                    &lt;div&gt;
+                                                            &lt;/div&gt;
+                                            &lt;/div&gt;
+                &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+                                            &lt;h3&gt;Grammar&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt; &lt;strong&gt;The Focus of This Lesson Is the Simple Future Tense.&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;span&gt; &lt;strong&gt;"I'll just wait until I lose weight and fit into the red one!"&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;The "will" form of verbs is the most common way to talk about future events.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For&lt;/strong&gt; &lt;strong&gt;Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;"I &lt;strong&gt;will&lt;/strong&gt; work tomorrow&lt;em&gt;.&lt;/em&gt;" &lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;We can also use "will" to make predictions.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;"I think it &lt;strong&gt;will&lt;/strong&gt; rain&lt;em&gt;.&lt;/em&gt;" &lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;We can use "will" when deciding something, refusing something, or promising something as well.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example: &lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;"He says he &lt;strong&gt;will&lt;/strong&gt; stop smoking."&lt;/li&gt;
+&lt;li&gt;"She &lt;strong&gt;won't&lt;/strong&gt; tell me what's wrong."&lt;/li&gt;
+&lt;li&gt;"I &lt;strong&gt;will&lt;/strong&gt; do my best!"&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;To talk about future events, we put "&lt;strong&gt;will"&lt;/strong&gt; in front of the infinitive (dictionary) form of verbs as follows:&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Subject + "will" + Infinitive&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;"&lt;strong&gt;I'll&lt;/strong&gt; just wait until I lose weight..." &lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;We do not conjugate "will" differently based on the subject. In addition, we often contract (shorten) "will" with the subject in spoken English.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;I + will = "&lt;strong&gt;I'll&lt;/strong&gt;"&lt;/li&gt;
+&lt;li&gt;you + will = "&lt;strong&gt;you'll&lt;/strong&gt;"&lt;/li&gt;
+&lt;li&gt;he/she/it + will = "&lt;strong&gt;he'll,&lt;/strong&gt;"&lt;strong&gt; &lt;/strong&gt;"&lt;strong&gt;she'll,&lt;/strong&gt;"&lt;strong&gt; &lt;/strong&gt;"&lt;strong&gt;it'll&lt;/strong&gt;"&lt;/li&gt;
+&lt;li&gt;we + will = "&lt;strong&gt;we'll&lt;/strong&gt;"&lt;/li&gt;
+&lt;li&gt;they + will = "&lt;strong&gt;they'll&lt;/strong&gt;" &lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;We also often contract the negative form of "will" in spoken English as "will" + "not" = "won't."&lt;/p&gt;
+&lt;p&gt;When using modals like "will," we do not use "to" before the infinitives (dictionary verb forms) as with other kinds of verbs.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;"I will go home." (NOT "I will to go home.")&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;Questions and negatives do not use "do" with modals.&lt;/p&gt;
+&lt;p&gt;Let's look at what the sales clerk says in the dialogue.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;"How long will that be?" (NOT "How long do will that be?")&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;When predicting that a future event will not happen, we do not use the pattern "I think + won't." Instead, we use the following pattern in such cases: &lt;br&gt;&lt;br&gt;&lt;strong&gt;"I don't think" + "will." &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;"I don't think she'll come tonight."&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                                                &lt;h3&gt;Cultural Insights&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt; &lt;strong&gt;Pushing in English to Get Sales&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;Sales clerks at stores are there to assist shoppers with their shopping and are usually trained to deal with customers in a polite way. They can be very helpful and friendly, but they can also be annoying sometimes. Some sales clerks may be pushy, like the one in the dialogue, with their comments in order to sell the merchandise.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                        &lt;div&gt;
+                                                    &lt;div&gt;
+                                                                    &lt;a href="/pdfs/LI_S1L3_011810_eclass101.pdf" target="_blank" data-trackurl="/pdfs/LI_S1L3_011810_eclass101.pdf" title="Right Click &amp;amp; 'Save As'"&gt;
+                                        Download as PDF
+                                    &lt;/a&gt;
+                                                            &lt;/div&gt;
+                                            &lt;/div&gt;
+                &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+                                            &lt;h3&gt;Grammar&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt; &lt;strong&gt;The Focus of This Lesson Is Reviewing the Simple Present Tense.&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;span&gt; &lt;strong&gt;"Well, how about we go to the new oyster bar on Tenth Avenue and Thirty-third Streets?" &lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;Let's review the simple present in this lesson by using some examples from the dialogue and some general ones. First, let's take a look at these sentences:&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;"Do you still work at the bar on Twelfth Avenue?"&lt;/li&gt;
+&lt;li&gt;"Sure, sounds good."&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;In the first sentence, Mike is talking about Joey working at the bar, which is something Joey does on a daily basis with no change&lt;em&gt;.&lt;/em&gt; Therefore, the question is in the simple&lt;strong&gt; &lt;/strong&gt;present tense form and we use it with the word "still."&lt;/p&gt;
+&lt;p&gt;In the second example from the dialogue, Joey says "sounds good" in the simple&lt;strong&gt; &lt;/strong&gt;present because he's talking about their appointment together, which is true at that moment of the conversation and is not expected to change soon. The "sounds good" does have a pronoun before it, but in casual speech, we often drop the pronoun.&lt;/p&gt;
+&lt;p&gt;Here are some general examples of sentences with verbs that have some spelling changes in the simple present tense.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;"The dog fetches the ball all the time."&lt;/li&gt;
+&lt;li&gt;"She pushes her limits every day."&lt;/li&gt;
+&lt;li&gt;"He fixes problems at his job."&lt;/li&gt;
+&lt;li&gt;"She kisses him on the cheek."&lt;/li&gt;
+&lt;li&gt;"Joey studies every night."&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                                                &lt;h3&gt;Cultural Insights&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt; &lt;strong&gt;Want to Get Some Fresh Air at Lunch? &lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;It's common for people who work to eat outside at nearby restaurants. Although many offices have a place for the employees to eat inside, many people prefer to eat outside just to get out of the office. Some people may even be regular customers at their preferred places and therefore have a friendly relationship with the people who work there.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                        &lt;div&gt;
+                                                    &lt;div&gt;
+                                                            &lt;/div&gt;
+                                            &lt;/div&gt;
+                &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+                                            &lt;h3&gt;Grammar&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt; &lt;strong&gt;The Focus of This Lesson Is Reviewing the Simple Past Tense.&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;span&gt; &lt;strong&gt;"Yes, I did. My wife and I went to the beach." &lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;Let's review the simple past in this lesson by using some examples from the dialogue along with some general ones. First, let's take a look at these sentences.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;"Yes, I did."&lt;/li&gt;
+&lt;li&gt;"My wife and I went to the beach."&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;In the first sentence, Mike uses the simple&lt;strong&gt; &lt;/strong&gt;past&lt;strong&gt; &lt;/strong&gt;because he is talking about his weekend that has finished. He continues using the simple&lt;strong&gt; &lt;/strong&gt;past&lt;strong&gt; &lt;/strong&gt;when he mentions his weekend activity because it is an action that he has completed. Notice that both of these verbs are irregular past tense verbs.&lt;/p&gt;
+&lt;p&gt;Here are some general examples of both regular and irregular past tense verbs.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;"I worked hard until midnight."&lt;/li&gt;
+&lt;li&gt;"She replied to my e-mail very quickly."&lt;/li&gt;
+&lt;li&gt;"He planned the perfect crime."&lt;/li&gt;
+&lt;li&gt;"She ate the juicy apple."&lt;/li&gt;
+&lt;li&gt;"I drove the car home."&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                                                &lt;h3&gt;Cultural Insights&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt; &lt;strong&gt; Small Talk in America &lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;What the two speakers in the dialogue are doing is having small talk. Small talk is a light conversation about unimportant things. People have small talk just for the sake of communicating with one another. The topics of small talk are usually the same most of the time. Topics can be anything from weekend talk to chatting about current news, traffic, or weather.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                        &lt;div&gt;
+                                                    &lt;div&gt;
+                                                            &lt;/div&gt;
+                                            &lt;/div&gt;
+                &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+                                            &lt;h3&gt;Grammar&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt; &lt;strong&gt;&lt;span&gt;The Focus of This Lesson Is Using the Future Tense to Make a Prediction or a Promise.&lt;/span&gt; &lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;span&gt; &lt;strong&gt;"But you'd better not be late, man, or I'll make you pay, literally!"&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;In the third lesson of this Lower Intermediate series, we talked about the future tense. Let's review this tense by looking at some examples from the dialogue and some general examples. First, let's take a look at these sentences:&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;"I'll make you pay."&lt;/li&gt;
+&lt;li&gt;"I'll be there."&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;In the first sentence, Joey says "I'll make you pay" to Mike in the future tense. This is because he's talking about what Mike would have to do in the future if he reschedules their lunch.&lt;/p&gt;
+&lt;p&gt;Likewise, Mike says "I'll be there" in the future because Mike is telling Joey that he will be at their agreed place in the future. Note that both of these sentences contain the contracted form of "I will,"&lt;em&gt; &lt;/em&gt;which is "I'll."&lt;/p&gt;
+&lt;p&gt;Here are some other examples.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;"I think she'll be here soon."&lt;/li&gt;
+&lt;li&gt;"He won't help me."&lt;/li&gt;
+&lt;li&gt;"Celena will finish cleaning."&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;In the first sentence, we use the future tense to make a prediction-the prediction that she will be arriving soon.&lt;/p&gt;
+&lt;p&gt;In the second example, we use the future tense to refuse to do something-in this case, help.&lt;/p&gt;
+&lt;p&gt;And in the last example, we use the future tense to state a promise-the promise that Celena is going to finish cleaning.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                                                &lt;h3&gt;Cultural Insights&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt; &lt;strong&gt;Can We Do This Next Week? &lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt; Rescheduling happens often among friends and in business situations. Although it's something that people generally avoid doing, when people need to reschedule, it is often an understood matter. In business situations, people don't always need to explain, or a short explanation for rescheduling is enough. However, like in the dialogue, friends might be a little bit pushier.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                        &lt;div&gt;
+                                                    &lt;div&gt;
+                                                            &lt;/div&gt;
+                                            &lt;/div&gt;
+                &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+                                            &lt;h3&gt;Grammar&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt;&lt;strong&gt;The Focus of This Lesson is&lt;/strong&gt; &lt;strong&gt;the Infinitive "to go," &lt;/strong&gt;&lt;strong&gt;Asking About Train or Bus Times&lt;/strong&gt;&lt;strong&gt;, and The Conjunction "Or"&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;span&gt;&lt;strong&gt;&lt;span&gt;"I'd like to go to Times Square&lt;/span&gt;."&lt;/strong&gt;&lt;/span&gt;&lt;span&gt;&lt;strong&gt;&lt;span&gt;&lt;br&gt;"What time is the train or bus to..."&lt;br&gt;&lt;span&gt;"Cash or credit card?&lt;/span&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;span&gt;"&lt;br&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&lt;span style="text-decoration:underline;"&gt;&lt;strong&gt;&lt;br&gt;&lt;/strong&gt;&lt;/span&gt;&lt;span&gt;&lt;strong&gt;The Infinitive, "to go"&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;The &lt;em&gt;infinitive&lt;/em&gt;, "to go" means to move, start, continue, pass. In the dialogue, the main character, Zo, tells the ticket seller, "I'd like &lt;strong&gt;to go&lt;/strong&gt; to Times Square." Zo would like to move toward, to start for, to progress to Times Square. He is at the airport, but he'd like &lt;strong&gt;to go&lt;/strong&gt; to Times Square.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;"To go" is the &lt;em&gt;infinitive&lt;/em&gt; of the verb, "go."&lt;br&gt;&lt;br&gt;&lt;br&gt;A:n &lt;em&gt;infinitive&lt;/em&gt; is created quite simply:&lt;/p&gt;
+&lt;p&gt;to + [simple form of a verb]&lt;/p&gt;
+&lt;p&gt;Like this:&lt;/p&gt;
+&lt;p&gt;To + sleep = to sleep&lt;br&gt;To + walk = to walk&lt;br&gt;To + run = to run&lt;br&gt;To + study = to study&lt;br&gt;To + read = to read&lt;br&gt;&lt;br&gt;&lt;br&gt;A:nd in the dialogue,&lt;/p&gt;
+&lt;p&gt;to + go = to go&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;"I'd like &lt;strong&gt;to go&lt;/strong&gt; to Times Square.&lt;/em&gt;"&lt;br&gt;&lt;br&gt;Infinitives can be used as nouns, adjectives, or adverbs. And when they are, they become part of what is called an &lt;em&gt;infinitive phrase&lt;/em&gt;.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;"I'd like &lt;strong&gt;to go&lt;/strong&gt; to Times Square.&lt;/em&gt;"&lt;br&gt;&lt;br&gt;...is an infinitive phrase in which the infinitive "to go" acts as a noun. &lt;br&gt;&lt;br&gt;&lt;strong&gt;Zo&lt;/strong&gt; (subject) + &lt;strong&gt;would like&lt;/strong&gt; (verb) + &lt;strong&gt;to go&lt;/strong&gt; (infinitive) + &lt;strong&gt;to Times Square&lt;/strong&gt; (direct object).&lt;/p&gt;
+&lt;p&gt;Take a look at these other sentences that use the infinitive, "to go":&lt;br&gt;&lt;br&gt;"I want &lt;strong&gt;to go&lt;/strong&gt; out."&lt;/p&gt;
+&lt;p&gt;"I'd like to leave, but I don't know where &lt;strong&gt;to go&lt;/strong&gt;."&lt;br&gt;&lt;br&gt;"Is it okay &lt;strong&gt;to go&lt;/strong&gt; beyond the fence?"&lt;/p&gt;
+&lt;p&gt;"I don't want &lt;strong&gt;to go&lt;/strong&gt; with you."&lt;br&gt;&lt;br&gt;&lt;strong&gt;Create infinitive phrase with the infinitive forms of these verbs:&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;play&lt;/p&gt;
+&lt;p&gt;win&lt;/p&gt;
+&lt;p&gt;talk&lt;/p&gt;
+&lt;p&gt;ask&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;span&gt;&lt;strong&gt;Asking About Train or Bus Times&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;Asking about train or bus times is simple. In the dialogue, Zo asks the ticket seller, "What time is the bus?"&lt;br&gt;&lt;br&gt;In the dialogue, Zo says, "I'd like to go to Times Square. What time is the bus?"&lt;br&gt;&lt;br&gt;He says the name of the place he'd like to get to first, and then asks for the bus time.&lt;br&gt;&lt;br&gt;The easiest way to ask for a train or bus time is to use the phrase:&lt;br&gt;&lt;strong&gt;&lt;br&gt;&lt;em&gt;"What time is the train/bus to [location]?&lt;/em&gt;&lt;/strong&gt;"&lt;br&gt;&lt;br&gt;For example,&lt;br&gt;&lt;br&gt;"What time is the bus to New Jersey?"&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;span&gt;&lt;strong&gt;EXERCISE&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Answer these questions about asking for a train or bus time:&lt;/strong&gt;&lt;br&gt;&lt;br&gt;1. How would you ask when the train to Philadelphia is?&lt;/p&gt;
+&lt;p&gt;2. What about the bus to Boston?&lt;br&gt;&lt;br&gt;3. Or the train to New Haven?&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;span&gt;&lt;strong&gt;The Conjunction, "or"&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;The ticket seller asks Zo, "Cash &lt;strong&gt;or&lt;/strong&gt; credit card?"&lt;br&gt;&lt;br&gt;"Or" is a conjunction. You may remember from previous lessons that a conjunction is a word that links two words or phrases together. "Or" shows two choices or possibilities. For example:&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;"Would you like tea or coffee?"&lt;/p&gt;
+&lt;p&gt;"Do you prefer to sit here or there?"&lt;/p&gt;
+&lt;p&gt;"Would you like to eat inside or outside?"&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Write sentences using the conjunction "or" for each of these pairs of words:&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;EXAMPLE:&lt;br&gt;&lt;br&gt;New York&lt;br&gt; Los Angeles&lt;br&gt;&lt;br&gt;"Would you rather live in New York &lt;strong&gt;or&lt;/strong&gt; Los Angeles?"&lt;/p&gt;
+&lt;p&gt;1. today&lt;br&gt; tomorrow&lt;br&gt;&lt;br&gt;2. now&lt;br&gt; later&lt;/p&gt;
+&lt;p&gt;3. small&lt;br&gt; large&lt;br&gt;&lt;br&gt;4. with&lt;br&gt; without&lt;/p&gt;                        &lt;/div&gt;
+                                                                &lt;h3&gt;Cultural Insights&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt;&lt;strong&gt;Getting from A to B&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;As you probably know, transportation options at airports are plentiful. There are trains, taxis, buses, private cars, and a few other ways to get from the airport to your accommodations—where you're staying. In the dialogue, Zo has landed at JFK International Airport in New York and will be traveling by &lt;em&gt;shuttle bus&lt;/em&gt; to Times Square. Shuttle buses are so called because they "shuttle," or transport, people quickly between two locations. While standard buses make many stops along a route, shuttle buses travel between two locations. Even though many feature extra room for luggage, airport shuttle buses are usually much smaller than standard buses. The most well-known airport shuttle bus company in America is Supershuttle, which serves air travelers across the country.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                        &lt;div&gt;
+                                                    &lt;div&gt;
+                                                            &lt;/div&gt;
+                                            &lt;/div&gt;
+                &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+                                            &lt;h3&gt;Grammar&lt;/h3&gt;
+                        &lt;div&gt;
                             &lt;p&gt;&lt;strong&gt;&lt;span&gt;The Focus of This Lesson is Discussing and Assessing our Own Ability &lt;/span&gt;&lt;br&gt;&lt;span&gt; "&lt;/span&gt;&lt;/strong&gt;&lt;strong&gt;&lt;span&gt;Oh, I can't play squash."&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
 &lt;hr&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
@@ -2269,7 +2168,7 @@
 &lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "Can you do difficult mathematics?"&lt;/li&gt;
 &lt;/ol&gt;&lt;p&gt;We can answer all of these questions with either "Yes, I can" or "No, I can't."&lt;/p&gt;
 &lt;p&gt;In the lesson, both Katrina and Phil talk about what they can and can't do.&lt;/p&gt;
-&lt;p&gt;Katrina: "Oh, I can't play squash."&lt;/p&gt;
+&lt;p&gt;Katrin&lt;br&gt;&lt;br&gt;A: "Oh, I can't play squash."&lt;/p&gt;
 &lt;p&gt;Phil: "Ah, I can't swim!"&lt;/p&gt;
 &lt;p&gt;I wonder what sport they both &lt;em&gt;can&lt;/em&gt; do?&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
@@ -2403,7 +2302,7 @@
 &lt;li&gt;"The film was really good, wasn't it?"&lt;/li&gt;
 &lt;/ol&gt;                        &lt;/div&gt;
                                                                 &lt;h3&gt;Cultural Insights&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
+                        &lt;div&gt;
                             &lt;p&gt;&lt;span&gt;&lt;strong&gt;Health and Fitness in the UK&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
 &lt;p&gt;
 &lt;/p&gt;&lt;hr&gt;&lt;p&gt;Joining a gym is becoming increasingly popular in the UK, especially with young adults and professionals. Most cities and large towns have several gyms for people to choose from and they often open 24 hours a day. Gyms are a great place to do your own exercise or to enrol in classes or have training programs planned for you. As well as gyms, some people like to go walking or running and many pubs and social clubs have sports teams. Football is especially popular with pubs, and many people spend their weekends playing football games in amateur leagues. There is also a big diet culture in the UK and there are many specialist diet foods that can be bought both in regular supermarkets and also health food stores. These health stores can also be found in most cities and shopping centres.&lt;/p&gt;
@@ -2415,25 +2314,401 @@
                 &lt;/div&gt;</t>
   </si>
   <si>
-    <t>A: Hello, I'm Daniel. I just moved in next door. Nice to meet you!
-  B: Hi, I'm Katrina. Nice to meet you too.
-  A: I'm having a housewarming party tomorrow evening. Are you free?
-  B: Thanks for the kind invite! I'd love to come!
-  A: I'm happy to hear that. The party starts at 7.30.
-  B: Do I need to bring any food or drinks?
-  A: No, I'll have everything.
-  B: Thank you. See you tomorrow!</t>
-  </si>
-  <si>
-    <t>&lt;div class="lsn3-lesson-notes"&gt;
+    <t xml:space="preserve"> &lt;br&gt;&lt;br&gt;A: Good evening, Ms. Walsh. How are you?
+  &lt;br&gt;&lt;br&gt;B: Good. And you? How are you, Zo?
+  &lt;br&gt;&lt;br&gt;A: I'm great! I just wanted to make sure you were in your office so I can stop by for the homework; I'm going on my big trip tomorrow!
+  &lt;br&gt;&lt;br&gt;B: Ah, yes! Is tomorrow Wednesday?
+  &lt;br&gt;&lt;br&gt;A: Yep, tomorrow’s Wednesday.
+  &lt;br&gt;&lt;br&gt;B: How nice! Well, I'm going home now, but I'll leave the homework with the secretary. Have a great trip!
+  &lt;br&gt;&lt;br&gt;A: Thank you, Ms. Walsh! See you later!</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;&lt;br&gt;A: (singing a pop song)
+  &lt;br&gt;&lt;br&gt;B: Excuse me. May I pass by you? My seat’s next to yours.
+  &lt;br&gt;&lt;br&gt;A: Oh, sorry! Go ahead, please.
+  &lt;br&gt;&lt;br&gt;B: Hello. How are you? I'm Zo.
+  &lt;br&gt;&lt;br&gt;A: Hi! Nice to meet you. I'm Michelle.
+  &lt;br&gt;&lt;br&gt;B: I'm sorry. Your name again, please. Slowly.
+  &lt;br&gt;&lt;br&gt;A: Michelle.
+  &lt;br&gt;&lt;br&gt;B: Michelle.
+  &lt;br&gt;&lt;br&gt;A: That's it. But please call me Shelly.
+  &lt;br&gt;&lt;br&gt;B: Shelly. Nice to meet you.
+  &lt;br&gt;&lt;br&gt;A: Nice to meet you too</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;br&gt;&lt;br&gt;A: So who’s the singer?
+  &lt;br&gt;&lt;br&gt;B: I'm sorry?
+  &lt;br&gt;&lt;br&gt;A: The song you were singing.
+  &lt;br&gt;&lt;br&gt;B: Oh my gosh! I'm embarrassed! It's Beyoncé. [laughs]
+  &lt;br&gt;&lt;br&gt;A: Oh, of course! Good choice. So where are you from?
+  &lt;br&gt;&lt;br&gt;B: I'm from Los Angeles.
+  &lt;br&gt;&lt;br&gt;A: Ah, yes, Los Angeles.
+  &lt;br&gt;&lt;br&gt;B: And you? Where are you from? Are you South African?
+  &lt;br&gt;&lt;br&gt;A: Yes, I’m South African!
+  &lt;br&gt;&lt;br&gt;B: Are you from Johannesburg?
+  &lt;br&gt;&lt;br&gt;A: No, I'm not. I'm from Cape Town.
+  &lt;br&gt;&lt;br&gt;B: Oh, is that so?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;br&gt;&lt;br&gt;A: Next. Passport, please.
+  &lt;br&gt;&lt;br&gt;B: Hello. Here you are.
+  &lt;br&gt;&lt;br&gt;A: How long will you stay?
+  &lt;br&gt;&lt;br&gt;B: Once again, please.
+  &lt;br&gt;&lt;br&gt;A: How long will you stay?
+  &lt;br&gt;&lt;br&gt;B: For 2 weeks.
+  &lt;br&gt;&lt;br&gt;A: Where will you stay?
+  &lt;br&gt;&lt;br&gt;B: At the L Hotel.
+  &lt;br&gt;&lt;br&gt;A: What’s the purpose of your stay?
+  &lt;br&gt;&lt;br&gt;B: Once again, please. Slowly please.
+  &lt;br&gt;&lt;br&gt;A: [annoyed but slowly] What’s the purpose of your stay?
+  &lt;br&gt;&lt;br&gt;B: I'm here on business, and to sightsee.
+  &lt;br&gt;&lt;br&gt;A: Okay. Thank you. Welcome to the United States.
+</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;&lt;br&gt;A: Next, please.
+  &lt;br&gt;&lt;br&gt;B: I'd like to go to Times Square. Please, what time’s the shuttle bus?
+  &lt;br&gt;&lt;br&gt;A: Four o'clock.
+  &lt;br&gt;&lt;br&gt;B: Okay. 1 ticket, please.
+  &lt;br&gt;&lt;br&gt;A: $40. Cash or credit card?
+  &lt;br&gt;&lt;br&gt;B: Credit card.
+  &lt;br&gt;&lt;br&gt;A: Sign, please.
+  Here's the receipt and ticket. Stop number 3 at 4 p.m.
+  &lt;br&gt;&lt;br&gt;B: Thank you.
+  &lt;br&gt;&lt;br&gt;A: Next.</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
                                             &lt;h3&gt;Grammar&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt;&lt;strong&gt;The Focus of This Lesson is &lt;/strong&gt;&lt;strong&gt;Counters&lt;/strong&gt;&lt;strong&gt; and t&lt;/strong&gt;&lt;strong&gt;he phrase, "What is that?"&lt;/strong&gt;&lt;/span&gt;&lt;span&gt;&lt;strong&gt;&lt;em&gt;&lt;/em&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span&gt;&lt;strong&gt;&lt;span&gt;"Okay—so that’s three bottles of water, one bottle of orange juice, one can of soda, a sand&lt;span&gt;wich, &lt;/span&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;span&gt;&lt;strong&gt;a box of crackers, and a pack of gum&lt;/strong&gt;&lt;strong&gt;.&lt;/strong&gt;&lt;/span&gt;"&lt;br&gt;&lt;span&gt;&lt;strong&gt;&lt;span&gt;"What is that?"&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;span&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&lt;span&gt;&lt;strong&gt;Counters&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;When Zo places the items he is buying on the counter in the store, the cashier takes stock—counts—all of Zo purchases:&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;span&gt;&lt;em&gt;"Okay—so that’s 3 bottles of water, 1 bottle of orange juice, 1 can of soda, a sandwich, a&amp;nbsp; box of crackers, and a pack of gum."&lt;/em&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Counting nouns—especially foods—in English is, in a sense, quite easy. If you know the container that a food or drink is packaged in, or the shape a particular food is cooked or served in, you may already have an idea of how to count that food or drink. The list of counters, or "counting words," is nearly endless, as are the counters that you use for any given object. &lt;br&gt;&lt;br&gt;&lt;strong&gt;Take a look at the first three counters that appear in the dialogue:&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;em&gt;3 bottles of water&lt;br&gt;1 bottle of orange juice&lt;br&gt;I can of soda&lt;/em&gt;&lt;br&gt;&lt;br&gt;Zo is buying water that has been packaged in bottles. The orange juice has been packaged into a bottle, too. He is also buying a can of soda—the soda has been packaged into a can.&lt;/p&gt;
+&lt;p&gt;Of course, there are other ways to package water, juice, and sod&lt;br&gt;&lt;br&gt;A:&lt;/p&gt;
+&lt;p&gt;water in three (3) jugs = 3 jugs of water&lt;br&gt;orange juice in two (2) cartons = 2 cartons of orange juice&lt;br&gt;soda in a one (1) bottle = a bottle of soda&lt;br&gt;&lt;br&gt;&lt;br&gt;A:s you can see, &lt;strong&gt;the counter, or "counting word," you use for an object depends on how that object is packaged.&lt;/strong&gt;&lt;br&gt;&lt;br&gt;*Note: the number one (1) can always be signified with the particle "a": &lt;em&gt;&lt;strong&gt;a&lt;/strong&gt; can of soda, &lt;strong&gt;a&lt;/strong&gt; bottle of water, &lt;strong&gt;a&lt;/strong&gt; carton of orange juice.&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;Zo also buys:&lt;br&gt;&lt;br&gt;&lt;em&gt;a sandwich&lt;br&gt;&lt;br&gt;A: &lt;strong&gt;box&lt;/strong&gt; of crackers&lt;br&gt;&lt;br&gt;A: &lt;strong&gt;pack&lt;/strong&gt; of gum&lt;br&gt;&lt;br&gt;&lt;br&gt;A: sandwich = &lt;/em&gt;one sandwich; sandwiches typically don't require counters&lt;br&gt;&lt;em&gt;A box of crackers = &lt;/em&gt;one box of crackers&lt;em&gt;&lt;br&gt;&lt;br&gt;A: pack of gum = &lt;/em&gt;one pack (chewing gum packaging) of gum&lt;br&gt;&lt;br&gt;Here are some more counters used for foods and drinks:&lt;br&gt;&lt;br&gt;&lt;em&gt;Five &lt;strong&gt;slices&lt;/strong&gt; of pizza&lt;br&gt;&lt;br&gt;Three &lt;strong&gt;glasses &lt;/strong&gt;of wine&lt;br&gt;&lt;br&gt;One &lt;strong&gt;plate&lt;/strong&gt; of vegetables&lt;br&gt;&lt;br&gt;Six &lt;strong&gt;cups&lt;/strong&gt; of tea&lt;br&gt;&lt;br&gt;&lt;br&gt;A: &lt;strong&gt;stick&lt;/strong&gt; of gum&lt;br&gt;&lt;br&gt;Three apple &lt;strong&gt;wedges&lt;/strong&gt; (small, triangle-shaped pieces)&lt;/em&gt;&lt;br&gt;&lt;br&gt;The list goes on and on! What other counters can you think of?&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;span&gt;&lt;strong&gt;"What Is That?&lt;/strong&gt;&lt;strong&gt;"&lt;/strong&gt;&lt;/span&gt;&lt;span style="text-decoration:underline;"&gt;&lt;strong&gt;&lt;br&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;Zo sees a strange food behind the counter in the convenience store. He doesn't know what it is, so he asks the cashier:&lt;/p&gt;
+&lt;p&gt;&lt;span&gt;&lt;em&gt;"What is &lt;strong&gt;that&lt;/strong&gt;?"&lt;/em&gt;&lt;/span&gt;&lt;span&gt;&lt;br&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;em&gt;That &lt;/em&gt;&lt;/strong&gt;is a &lt;em&gt;demonstrative.&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Demonstratives &lt;/em&gt;are adjectives and pronouns that identify which object or person the person speaking about. In this case, &lt;em&gt;that&lt;/em&gt; is a &lt;em&gt;demonsrative pronoun&lt;/em&gt;.&lt;/p&gt;
+&lt;p&gt;Demonstratives agree in number (singular or plural) with the objects or people being identified and change depending on how far they are from the speaker.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;"What is that?"&lt;/em&gt; = "What is that thing (singular) &lt;em&gt;over there&lt;/em&gt;?"&lt;br&gt;&lt;br&gt;The table below illustrates the proper demonstrative pronoun to use depending on 1) whether the thing it refers to is singular or plural, and 2) whether the thing is near to or far from the speaker:&lt;br&gt;&lt;br&gt;&lt;/p&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;
+&lt;td&gt;&lt;span&gt;&lt;strong&gt;NEAR&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+&lt;td&gt;&lt;span&gt;&lt;strong&gt;FAR&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;SINGULAR&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+&lt;td&gt;"this"&lt;/td&gt;
+&lt;td&gt;"that"&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;&lt;strong&gt;PLURAL&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+&lt;td&gt;"these"&lt;/td&gt;
+&lt;td&gt;"those"&lt;/td&gt;
+&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Write whether the following demonstratives and nouns are a) SINGULAR or PLURAL and b) NEAR or FAR:&lt;br&gt;&lt;br&gt;1. These cats&lt;br&gt;&lt;br&gt;A:)&lt;br&gt;&lt;br&gt;B:)&lt;/p&gt;
+&lt;p&gt;&lt;br&gt;2. Those boxes&lt;br&gt;&lt;br&gt;A:)&lt;br&gt; b)&lt;br&gt;&lt;br&gt;3. This bag&lt;br&gt;&lt;br&gt;A:)&lt;br&gt; b)&lt;br&gt;&lt;br&gt;4. That book&lt;br&gt;&lt;br&gt;A:)&lt;br&gt; b)&lt;/p&gt;                        &lt;/div&gt;
+                                                                &lt;h3&gt;Cultural Insights&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt;&lt;strong&gt;The Land of Convenience&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;It's probably safe to say that there are convenience stores in every heavily populated corner of the world. But also that every country and every city has its own brand of convenience stores. In New York, there are two main types of convenience stores: chains—or a series of stores owned by one big company—and independently owned, smaller stores and street stalls.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Of course, the chain stores (or "chains"), because they're owned and operated by a big corporation, have the largest and broadest selection of products. From sewing kits and gift wrap to magazines and cold medicine, chain convenience stores have just about anything you might need for any given situation. Smaller, independently-owned convenience stores—sometimes called "corner stores," because of their common location at or near street corners—and street stalls (sometimes called &lt;em&gt;bodegas&lt;/em&gt;) take up far less space and so have fewer items to choose from, most of which are foods and snacks, and important household items like toilet paper, paper towels, and toothpaste. These smaller operations often sell sandwiches and other prepared foods, and are often open until the late hours of the night.&lt;/p&gt;
+&lt;p&gt;At one time, chains kept regular business hours and closed in the evening; these days, to compete with the smaller convenience stores and street stalls, which are open quite late, more and more chains stay open either late into the evening, or for 24 hours.&lt;/p&gt;                        &lt;/div&gt;
+                                        &lt;div&gt;
+                                                    &lt;div&gt;
+                                                            &lt;/div&gt;
+                                            &lt;/div&gt;
+                &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;&lt;br&gt;A: Welcome to the UK. Why are you visiting the UK?
+  &lt;br&gt;&lt;br&gt;B: I am here to study.
+  &lt;br&gt;&lt;br&gt;A: How long will you stay for?
+  &lt;br&gt;&lt;br&gt;B: I will stay for one year.
+  &lt;br&gt;&lt;br&gt;A: Where will you live?
+  &lt;br&gt;&lt;br&gt;B: I will live in London.
+  &lt;br&gt;&lt;br&gt;A: Thank you. Enjoy your stay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;br&gt;&lt;br&gt;A: I like this flat. How much is the rent?
+  &lt;br&gt;&lt;br&gt;B: It is £350 per week.
+  &lt;br&gt;&lt;br&gt;A: That is a little expensive. Does the flat have a garden?
+  &lt;br&gt;&lt;br&gt;B: The building has a garden that everyone can use.
+  &lt;br&gt;&lt;br&gt;A: Does the flat have a parking space?
+  &lt;br&gt;&lt;br&gt;B: Yes, there is space for one car.
+  &lt;br&gt;&lt;br&gt;A: Okay, I'll take it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;br&gt;&lt;br&gt;A: I want to make an omelette for tea, so I need eggs.
+  &lt;br&gt;&lt;br&gt;B: The eggs are over here, in this aisle.
+  &lt;br&gt;&lt;br&gt;A: Hmm, I think I need medium-sized eggs.
+  &lt;br&gt;&lt;br&gt;B: Free-range eggs?
+  &lt;br&gt;&lt;br&gt;A: Yeah! I think half a dozen will be enough.
+  &lt;br&gt;&lt;br&gt;B: How about these?
+  &lt;br&gt;&lt;br&gt;A: Perfect! Thanks!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;br&gt;&lt;br&gt;A: I'll help you carry this food home. Where do you live?
+  &lt;br&gt;&lt;br&gt;B: I live in a third floor flat near the high street. Do you know the high street?
+  &lt;br&gt;&lt;br&gt;A: Yeah, I do.
+  &lt;br&gt;&lt;br&gt;B: If you turn right at the traffic lights, my flat is on that road.
+  &lt;br&gt;&lt;br&gt;A: Which traffic lights?
+  &lt;br&gt;&lt;br&gt;B: The lights next to the pub.
+  &lt;br&gt;&lt;br&gt;A: I know it! Let's go!</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+                                            &lt;h3&gt;Grammar&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;strong&gt;&lt;span&gt;The Focus of This Lesson is Giving Directions &lt;/span&gt;&lt;br&gt;&lt;span&gt; "&lt;/span&gt;&lt;/strong&gt;&lt;strong&gt;&lt;span&gt;If you turn right at the traffic lights, my flat is on that road."&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;In this lesson, we will learn how to:&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;&lt;strong&gt;&amp;nbsp;Use positional and directional words&lt;/strong&gt;&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;&amp;nbsp;Form imperative sentences/give simple commands&lt;/strong&gt;&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&lt;strong&gt;&lt;span&gt;1. Using Positional and Directional Words&lt;/span&gt;
+&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;The most useful words when giving directions are prepositions of place. The most commonly used ones are:&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td width="148"&gt;
+&lt;p&gt;next to&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="148"&gt;
+&lt;p&gt;adjacent to&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width="148"&gt;
+&lt;p&gt;by&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="148"&gt;
+&lt;p&gt;near to,   next to&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width="148"&gt;
+&lt;p&gt;across from&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="148"&gt;
+&lt;p&gt;on the   other side&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width="148"&gt;
+&lt;p&gt;behind&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="148"&gt;
+&lt;p&gt;at the back   of&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width="148"&gt;
+&lt;p&gt;in front of&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="148"&gt;
+&lt;p&gt;before&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;We use these prepositions in front of the building or place that we are using as a reference.&lt;/p&gt;
+&lt;p&gt;For example, if we are giving directions to the bank:&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "The bank is next to the park."&lt;/li&gt;
+&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "The bank is by the post office."&lt;/li&gt;
+&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "The bank is across from the school."&lt;/li&gt;
+&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "The bank is behind the library."&lt;/li&gt;
+&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "The bank is in front of the supermarket."&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;We can also use adverbs of place to help give directions. Some common ones are:&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td width="148"&gt;
+&lt;p&gt;outside&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="148"&gt;
+&lt;p&gt;not inside,   the exterior&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width="148"&gt;
+&lt;p&gt;nearby&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="148"&gt;
+&lt;p&gt;close, in   the vicinity&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width="148"&gt;
+&lt;p&gt;around&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="148"&gt;
+&lt;p&gt;in the   vicinity of, in all directions&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width="148"&gt;
+&lt;p&gt;inside&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="148"&gt;
+&lt;p&gt;within, the   interior&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;We use also use adverbs of place as prepositions. In these sentences, a noun isn't always needed and we can make a sentence just with the subject and adverb.&lt;/p&gt;
+&lt;p&gt;For example, if we are looking for Mark:&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "Mark is outside."&lt;/li&gt;
+&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "Mark is nearby."&lt;/li&gt;
+&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "Mark is around."&lt;/li&gt;
+&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "Mark is inside."&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;If we do use a noun, then again the adverb goes before the noun.&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "Mark is outside the train station."&lt;/li&gt;
+&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "Mark is nearby the school."&lt;/li&gt;
+&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "Mark is around the park."&lt;/li&gt;
+&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "Mark is inside the bakery."&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;span&gt;2. Forming Imperative Sentences/Giving Simple Commands&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;An imperative sentence is a sentence that gives a direct command. Often, imperative sentences have no subject and are formed from the base form of a verb.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td width="98" class="lsn3-th"&gt;
+&lt;p&gt;&lt;span&gt;&lt;strong&gt;Infinitive Form&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="98" class="lsn3-th"&gt;
+&lt;p&gt;&lt;span&gt;&lt;strong&gt;Imperative Form&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="98" class="lsn3-th"&gt;
+&lt;p&gt;&lt;span&gt;&lt;strong&gt;Example&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width="98"&gt;
+&lt;p&gt;to shut&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="98"&gt;
+&lt;p&gt;shut&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="98"&gt;
+&lt;p&gt;Shut the   door!&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width="98"&gt;
+&lt;p&gt;to pass&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="98"&gt;
+&lt;p&gt;pass&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="98"&gt;
+&lt;p&gt;Pass the   salt.&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width="98"&gt;
+&lt;p&gt;to go&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="98"&gt;
+&lt;p&gt;go&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="98"&gt;
+&lt;p&gt;Let's go!&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width="98"&gt;
+&lt;p&gt;to be&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="98"&gt;
+&lt;p&gt;be&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="98"&gt;
+&lt;p&gt;Be there at   3pm.&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;To make a negative imperative sentence, just add "do not/don't" before the imperative form.&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "Do not shut the door!"&lt;/li&gt;
+&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "Do not pass the salt."&lt;/li&gt;
+&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "Don't go!"&lt;/li&gt;
+&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "Do not be there at 3 p.m."&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&lt;br&gt; If you want to make the command more forceful in writing, then you can add an exclamation mark to the end of the sentence.&lt;/p&gt;
+&lt;p&gt;The imperative form is often used in instructions, as they need to be short and tell people what to do. It is also often used when giving directions, as again you are telling people what to do.&lt;/p&gt;
+&lt;p&gt;For example:&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;&lt;br&gt;&lt;br&gt;A: "Excuse me, do you know where a post office is?"&lt;br&gt;&lt;br&gt;&lt;br&gt;B: "Sure, go straight down this street until you see the lights. Make a right onto the main street and walk straight down toward the park. It's past the library on the left side."&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;When giving directions, you can also use your hands and point in the right direction to help. If you ask somebody, try repeating the directions the person says so that you know for sure that you understand. If somebody asks you, you might have to repeat the directions to clarify.&lt;/p&gt;
+&lt;p&gt;But be careful—if you are asking somebody to do something for you, then don't use an imperative sentence as it can be seen as rude in that case!&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Examples from the dialogue:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; "If you turn right at the traffic lights, my flat is on that road."&lt;/li&gt;
+&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; "The lights next to the pub."&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;span&gt;&lt;strong&gt;Sample Sentences&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; "Take the third exit at the island."&lt;/li&gt;
+&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; "Go straight down this road for about ten minutes and turn left at the bank."&lt;/li&gt;
+&lt;li&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; "Turn left at the third set of traffic lights."&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                                                &lt;h3&gt;Cultural Insights&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;strong&gt;&lt;span&gt;Giving Directions&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Giving directions in the UK isn't the easiest thing to do. Cities and towns are not neatly laid out in blocks, but have roads that twist and turn and go in all directions. For longer distances there are many convenient and well looked-after motorways and major roads, but navigating around cities can be tricky. Although road names are usually well signposted and easy to spot, most people in the UK give directions using landmarks, such as shops or pubs, or use traffic lights and islands. There are usually several different ways to get somewhere and the shortest route isn't always the quickest as it depends on traffic and the time of day. There are many ways to give directions and it is very easy to get lost. Sat navs have become very popular in recent years!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                        &lt;div&gt;
+                                                    &lt;div&gt;
+                                                            &lt;/div&gt;
+                                            &lt;/div&gt;
+                &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;br&gt;&lt;br&gt;A: Do you have your university timetable yet?
+  &lt;br&gt;&lt;br&gt;B: Yeah, I got it yesterday. My classes start on Monday in the main lecture hall.
+  &lt;br&gt;&lt;br&gt;A: Do you have many classes?
+  &lt;br&gt;&lt;br&gt;B: I have two classes every morning, and one every afternoon.
+  &lt;br&gt;&lt;br&gt;A: What time do your classes start?
+  &lt;br&gt;&lt;br&gt;B: They start at 9.30 in the morning. It's a one hour-long class.</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;&lt;br&gt;A: Hey, Katrina! Do you have any snow boots?
+  &lt;br&gt;&lt;br&gt;B: No, I don't. Will it snow?
+  &lt;br&gt;&lt;br&gt;A: The weather forecast said that it will probably snow heavily later.
+  &lt;br&gt;&lt;br&gt;B: Really? It's raining now but it's still warm.
+  &lt;br&gt;&lt;br&gt;A: Yeah, but it's supposed to be freezing cold tonight.
+  &lt;br&gt;&lt;br&gt;B: I hope it doesn't snow until after I get home.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;br&gt;&lt;br&gt;A: It's your birthday next week, isn't it? Do you have any plans yet?
+  &lt;br&gt;&lt;br&gt;B: Not yet! What do you think I should do?
+  &lt;br&gt;&lt;br&gt;A: You should have a party.
+  &lt;br&gt;&lt;br&gt;B: That takes too much organising at short notice. How about going to a restaurant?
+  &lt;br&gt;&lt;br&gt;A: That sounds good! The new Chinese restaurant has discounts if you go on Thursdays.
+  &lt;br&gt;&lt;br&gt;B: Okay, let's go on Thursday!</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;&lt;br&gt;A: Hey, Phil. I need to go to the library but it's a little far. Can I borrow your bike?
+  &lt;br&gt;&lt;br&gt;B: When do you need it?
+  &lt;br&gt;&lt;br&gt;A: Um, now? I'll be back by 4 p.m.
+  &lt;br&gt;&lt;br&gt;B: I really need it back by 3.30 p.m. as I have to go to school.
+  &lt;br&gt;&lt;br&gt;A: Okay, 3.30 p.m. is fine!
+  &lt;br&gt;&lt;br&gt;B: Don't be late!
+  &lt;br&gt;&lt;br&gt;A: I won't! Thanks Phil, I owe you one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;br&gt;&lt;br&gt;A: This gym has a squash court too. Fancy a game?
+  &lt;br&gt;&lt;br&gt;B: Oh, I can't play squash.
+  &lt;br&gt;&lt;br&gt;A: What!?
+  &lt;br&gt;&lt;br&gt;B: I'm really bad at it. I always miss the ball.
+  &lt;br&gt;&lt;br&gt;A: That doesn't matter. You can still try, right?
+  &lt;br&gt;&lt;br&gt;B: There's a swimming pool here, isn't there? I'm good at swimming. Let's go swimming!
+  &lt;br&gt;&lt;br&gt;A: Ah, I can't swim!
+  &lt;br&gt;&lt;br&gt;B: That's okay, I can teach you!</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;&lt;br&gt;A: Hello, I'm Daniel. I just moved in next door. Nice to meet you!
+  &lt;br&gt;&lt;br&gt;B: Hi, I'm Katrina. Nice to meet you too.
+  &lt;br&gt;&lt;br&gt;A: I'm having a housewarming party tomorrow evening. Are you free?
+  &lt;br&gt;&lt;br&gt;B: Thanks for the kind invite! I'd love to come!
+  &lt;br&gt;&lt;br&gt;A: I'm happy to hear that. The party starts at 7.30.
+  &lt;br&gt;&lt;br&gt;B: Do I need to bring any food or drinks?
+  &lt;br&gt;&lt;br&gt;A: No, I'll have everything.
+  &lt;br&gt;&lt;br&gt;B: Thank you. See you tomorrow!</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+                                            &lt;h3&gt;Grammar&lt;/h3&gt;
+                        &lt;div&gt;
                             &lt;p&gt;&lt;span&gt; &lt;/span&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;&lt;span&gt;The Focus of This Lesson is Accepting or Rejecting an Invitation in a Polite Manner &lt;br&gt;&lt;/span&gt;"&lt;/strong&gt;&lt;strong&gt;Thanks for the kind invite! I'd love to come!"&lt;/strong&gt;&lt;/p&gt;
 &lt;hr&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
 &lt;p dir="ltr"&gt;In this lesson, we will learn how to:&lt;/p&gt;
-&lt;ol&gt;&lt;li&gt;&lt;strong&gt;Form the present continuous tense (with the verb: having)&lt;/strong&gt;&lt;/li&gt;
+&lt;ol&gt;&lt;li&gt;&lt;strong&gt;Form the present continuous tense (with the ver&lt;br&gt;&lt;br&gt;B: having)&lt;/strong&gt;&lt;/li&gt;
 &lt;/ol&gt;&lt;strong&gt; &lt;/strong&gt;
 &lt;strong&gt;Use the auxiliary verb "to be"&lt;/strong&gt;
 &lt;strong&gt; &lt;/strong&gt;
@@ -2656,7 +2931,7 @@
 &lt;li&gt;"Shall I bring red wine or white wine?"&lt;/li&gt;
 &lt;/ol&gt;                        &lt;/div&gt;
                                                                 &lt;h3&gt;Cultural Insights&lt;/h3&gt;
-                        &lt;div class="lsn3-material js-lsn3-fix-th" lang="en"&gt;
+                        &lt;div&gt;
                             &lt;p&gt;&lt;strong&gt;&lt;span&gt;Moving House in the UK&lt;/span&gt;
 &lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
@@ -2669,67 +2944,1121 @@
                 &lt;/div&gt;</t>
   </si>
   <si>
-    <t>Name File</t>
-  </si>
-  <si>
-    <t>audio5-1</t>
-  </si>
-  <si>
-    <t>audio5-2</t>
-  </si>
-  <si>
-    <t>audio5-3</t>
-  </si>
-  <si>
-    <t>audio5-4</t>
-  </si>
-  <si>
-    <t>audio5-5</t>
-  </si>
-  <si>
-    <t>audio5-6</t>
-  </si>
-  <si>
-    <t>audio5-7</t>
-  </si>
-  <si>
-    <t>audio5-8</t>
-  </si>
-  <si>
-    <t>audio5-9</t>
-  </si>
-  <si>
-    <t>audio5-10</t>
-  </si>
-  <si>
-    <t>audio6-4</t>
-  </si>
-  <si>
-    <t>audio6-1</t>
-  </si>
-  <si>
-    <t>audio6-2</t>
-  </si>
-  <si>
-    <t>audio6-3</t>
-  </si>
-  <si>
-    <t>audio6-5</t>
-  </si>
-  <si>
-    <t>audio6-6</t>
-  </si>
-  <si>
-    <t>audio6-7</t>
-  </si>
-  <si>
-    <t>audio6-8</t>
-  </si>
-  <si>
-    <t>audio6-9</t>
-  </si>
-  <si>
-    <t>audio6-10</t>
+    <t>Hello.
+  &lt;br&gt;&lt;br&gt;B: Hey, Joey. This is Mike.
+  &lt;br&gt;&lt;br&gt;A: Hey, Mike. How's it going? Haven't seen you in a while.
+  &lt;br&gt;&lt;br&gt;B: Yeah, I've been busy with work. But I have some time this week. Do you want to grab lunch either Wednesday or Thursday?
+  &lt;br&gt;&lt;br&gt;A: Sure. Wednesday works for me.
+  &lt;br&gt;&lt;br&gt;B: Sounds good. Can we meet at twelve-thirty?
+  &lt;br&gt;&lt;br&gt;A: How about twelve-fifteen?
+  &lt;br&gt;&lt;br&gt;B: Sure.
+  &lt;br&gt;&lt;br&gt;A: Okay. See you then.
+  &lt;br&gt;&lt;br&gt;B: See ya.</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+                                            &lt;h3&gt;Grammar&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt; &lt;strong&gt;The Focus of This Lesson Is Reviewing How to Form the Simple Present Tense.&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;span&gt; &lt;strong&gt;"Wednesday works for me." &lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;Let's review some basics and go over the simple present tense. We use the simple present tense to talk about things that are true all the time or true now and not expected to change soon. Also, we use this tense to talk about things that happen often. We often use the simple present tense with frequency words such as "always," "often," "never," and so on.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Regular verbs in the simple present&lt;em&gt; &lt;/em&gt;tense follow the following patterns. Let's look at the verb "to stop."&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td width="174" class="lsn3-th"&gt;
+&lt;p&gt;&lt;span&gt;&lt;strong&gt;Construction&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="84" class="lsn3-th"&gt;
+&lt;p&gt;&lt;span&gt;&lt;strong&gt;"English"&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width="174"&gt;
+&lt;p&gt;First person singular&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="84"&gt;
+&lt;p&gt;"I stop"&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width="174"&gt;
+&lt;p&gt;Second person singular&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="84"&gt;
+&lt;p&gt;"you stop"&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width="174"&gt;
+&lt;p&gt;Third person singular*&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="84"&gt;
+&lt;p&gt;"he stops"&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width="174"&gt;
+&lt;p&gt;First person plural&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="84"&gt;
+&lt;p&gt;"we stop"&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width="174"&gt;
+&lt;p&gt;Third person plural&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width="84"&gt;
+&lt;p&gt;"they stop"&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;p&gt;*Conjugation for the third person singular changes depending on the ver&lt;br&gt;&lt;br&gt;B:&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;Most verbs: infinitive (dictionary) form + "-s"&lt;/li&gt;
+&lt;li&gt;Verbs that end in "-s," "-sh," "-x," or "-ch": infinitive form + "-es"&lt;/li&gt;
+&lt;li&gt;Verbs that end in a vowel + "-y": infinitive form + "s"&lt;/li&gt;
+&lt;li&gt;Verbs that end in a consonant + "-y": change the&lt;strong&gt; "&lt;/strong&gt;-y&lt;strong&gt;"&lt;/strong&gt; to "-ies"&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&lt;strong&gt;Exceptions: &lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;"go" becomes "goes" &lt;/li&gt;
+&lt;li&gt;"do" becomes "does" &lt;/li&gt;
+&lt;li&gt;"have" becomes "has&lt;strong&gt;"&lt;/strong&gt;&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&lt;span&gt;&lt;strong&gt;Examples from This Dialogue&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;"I have some time this week."&lt;/li&gt;
+&lt;li&gt;"Wednesday works for me."&lt;/li&gt;
+&lt;li&gt;"Can we meet at 12?"&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                                                &lt;h3&gt;Cultural Insights&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt; &lt;strong&gt;Do You Have Time for a Quick Lunch Break?&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;Lunch breaks for people who work are usually quick and casual. For this reason, restaurants in business districts who cater to this crowd are very quick with their service. People usually finish their meal in about an hour and then they go back to work. Fast foods are also a popular choice for many, since people can just grab their lunch and go.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                        &lt;div&gt;
+                                                    &lt;div&gt;
+                                                            &lt;/div&gt;
+                                            &lt;/div&gt;
+                &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;br&gt;&lt;br&gt;A: Hey, Mike!
+ &lt;br&gt;&lt;br&gt;B: Hi, Joey. Haven't seen you in a while. How's it going, man?
+ &lt;br&gt;&lt;br&gt;A: I'm doing good. How about yourself?
+ &lt;br&gt;&lt;br&gt;B: Not bad. I got married recently!
+ &lt;br&gt;&lt;br&gt;A: That's great! Congratulations.
+ Say hi to Michelle for me.
+ &lt;br&gt;&lt;br&gt;B: Oh, Michelle and I broke up. I married Susan.
+ &lt;br&gt;&lt;br&gt;A: Oh... Anyway, let's talk about it over a beer sometime.
+ &lt;br&gt;&lt;br&gt;B: Yeah, let's do that!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;br&gt;&lt;br&gt;A: Hello there. How are you today?
+  &lt;br&gt;&lt;br&gt;B: I'm fine, thanks.
+  &lt;br&gt;&lt;br&gt;A: Do you need help with anything?
+  &lt;br&gt;&lt;br&gt;B: Do you have this in a medium?
+  &lt;br&gt;&lt;br&gt;A: Yes, but only in white.
+  &lt;br&gt;&lt;br&gt;B: Oh, I really like it in red...
+  &lt;br&gt;&lt;br&gt;A: I think you look great in white!
+  &lt;br&gt;&lt;br&gt;B: Well, let me think about it... I'll just wait until I lose weight and fit into the red one!
+  &lt;br&gt;&lt;br&gt;A: How long will that be?</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;&lt;br&gt;A: Hey, Joey. Sorry to call back again.
+  &lt;br&gt;&lt;br&gt;B: Hey, Mike. Long time! (sarcasm) Where are we eating again?
+  &lt;br&gt;&lt;br&gt;A: Ha ha, funny. Where do you want to meet up?
+  &lt;br&gt;&lt;br&gt;B: Someplace close to work might be nice.
+  &lt;br&gt;&lt;br&gt;A: Do you still work at that bar on Twelfth Avenue?
+  &lt;br&gt;&lt;br&gt;B: Yeah, I do.
+  &lt;br&gt;&lt;br&gt;A: Well, how about we go to the new oyster bar on Tenth Avenue and Thirty-third Street?
+  &lt;br&gt;&lt;br&gt;B: Sure, sounds good.
+  &lt;br&gt;&lt;br&gt;A: Okay. I'll see you there! ...Oh, and don't forget to get out of your uniform when you come. That dress would really attract attention.
+  &lt;br&gt;&lt;br&gt;B: Oh, got it. See you there, man!</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;&lt;br&gt;A: Hello, Mr. Smith.
+  &lt;br&gt;&lt;br&gt;B: Hey there, Mike. How are you?
+  &lt;br&gt;&lt;br&gt;A: I'm fine. How are you?
+  &lt;br&gt;&lt;br&gt;B: I'm good. Did you have a good weekend?
+  &lt;br&gt;&lt;br&gt;A: Yes, I did. My wife and I went to the beach.
+  &lt;br&gt;&lt;br&gt;B: Sounds great. How is Susan, by the way?
+  &lt;br&gt;&lt;br&gt;A: She's doing well.
+  &lt;br&gt;&lt;br&gt;B: Tell her I said hi.
+  &lt;br&gt;&lt;br&gt;A: I will, thank you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;br&gt;&lt;br&gt;A: Hello?
+  &lt;br&gt;&lt;br&gt;B: Hey, Joey. It's me, Mike.
+  &lt;br&gt;&lt;br&gt;A: Hey, man. What's up? Are we still on for tomorrow?
+  &lt;br&gt;&lt;br&gt;B: Well, that's what I'm calling about. I can't make it to lunch tomorrow. Something came up.
+  &lt;br&gt;&lt;br&gt;A: What do you mean something came up? I was your best buddy in third grade! What's so important that you can't tell me? Man...
+  &lt;br&gt;&lt;br&gt;B: Well, Susan wants me to have lunch with her parents. They're in town this week.
+  &lt;br&gt;&lt;br&gt;A: Oh, man! The wife is already tearing us apart. Man... I hate married guys.
+  &lt;br&gt;&lt;br&gt;B: I'm really sorry, Joey. Just this once. It's really important to Susan. Can we push back our lunch to next week?
+  &lt;br&gt;&lt;br&gt;A: Do I have a choice?
+  &lt;br&gt;&lt;br&gt;B: Not really.
+  &lt;br&gt;&lt;br&gt;A: Man…
+  &lt;br&gt;&lt;br&gt;B: Same time, same place?
+  &lt;br&gt;&lt;br&gt;A: All right. But you'd better not be late, man, or I'll make you pay, literally!
+  &lt;br&gt;&lt;br&gt;B: I'll be there! I'll be there! See you!</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;A: Hello.
+  &lt;br&gt;B: Hi, Mr. Smith. This is Mike Johnson from Snoozy Graphics.　
+  &lt;br&gt;A: Hi, Mike. How are you?
+  &lt;br&gt;B: Busy as always but fine, thank you. I was wondering if we could discuss the new marketing campaign over lunch sometime this week.
+  &lt;br&gt;A: Sure. I'm available Thursday or Friday.
+  &lt;br&gt;B: How's Friday?
+  &lt;br&gt;A: Friday works for me.
+  &lt;br&gt;B: How about we meet at the Rockland Café at noon?
+  &lt;br&gt;A: Well, I have a meeting that morning, so can we make it twelve-thirty just in case?
+  &lt;br&gt;B: Sure, no problem. I'll have a proposal ready for you by then.
+  &lt;br&gt;A: Great. I look forward to it. I'll see you then.
+  &lt;br&gt;B: See you then.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;br&gt;A: Excuse me.
+  &lt;br&gt;B: Yes?
+  &lt;br&gt;A: Is this on sale?
+  &lt;br&gt;B: Yes. It's twenty percent off the tag price.
+  &lt;br&gt;A: So it's twenty percent off $29.99?
+  &lt;br&gt;B: Yes, sir.
+  &lt;br&gt;A: So how much is that?
+  &lt;br&gt;B: Ummm...
+  &lt;br&gt;A: Can you do the math? I'm not really good at it.
+  &lt;br&gt;B: Yes, of course, ummm... Let me get a calculator.
+  &lt;br&gt;A: I don't have all day.
+  &lt;br&gt;B: Uh, it's $23.99, sir.
+  &lt;br&gt;A: Will it be thirty percent off next week?
+  &lt;br&gt;B: I'm not sure, maybe.
+  &lt;br&gt;A: All right. I'll come back next week, and if it's thirty percent off, I'll take it. Meanwhile, you make sure no one buys it this week.
+  &lt;br&gt;B: I can't do that, sir.
+  &lt;br&gt;A: Yes, you can!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;br&gt;A: Hey. Thanks for waiting, Joey.
+  &lt;br&gt;B: No problem, man.
+  &lt;br&gt;A: Long time no see, buddy. How've you been?
+  &lt;br&gt;B: Not bad. Same job, same apartment, nothing's changed really.
+  &lt;br&gt;A: Oh. Well, that's good to hear.
+  &lt;br&gt;B: Hey, so you got married! Congrats! Tell me about Susan, the lucky girl.
+  &lt;br&gt;A: Well, what can I say? She's awesome! She's funny, down-to-earth, and easygoing.
+  &lt;br&gt;B: Wow, she sounds nothing like Michelle.
+  &lt;br&gt;A: Exactly! Michelle was too high-maintenance for me. She was so pretentious and superficial!
+  &lt;br&gt;B: Yeah, but she was really sexy.
+  &lt;br&gt;A: I know. Anyway, Susan's great. You'll like her.
+  &lt;br&gt;B: How did you two meet anyway?
+  &lt;br&gt;A: Well, it's a long story. I bumped into her and spilled coffee on her boyfriend. I offered to pay the cleaning bill, and we exchanged phone numbers. The rest is history.
+  &lt;br&gt;B: What do you mean "the rest is history?"</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;A: Rock 'n' Roll Pizza!
+  &lt;br&gt;B: Hi, I'd like to order a pizza.
+  &lt;br&gt;A: Sure. What kind of pizza would you like?
+  &lt;br&gt;B: What do you recommend?
+  &lt;br&gt;A: I personally like the Beatles Deluxe, Elvis Pelvis, and Imagine that John.
+  &lt;br&gt;B: What do they have on them?
+  &lt;br&gt;A: Well, the Beatles Deluxe has pepperoni shaped like musical notes. The Elvis Pelvis has anchovies shaped like a pelvis, and the Imagine that John is a pizza with no borders, I mean crust. Get it? No border. No crust. Okay.
+  &lt;br&gt;B: Umm. I'll try the Beatles Deluxe, please.
+  &lt;br&gt;A: What kind of toppings would you like?
+  &lt;br&gt;B: Mushrooms and anchovies.
+  &lt;br&gt;A: All right. It's Deadhead 'shrooms and Bon Jovi anchovies. What size?
+  &lt;br&gt;B: What sizes do you have?
+  &lt;br&gt;A: Medium and Elvis. A medium is about 12 inches in diameter and an Elvis is about 20 inches. Remember? Elvis got pretty fat at the end.
+  &lt;br&gt;B: Yeah, Yeah, I get it. I'll have a medium.
+  &lt;br&gt;A: What kind of crust would you like?
+  &lt;br&gt;B: What kind of crusts do you have?
+  &lt;br&gt;A: We have soft crust, cheese crust, and the Karen Carpenter crust. The Karen Carpenter crust is very thin. 'Cuz yeah, you know? She was really skinny! Get it?
+  &lt;br&gt;B: Uhh, yeah. I'd like the Karen Carpenter crust.
+  &lt;br&gt;A: Can I get you anything else?
+  &lt;br&gt;B: Yes. Two medium Cokes and two Caesar salads, please.
+  &lt;br&gt;A: So that's two Rockin' Cokes and two Rockin' Caesar salads. Thank you very much. That'll be $28. Our delivery guy will be over in about thirty minutes. Thank you for calling. Keep on rockin' with Rock 'n' Roll Pizza!
+  &lt;br&gt;B: Thank you!</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;A: Hello, may I ask who's calling?
+  &lt;br&gt;B: Hello, this is Sheila, I have a phone interview with this office scheduled for now. Can I please speak with Mr. Mark Cantor?
+  &lt;br&gt;A: Ah, of course. Hello Sheila, this is Mark, it's nice to meet you. Thanks for calling.
+  &lt;br&gt;B: It's my pleasure.
+  &lt;br&gt;A: All right then, let's get started, shall we? Can you tell me about why you are interested in working at our office?
+  &lt;br&gt;B: Well, I've been studying politics at university and am graduating this May, I'm looking for a job that has me intimately involved with the legislative process. I'd like to do research, write speeches, and interact with Congressional Members. Working in politics and getting to talk with Senators and Representatives sounds really exciting to me.
+  &lt;br&gt;A: Great, and can you tell me a little about your previous experiences?
+  &lt;br&gt;B: Well, my most recent job was working at the school's newspaper as a politics columnist. It wasn't the best in terms of pay but it was better than my other jobs and gave me a good chance to practice writing about something I liked.
+  &lt;br&gt;A: Fair enough. What can you say about your strengths and weaknesses?
+  &lt;br&gt;B: I think that my best trait is that I am very dedicated and driven. However, at the same time, this can be my worst characteristic—sometimes I have a hard time knowing when to quit.</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;A: Hey, Sheila, how are you? Ready for graduation yet?
+  &lt;br&gt;B: I can't wait to be finished. Do you know what you are going to be doing afterward yet?
+  &lt;br&gt;A: I got an internship with my congressperson's office in D.C.! I'll be working there all summer, and then I hope they offer me a job.
+  &lt;br&gt;B: What a coincidence! I am going to be interning on the Hill too; I'm going to be working with a committee!
+  &lt;br&gt;A: That's great. Do you know where you are going to be living yet? I still have no idea.
+  &lt;br&gt;B: I really want to live on Capitol Hill in Northeast. I looked at some townhouses there, but they're all so expensive.
+  &lt;br&gt;A: Yeah, I know what you mean. I'm going to be crashing with my uncle who lives in Georgetown until I find a place of my own.
+  &lt;br&gt;B: I guess we're in the same boat! I'm going to be staying with a friend too. You know…I was going to be looking for a roommate up there. Maybe we could…
+  &lt;br&gt;A: I'm sold!
+  &lt;br&gt;B: Ha ha… Hopefully we can work something out.</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;A: Good morning, are you Mr. Cantor? I was told to report here, I have an internship with this office starting today.
+  &lt;br&gt;B: Ah, yes. You must be...
+  &lt;br&gt;A: Sheila Jones, sir.
+  &lt;br&gt;B: Right, I remember speaking on the phone with you. Let's see... We have a cubicle for you right over there. Why don't you get settled in?
+  &lt;br&gt;A: Thank you, Mr. Cantor.
+  &lt;br&gt;B: Oh, by the way, Mr. Cantor is my father; we’re on a first-name basis here, so you can call me Mark.
+  &lt;br&gt;A: Of course, sir.
+  &lt;br&gt;B: And you can drop the "sir" too, unless you want me to start calling you "ma'am."
+  &lt;br&gt;A: Of course not, sir...er...Mark.
+  &lt;br&gt;B: That's better, now.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;br&gt;A: Can you explain the incident, sir?
+  &lt;br&gt;B: It happened so fast. I was coming home from work late and walking back from the Metro station; all of a sudden someone jumped out and hit me.
+  &lt;br&gt;A: Okay. What happened after that?
+  &lt;br&gt;B: Well, as I was falling down, he reached into my pocket and grabbed my wallet and my iPod. Then he ran off.
+  &lt;br&gt;A: Did you see him clearly? Do you think you could identify him in a lineup?
+  &lt;br&gt;B: No, I was listening to music when he mugged me, and he got me from behind. As he was running away, I could just see his back; he was my height but a lot more muscular.
+  &lt;br&gt;A: We've been getting a lot of reports lately about this kind of incident. Try and be more careful when you are walking at night. I would recommend not listening to music so you can stay aware. But we'll file your report; at least maybe we can get your wallet back. Usually criminals ditch them after they take the cash and cards.
+  &lt;br&gt;B: I'm just glad I wasn't injured myself.
+  &lt;br&gt;A: Okay, sir, thank you for filing a report. Here's my card if you have any questions or remember anything else that might help out with the investigation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;br&gt;A: Hi, Mark, I was looking for the restroom, but I got lost. Could you point me in the right direction?
+  &lt;br&gt;B: Oh sure, no problem. To get to the restrooms, you have to go down the hallway to the left and take the escalator up to the third floor. They're the first door on the right.
+  &lt;br&gt;A: Is that by the vending machines?
+  &lt;br&gt;B: No, you take a right out from the escalator and then go past the cafeteria on the right. The vending machines are on the left, so go the other way.
+  &lt;br&gt;A: Ah, thanks, I think I understand now. Can I get you anything while I'm up there?
+  &lt;br&gt;B: Actually, that would be great. Can you pick up a coffee for me. (loud) Anyone else want a coffee? The intern's going on a run! (various voices pipe up). Okay, so that's four black coffees and one with cream and sugar.
+  &lt;br&gt;A: Uhhh... Okay... Anything else?
+  &lt;br&gt;B: Oh yeah, a dozen doughnuts. Here's a couple of extra bucks so you can pick up something for yourself.
+  &lt;br&gt;A: Heh, okay.
+  &lt;br&gt;B: Oh, and please don't forget to wash your hands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;br&gt;A: Here's your coffee, Mark. Can I get you anything else?
+  &lt;br&gt;B: Oh, thanks, Sheila, I don't need anything right now. (slurp) I swear, there is nothing more important than coffee in Washington.
+  &lt;br&gt;A: Nothing? Not even power or influence or money?
+  &lt;br&gt;B: Absolutely nothing. If there were no coffee in Washington, no one would get anything done!
+  &lt;br&gt;A: Hmm, I don't really understand it. I can drink anything and be fine.
+  &lt;br&gt;B: You're young. You just haven't developed a lifelong dependency on caffeine yet. No coffee in this town would mean that half the people in this office couldn't get anything accomplished.
+  &lt;br&gt;A: Sounds like a dangerous drug! I've seen everyone before their first cup—it's like talking with zombies.
+  &lt;br&gt;B: Oh, we are! Once you get hooked on this stuff, you can't operate without it.
+  &lt;br&gt;A: Hmm... I suppose as bad habits go, it's not so bad, though.
+  &lt;br&gt;B: It's definitely better than smoking.</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;A: Oh, hey, Dave, I'm so sorry to hear that you got mugged. That's terrible.
+  &lt;br&gt;B: Yeah, I'll be okay, though. The police officer was really cute too—I think I am going to ask her out. How's your work going?
+  &lt;br&gt;A: You dog! Work is all right. I'm super busy, though. I'm on my way to meet with the Congressional Research Service right now.
+  &lt;br&gt;B: Really? You're going over to the Library of Congress? What for?
+  &lt;br&gt;A: I'm writing this big memo for next week's hearing about Wall Street. The White House is coming over to meet with us, and K Street keeps trying to sneak their way into the discussions.
+  &lt;br&gt;B: Geez, sounds crazy!
+  &lt;br&gt;A: It is. Ugh, I am so stressed out. If I had a bit more time, it would be so much easier.
+  &lt;br&gt;B: If I were you, I wouldn't whine. It sounds like really interesting work.
+  &lt;br&gt;A: I know... But if I didn’t have so much work, I wouldn't be so annoying!</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;A: I'm glad we could meet up for happy hour today; I almost couldn't get off work in time.
+  &lt;br&gt;B: Me too. I love drinks that cost less than three dollars.
+  &lt;br&gt;A: Haha... Oh, Dave... I forget that you were a frat boy.
+  &lt;br&gt;B: Sure was! Delta Tau Chi all the way! So, did you see the State of the Union?
+  &lt;br&gt;A: Oh my goodness, yeah. He will say anything to be re-elected, won't he?
+  &lt;br&gt;B: He's a total flip-flopper. He said that he was pro-choice. Then he passed a law restricting abortions!
+  &lt;br&gt;A: Ugh, utterly spineless. It's like his opinion comes straight from the polls.
+  &lt;br&gt;B: Isn't democracy amazing?
+  &lt;br&gt;A: Sure is! Let's drink to that.
+  &lt;br&gt;B: Cheers to democracy!
+  &lt;br&gt;A: Long live the Republic!</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;&lt;br&gt;A: (to flight attendant) Excuse me, may I have some water, please?
+  &lt;br&gt;&lt;br&gt;B: Oh, certainly, ma'am.
+  &lt;br&gt;&lt;br&gt;A: Sorry. So, Cape Town’s nice. It seems so…interesting!
+  &lt;br&gt;&lt;br&gt;C: (laughs) Los Angeles is nice, too! So, what do you do in Los Angeles?
+  &lt;br&gt;&lt;br&gt;A: I'm a nutritionist and personal trainer.
+  &lt;br&gt;&lt;br&gt;C: Once again, slowly please.
+  &lt;br&gt;&lt;br&gt;A: I'm a (enunciating) nu-tri-tion-ist, and a per-so-nal trai-ner.
+  &lt;br&gt;&lt;br&gt;C: Sorry, I don't understand.
+  &lt;br&gt;&lt;br&gt;A: Nutritionist and personal trainer. I help people eat healthy foods and exercise the right way!
+  &lt;br&gt;&lt;br&gt;C: Oh, I see!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;br&gt;&lt;br&gt;A: Good afternoon, everyone. This is the pilot. Welcome to New York. The time now is three PM on Thursday, April 30th. The temperature’s a cool fifty-three degrees Fahrenheit, which is about twelve degrees Celsius. Enjoy your stay in New York.
+  &lt;br&gt;&lt;br&gt;B: Fifty-three degrees? Wow. It's cold.
+  &lt;br&gt;&lt;br&gt;C: Yep, I have a jacket.
+  &lt;br&gt;&lt;br&gt;B: [sounding forlorn] Oh. I don't.</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;&lt;br&gt;A: Foreign passport holders this way. Foreign passport holders this way.
+  &lt;br&gt;&lt;br&gt;B: Well, it was nice to meet you.
+  &lt;br&gt;&lt;br&gt;C: Same here.
+  &lt;br&gt;&lt;br&gt;B: By the way, this is my business card. This is my e-mail address, and this is my phone number.
+  &lt;br&gt;&lt;br&gt;C: Oh, thanks! I have a business card too. This is my business card. Here you are. My e-mail and my cell phone number are here. E-mail me!
+  &lt;br&gt;&lt;br&gt;B: Okay! Thank you!
+  &lt;br&gt;&lt;br&gt;C: Bye-bye! Enjoy your stay!
+  &lt;br&gt;&lt;br&gt;B: Thanks Bye!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;br&gt;&lt;br&gt;A: Good evening, sir!
+  &lt;br&gt;&lt;br&gt;B: Hello. [Places items on the counter]
+  &lt;br&gt;&lt;br&gt;C: Okay—so that’s 3 bottles of water, 1 bottle of orange juice, 1 can of soda, a sandwich, a box of crackers, and a pack of gum. Is that all?
+  &lt;br&gt;&lt;br&gt;B: What’s that?
+  &lt;br&gt;&lt;br&gt;A: Oh—that’s carrot cake. It's delicious!
+  &lt;br&gt;&lt;br&gt;B: Oh, yeah? One, please!
+  &lt;br&gt;&lt;br&gt;A: That'll be $23.
+  &lt;br&gt;&lt;br&gt;B: Here's a fifty.
+  &lt;br&gt;&lt;br&gt;A: All right. $27 is your change. Thank you. Come again!
+  &lt;br&gt;&lt;br&gt;B: Thank you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;br&gt;&lt;br&gt;A: Welcome to the L Hotel!
+  &lt;br&gt;&lt;br&gt;B: Hello. I have a reservation.
+  &lt;br&gt;&lt;br&gt;A: Your name, please.
+  &lt;br&gt;&lt;br&gt;B: Zo Viljoen.
+  &lt;br&gt;&lt;br&gt;A: Spell it, please.
+  &lt;br&gt;&lt;br&gt;B: V-I-L-J-O-E-N.
+  &lt;br&gt;&lt;br&gt;A: Ah, yes. Mr. Viljoen, you are in room number 515. Here's the key.
+  &lt;br&gt;&lt;br&gt;B: Is there Internet in the room?
+  &lt;br&gt;&lt;br&gt;A: Yes, there’s complimentary wireless Internet.
+  &lt;br&gt;&lt;br&gt;B: And are there toiletries?
+  &lt;br&gt;&lt;br&gt;A: Yes, sir.
+  &lt;br&gt;&lt;br&gt;B: Thank you. Oh, and a wake up call, please.
+  &lt;br&gt;&lt;br&gt;A: Of course. What time?
+  &lt;br&gt;&lt;br&gt;B: 7 a.m., please. What time’s breakfast?
+  &lt;br&gt;&lt;br&gt;C: From 6:00 a.m. to 7:30 a.m. on the first floor in the dining room.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;br&gt;A: I think being roommates was a great idea. I think we make a pretty good apartment-hunting team!
+  &lt;br&gt;B: Ha ha, me too! What did you think of that last apartment?
+  &lt;br&gt;C: It was so nice! It was big, and it's in a really upscale neighborhood.
+  D: Yeah, it was, but on the other hand, it was a bit out of our price range, don't you think?
+  &lt;br&gt;C: Sadly, yes. The other one we saw was affordable...but it's in kind of a run-down neighborhood!
+  D: On the plus side, though, it was right next to the Metro.
+  &lt;br&gt;C: That's true; it certainly has convenience going for it. It wouldn't take me more than fifteen minutes to get to work.
+  D: Yeah, I hate commuting, and it would definitely cut down on my time too.
+  &lt;br&gt;C: I'm just worried that a place like that might have lead pipes or bed bugs.
+  D: Oh come on, don't be so paranoid; it wasn't so bad!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;br&gt;A: Hello, may I ask who's calling?
+  &lt;br&gt;B: Hi…is this Officer Fuentes? This is Dave Wiseman, I spoke with you after I got mugged, and you gave me your card.
+  &lt;br&gt;A: Ah, hi, Dave, how are you? Feeling any better? Did you remember anything that might aid our investigation?
+  &lt;br&gt;B: I'm doing fine, thanks, it was just a few scratches and bruises. Actually, I was calling you for another reason.
+  &lt;br&gt;C: Yes, what was that?
+  &lt;br&gt;B: Well, I realize that this might be a little bit inappropriate. But I was wondering… Unless it's against your rules, would you be free to get a drink sometime?
+  &lt;br&gt;C: Are you asking me out?
+  &lt;br&gt;B: I am, unless you think I shouldn't be.
+  &lt;br&gt;C: Well, it's a bit irregular, but it's adorable. Well, in case you want to meet me, I'll be over by the pavilion at the Eastern Market around ten o'clock on Saturday.
+  &lt;br&gt;B: Really? That's great! I'll head over then.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"&lt;div&gt;
+                                            &lt;h3&gt;Grammar&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt; &lt;strong&gt;The Focus of This Lesson Is Using the Simple Present Tense to Talk about Future Events.&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;span&gt; &lt;strong&gt;""Friday works for me.""&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;When talking about schedules, timetables, programs, and dates, we can use the simple&lt;strong&gt; &lt;/strong&gt;present form to talk about future events. Here are some examples from the dialogue.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;""I'm available Thursday and Friday.""&lt;/li&gt;
+&lt;li&gt;""Friday works for me.""&lt;/li&gt;
+&lt;li&gt;""I have a meeting that morning.""&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;In the first and second sentences, Paul and Mike are talking about dates in the near future. The third sentence also talks about a scheduled event in the future, which is why we use the present tense.&lt;/p&gt;
+&lt;p&gt;Here are some other general examples.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;""I start my Chinese course next week.""&lt;/li&gt;
+&lt;li&gt;""The plane doesn't arrive at nine o'clock, it arrives at ten o'clock.""&lt;/li&gt;
+&lt;li&gt;""The train leaves in the afternoon.""&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;Here, all three sentences talk about scheduled things in the simple present.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                                                &lt;h3&gt;Cultural Insights&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt; &lt;strong&gt;Can You Meet Me to Talk Business Over Lunch? &lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;Lunch meetings are very popular for busy business people. They see it as an opportunity to have lunch while they discuss some business matters. Cafes like the one in the dialogue can be more casual than the office, which is another reason why meetings such as these are done outside over lunch.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                        &lt;div&gt;
+                                                    &lt;div&gt;
+                                                            &lt;/div&gt;
+                                            &lt;/div&gt;
+                &lt;/div&gt;"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"&lt;div&gt;
+                                            &lt;h3&gt;Grammar&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt; &lt;strong&gt;The Focus of This Lesson Is Using the Word ""If.""&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;span&gt; &lt;strong&gt;""I'll come back next week, and if it's thirty percent off, I'll take it.""&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;In previous lessons, we talked about the use of the simple present as well as the ""will"" form of verbs to talk about future events.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;In this lesson we will talk about these two tenses combined in an ""if"" statement. When talking about true or possible situations, we use ""if"" with the same verb tense as other conjunctions. However, when talking about the future, we usually use ""if"" with the present tense.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;&lt;strong&gt;""If&lt;/strong&gt; I &lt;strong&gt;have&lt;/strong&gt; enough money, &lt;strong&gt;I will&lt;/strong&gt; buy a new car next month.""&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;""If you see&lt;/strong&gt; him, &lt;strong&gt;you will&lt;/strong&gt; be surprised.""&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&lt;span&gt; &lt;strong&gt;Placement of ""If""&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;""If"" can come in two places: either at the beginning of a sentence or near the end of a sentence.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Beginning:&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;When it comes at the beginning of a sentence, a clause that begins with ""if"" is followed by a comm&lt;br&gt;A:&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;""If"" + clause 1 + (comma) + ""then"" (optional) + clause 2.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;""&lt;strong&gt;If&lt;/strong&gt; you are hungry now&lt;strong&gt;,&lt;/strong&gt; please have a snack.""&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&lt;strong&gt;End:&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;When a clause that begins with ""if"" comes at the end of a sentence, there is no need for a comma.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Structure&lt;/strong&gt;&lt;strong&gt;: Clause 1 + ""if"" + clause 2.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;""Please have a snack now &lt;strong&gt;if&lt;/strong&gt; you are hungry.""&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                                                &lt;h3&gt;Cultural Insights&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt; &lt;strong&gt;Hunting for Bargains in American Stores&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;Shops have sales in order to sell as much of their merchandise as possible. Certain holidays usually have sales associated with them, such as back-to-school sales at the beginning of the school year or Christmas sales in December. The shops can get crowded during sales times since many people are bargain hunters!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                        &lt;div&gt;
+                                                    &lt;div&gt;
+                                                                    &lt;a href=""/pdfs/LI_S1L8_022210_eclass101.pdf"" target=""_blank"" data-trackurl=""/pdfs/LI_S1L8_022210_eclass101.pdf"" title=""Right Click &amp;amp; 'Save As'""&gt;
+                                        Download as PDF
+                                    &lt;/a&gt;
+                                                            &lt;/div&gt;
+                                            &lt;/div&gt;
+                &lt;/div&gt;"
+"&lt;div&gt;
+                                            &lt;h3&gt;Grammar&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt; &lt;strong&gt;The Focus of This Lesson Is Using the Word ""If.""&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;span&gt; &lt;strong&gt;""I'll come back next week, and if it's thirty percent off, I'll take it.""&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;In previous lessons, we talked about the use of the simple present as well as the ""will"" form of verbs to talk about future events.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;In this lesson we will talk about these two tenses combined in an ""if"" statement. When talking about true or possible situations, we use ""if"" with the same verb tense as other conjunctions. However, when talking about the future, we usually use ""if"" with the present tense.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;&lt;strong&gt;""If&lt;/strong&gt; I &lt;strong&gt;have&lt;/strong&gt; enough money, &lt;strong&gt;I will&lt;/strong&gt; buy a new car next month.""&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;""If you see&lt;/strong&gt; him, &lt;strong&gt;you will&lt;/strong&gt; be surprised.""&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&lt;span&gt; &lt;strong&gt;Placement of ""If""&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;""If"" can come in two places: either at the beginning of a sentence or near the end of a sentence.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Beginning:&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;When it comes at the beginning of a sentence, a clause that begins with ""if"" is followed by a comm&lt;br&gt;A:&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;""If"" + clause 1 + (comma) + ""then"" (optional) + clause 2.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;""&lt;strong&gt;If&lt;/strong&gt; you are hungry now&lt;strong&gt;,&lt;/strong&gt; please have a snack.""&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&lt;strong&gt;End:&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;When a clause that begins with ""if"" comes at the end of a sentence, there is no need for a comma.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Structure&lt;/strong&gt;&lt;strong&gt;: Clause 1 + ""if"" + clause 2.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;""Please have a snack now &lt;strong&gt;if&lt;/strong&gt; you are hungry.""&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                                                &lt;h3&gt;Cultural Insights&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt; &lt;strong&gt;Hunting for Bargains in American Stores&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;Shops have sales in order to sell as much of their merchandise as possible. Certain holidays usually have sales associated with them, such as back-to-school sales at the beginning of the school year or Christmas sales in December. The shops can get crowded during sales times since many people are bargain hunters!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                        &lt;div&gt;
+                                                    &lt;div&gt;
+                                                            &lt;/div&gt;
+                                            &lt;/div&gt;
+                &lt;/div&gt;"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"&lt;div&gt;
+                                            &lt;h3&gt;Grammar&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt; &lt;strong&gt;The Focus of This Lesson Is the Present Perfect Tense.&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;span&gt;&lt;strong&gt;""Same job, same apartment, nothing's changed really.""&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;In this lesson, we will take a look at the present perfect tense.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;We use the present perfect tense to talk about past events that have a connection with the present.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;""I have made dinner. Let's eat!""&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;We also often use the present perfect to give news.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;""The leader has arrived."" &lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;In addition, we use the present perfect to talk about how much has been done up to now or how long something has continued up to now with ""be,"" ""have,"" and ""know.""&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;""I've been to that store five times this year.""&lt;/li&gt;
+&lt;li&gt;""We've been here since Tuesday."" &lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;We often use the question form to ask about someone's experience.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;br&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;""Have you ever been to Rome?""&lt;strong&gt;&lt;/strong&gt;&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&lt;strong&gt;&lt;span style=""text-decoration:underline;""&gt;Statements&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Subject + ""have""/""has"" + Past Participle*&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;""I &lt;strong&gt;have seen&lt;/strong&gt; that movie.""&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&lt;strong&gt;&lt;span style=""text-decoration:underline;""&gt;Negatives&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Subject + ""have""/""has"" + ""not"" + Past Participle*&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;""She &lt;strong&gt;hasn't finished&lt;/strong&gt; the report.""&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&lt;strong&gt;&lt;span style=""text-decoration:underline;""&gt;Questions&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;""Have""/""Has"" + Subject + Past Participle&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;""How'&lt;strong&gt;ve&lt;/strong&gt; you &lt;strong&gt;been&lt;/strong&gt;?""&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;Note that we commonly use contractions when speaking, as in the example from the dialogue. Therefore, it's a good idea to get accustomed to it by using them yourself. Also, remember that regular verbs in the past participle end in ""&lt;strong&gt;&lt;em&gt;-&lt;/em&gt;&lt;/strong&gt;ed,"" and you'll need to memorize how to form the past participles of irregular verbs.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                                                &lt;h3&gt;Cultural Insights&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt; &lt;strong&gt;What to Say in English When You're Catching Up&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;When people catch up after a while of not seeing one another, it's important to ask about the main things in their lives. This usually includes their job, living arrangement, and relationships. In the dialogue, Joey sums this up in one sentence, which means that nothing much has changed since the last time the two had met. Mike, on the other hand, has a story to tell, which is what the conversation mainly concentrates on.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                        &lt;div&gt;
+                                                    &lt;div&gt;
+                                                            &lt;/div&gt;
+                                            &lt;/div&gt;
+                &lt;/div&gt;"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"&lt;div&gt;
+                                            &lt;h3&gt;Grammar&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;strong&gt;&lt;span&gt;The Focus of This Lesson Is Using the Modal Verb ""Would.""&lt;/span&gt;&lt;br&gt;&lt;span&gt;""What kind of pizza would you like?""&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;""Would"" is a modal verb that we can use to make polite requests and offers.&lt;/p&gt;
+&lt;p&gt;""Would&lt;em&gt;""&lt;/em&gt; is the past tense form of ""will,"" so it sounds more indirect and more polite.&lt;/p&gt;
+&lt;p&gt;We often combine ""would"" with ""like"" to talk about what people want to do or have.&lt;/p&gt;
+&lt;p&gt;Like other modal verbs, ""would"" follows the formation pattern of other auxiliary verbs.&lt;/p&gt;
+&lt;p&gt;&lt;span&gt;&lt;strong&gt;Using ""Would"" in Statements&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;We use the following structure to form a statement using the verb ""would"":&lt;strong&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;subject + ""would"" + verb&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;1.&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; ""I&lt;strong&gt;'d&lt;/strong&gt; like to order a pizza.""&lt;/p&gt;
+&lt;p&gt;&lt;span&gt;&lt;strong&gt;Using ""Would"" in Questions&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;We use the following structure to form a question using the verb ""would"":&lt;strong&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;""&lt;strong&gt;Would"" + subject + verb&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;1.&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; ""&lt;strong&gt;Would&lt;/strong&gt; you like to see the kitchen?""&lt;/p&gt;
+&lt;p&gt;When using modals like ""would,"" we do not use ""to"" before the infinitive (dictionary verb form) as with other kinds of verbs. &lt;br&gt;&lt;br&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;1.&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; ""I would like some coffee."" &lt;br&gt; (NOT ""I would to like some coffee."")&lt;/p&gt;
+&lt;p&gt;Questions and negatives do not use ""do""/""did"" with modals.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;1.&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; ""Would you mind standing?"" &lt;br&gt; (NOT, ""Do you would mind standing?"")&lt;/p&gt;                        &lt;/div&gt;
+                                                                &lt;h3&gt;Cultural Insights&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span&gt; &lt;strong&gt;Did the Beatles Really Influence American Pizza?&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span&gt;&lt;strong&gt;&lt;/strong&gt;&lt;/span&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;The names of many of these pizzas are from very famous iconic past singers. The Beatles were a very popular British rock band in the 1960s made up of four young men, one being John Lennon. Elvis Presley was another singer around the same time who touched on a wide variety of music, which included rock. Bon Jovi is yet another popular rock band that broke out in the 1980s and is still popular. We call the fans of the band the Grateful Dead ""Deadheads."" As you can see, this pizza shop sticks to its Rock 'n' Roll theme by naming its food after well-known rock bands!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                        &lt;div&gt;
+                                                    &lt;div&gt;
+                                                            &lt;/div&gt;
+                                            &lt;/div&gt;
+                &lt;/div&gt;"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"&lt;div&gt;
+                                            &lt;h3&gt;Grammar&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt;&lt;strong&gt;The Focus of this Lesson is Irregular Adjectives&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;span&gt;&lt;strong&gt;&lt;em&gt; It wasn't the best in terms of pay but it was better than my other jobs and gave me a good chance to practice writing about something I liked.&lt;/em&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;There are few irregular adjectives in English. Almost all adjectives follow the simple or complicated rules when put in comparative or superlative form. However, there are a few that do not and the example above shows us all of the forms of ""good"" (good-better-best). The other irregular adjectives are in a chart below. Be careful when you use them in conversation.&lt;/p&gt;
+&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td width=""100"" class=""lsn3-th""&gt;
+&lt;p&gt;&lt;span&gt;&lt;strong&gt;Adjective&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width=""100"" class=""lsn3-th""&gt;
+&lt;p&gt;&lt;span&gt;&lt;strong&gt;Comparative&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width=""100"" class=""lsn3-th""&gt;
+&lt;p&gt;&lt;span&gt;&lt;strong&gt;Superlative&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width=""100""&gt;
+&lt;p&gt;good&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width=""100""&gt;
+&lt;p&gt;better&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width=""100""&gt;
+&lt;p&gt;best&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width=""100""&gt;
+&lt;p&gt;bad&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width=""100""&gt;
+&lt;p&gt;worse&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width=""100""&gt;
+&lt;p&gt;worst&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width=""100""&gt;
+&lt;p&gt;many/much/a lot&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width=""100""&gt;
+&lt;p&gt;more&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width=""100""&gt;
+&lt;p&gt;most&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width=""100""&gt;
+&lt;p&gt;little (few)&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width=""100""&gt;
+&lt;p&gt;less&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width=""100""&gt;
+&lt;p&gt;least&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width=""100""&gt;
+&lt;p&gt;far (physical distance)&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width=""100""&gt;
+&lt;p&gt;farther&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width=""100""&gt;
+&lt;p&gt;farthest&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width=""100""&gt;
+&lt;p&gt;far (abstract distance)&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width=""100""&gt;
+&lt;p&gt;further&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width=""100""&gt;
+&lt;p&gt;furthest&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width=""100""&gt;
+&lt;p&gt;old (when talking about people in a family)&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width=""100""&gt;
+&lt;p&gt;elder&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width=""100""&gt;
+&lt;p&gt;eldest&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width=""100""&gt;
+&lt;p&gt;well (healthy)&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width=""100""&gt;
+&lt;p&gt;better&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width=""100""&gt;
+&lt;p&gt;best&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;p&gt;Remember that ""elder"" and ""eldest"" and only used when describing family members and that ""well"" in this case is describing someone who is getting healthy. Also, the difference between farther/farthest and further/furthest is a bit difficult. We use ""farther"" only when we are talking about an actual distance. We use ""further"" when we are talking about an abstract concept, often it can take the place of ""more.""&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Here are some examples of using these irregular adjectives in sentences:&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;&lt;em&gt;I used to think spinach was the worst vegetable, but now I think carrots are even worse.&lt;/em&gt;&lt;/li&gt;
+&lt;li&gt;&lt;em&gt;My eldest sister is 2 years older than my elder brother&lt;/em&gt;.&lt;/li&gt;
+&lt;li&gt;&lt;em&gt;New York is far from Washington D.C. but California is farther and Hawaii is the farthest.&lt;/em&gt;&lt;/li&gt;
+&lt;li&gt;&lt;em&gt;I've already told you many times, we don't need to discuss that any further.&lt;/em&gt;&lt;/li&gt;
+&lt;li&gt;&lt;em&gt;""Are you feeling well today?"" ""I'm feeling better, thanks.""&lt;/em&gt;&lt;/li&gt;
+&lt;li&gt;&lt;em&gt;Indonesia has a lot of people but India has more and China has the most.&lt;/em&gt;&lt;/li&gt;
+&lt;/ol&gt;                        &lt;/div&gt;
+                                                                &lt;h3&gt;Cultural Insights&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt;&lt;strong&gt;Sell Yourself! &lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&lt;strong&gt; &lt;br&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Interviewing for a job is a stressful occurrence and varies from country to country and even workplace to workplace. Most interviews are in person, but due to distance, it is increasingly common to hold a job interview over the phone or even via the internet using video-chats. Regardless of with whom you are interviewing, you will want to prepare for your interview by trying to guess what kinds of questions they will ask. Always research the position you are applying for, the skills that it requires, and how you are good for it. In the United States, during a job interview, it is considered acceptable to talk about yourself in a very positive light. Other countries may see this as boasting, but emphasizing your skills while remaining honest is important during a job interview. Think about yourself as a salesperson—you are trying to sell yourself to this company and you have to show them how you are a good purchase.&lt;/p&gt;                        &lt;/div&gt;
+                                        &lt;div&gt;
+                                                    &lt;div&gt;
+                                                            &lt;/div&gt;
+                                            &lt;/div&gt;
+                &lt;/div&gt;"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"&lt;div&gt;
+                                            &lt;h3&gt;Grammar&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt;&lt;strong&gt;The &lt;/strong&gt;&lt;strong&gt;Focus&lt;/strong&gt;&lt;strong&gt; of &lt;/strong&gt;&lt;strong&gt;This Lesson Is Comparing Using&lt;/strong&gt;&lt;strong&gt; the &lt;/strong&gt;&lt;strong&gt;Future Continuous&lt;/strong&gt;&lt;strong&gt; with ""&lt;/strong&gt;&lt;strong&gt;Going&lt;/strong&gt;&lt;strong&gt; to&lt;/strong&gt;&lt;strong&gt;.""&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;span&gt;&lt;strong&gt;""What a coincidence! I am going to be interning on the Hill too; I'm going to be working with a committee!""&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;When we are talking about the future, we can use the future continuous tense to express what we are doing during a specific time frame. Usually, we use ""will be"" + ____ ing (e.g., ""I will be eating steak tonight""), but we can also use ""going to be"" instead of ""will be."" Usually we use ""going to"" when we talk about definite plans, and this is true here as well. Because they are talking about a specific period of time (this summer), they use ""going to be.""&lt;/p&gt;
+&lt;p&gt;We do not use ""going to be ____ing"" all of the time. Often, we can just say ""I'm going to work with a committee"" instead of ""I'm going to be working with a committee,"" but both are correct, and the ""going to be ____ing"" makes it more specific and a bit stronger.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;&lt;em&gt;""At this time next week, I am going to be relaxing next to the Caribbean Sea.""&lt;/em&gt;&lt;/li&gt;
+&lt;li&gt;&lt;em&gt;""I'm very sorry, but I am going to be coming in late for work this morning; my son is sick.""&lt;/em&gt;&lt;/li&gt;
+&lt;li&gt;&lt;em&gt;""What are you going to be doing tomorrow night?""&lt;/em&gt;&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;span&gt;Language Tip&lt;/span&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Sheila says ""I guess we are in the same boat."" We do not actually mean that we are in a boat when we say this. It is an idiom that means we are having the same experience and can understand what the other person is going through.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;br&gt;A: &lt;em&gt;""I'm frustrated, I can't find a job.""&lt;/em&gt;&lt;br&gt; &lt;br&gt;B: &lt;em&gt;""I know what you mean. I'm in the same boat. I can't find anything!""&lt;/em&gt;&lt;/p&gt;                        &lt;/div&gt;
+                                                                &lt;h3&gt;Cultural Insights&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt;&lt;strong&gt;Summer Internships&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;Summer internships are a growing tradition in the United States and many other places in the world. Many university students try to find summer internships at places where they want to work in the future. Internships are often unpaid, but they give the intern great experience in the real world and look very good on a resume when you apply for a job. Internships are increasing as a way for companies and organizations to get a ""free sample"" of workers, and several companies and organizations hire the majority of their workers from their internship programs.&lt;/p&gt;                        &lt;/div&gt;
+                                        &lt;div&gt;
+                                                    &lt;div&gt;
+                                                            &lt;/div&gt;
+                                            &lt;/div&gt;
+                &lt;/div&gt;"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"&lt;div&gt;
+                                            &lt;h3&gt;Grammar&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt;&lt;strong&gt;The &lt;/strong&gt;&lt;strong&gt;Focus&lt;/strong&gt;&lt;strong&gt; of &lt;/strong&gt;&lt;strong&gt;This Lesson Is Expressing Pros&lt;/strong&gt;&lt;strong&gt; and &lt;/strong&gt;&lt;strong&gt;Cons When Making&lt;/strong&gt;&lt;strong&gt; a &lt;/strong&gt;&lt;strong&gt;Decision.&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;span&gt;&lt;strong&gt;""Yeah&lt;/strong&gt;&lt;strong&gt;,&lt;/strong&gt;&lt;strong&gt; it was, but on the other hand&lt;/strong&gt;&lt;strong&gt;,&lt;/strong&gt;&lt;strong&gt; it was a bit out of our price range, don't you think?""&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;Sheila says this when she is talking about the apartment in the upscale neighborhood. She thinks that the apartment was nice, but because it was ""out of our price range,"" they could not afford it. She uses ""on the other hand"" to introduce a ""con"" after Dave introduced a ""pro."" After someone says something, if we want to express an opposite point, we can use this phrase to introduce it. This shows that we understand the person's point, but that we might feel another way and want to inform the person.&lt;/p&gt;
+&lt;p&gt;We can use these phrases to introduce our opinion politely when it is different:&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;""On the other hand...""&lt;/li&gt;
+&lt;li&gt;""Maybe, but I think that...""&lt;/li&gt;
+&lt;li&gt;""That's true, but...""&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;&lt;br&gt;A:&lt;em&gt; ""That was a boring movie, but&lt;/em&gt;&lt;em&gt;,&lt;/em&gt;&lt;em&gt; on the other hand, it was really informative.""&lt;/em&gt;&lt;/li&gt;
+&lt;li&gt;&lt;br&gt;B: ""&lt;em&gt;Maybe, but I think that if it is boring that I won't pay attention.""&lt;/em&gt;&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;We can also introduce pros and cons by using phrases like ""on the plus side,"" like Sheila did. If we want to reverse this, we just change ""plus"" or ""positive"" to ""negative.""&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Try using these phrases to introduce good and bad points about something:&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;""On the (plus/negative) side...""&lt;/li&gt;
+&lt;li&gt;""The (good/bad) point is...""&lt;/li&gt;
+&lt;li&gt;""The (best/worst) part is...""&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;1. &lt;br&gt;A: ""This is a beautiful hotel. The best part is the price! It's so affordable!""&lt;br&gt; &lt;br&gt;B: ""The bad point is its location; it's miles from the city center.""&lt;br&gt; &lt;br&gt;A: ""On the plus side, it's very quiet here.""&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;span&gt;&lt;strong&gt;Language Tip&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;Dave says, ""I think we make a pretty good apartment-hunting team."" Saying that you make a good team with someone else is an informal way of expressing friendship between people.&lt;/p&gt;
+&lt;p&gt;Because they are ""apartment hunting"" (looking for an apartment) together, it is a good time for them to become closer friends. When we have a common goal with someone else, we can get to know each other better and be on the same ""team.""&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;1. &lt;br&gt;A: ""&lt;em&gt;We're almost finished studying!""&lt;/em&gt;&lt;br&gt; &lt;br&gt;B: ""&lt;em&gt;I think that we'll both get A's on this test.""&lt;/em&gt;&lt;em&gt;&lt;br&gt;&lt;/em&gt;&lt;br&gt;A:&lt;em&gt; &lt;/em&gt;""&lt;em&gt;Yeah, we make a pretty good studying team.""&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                                                &lt;h3&gt;Cultural Insights&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt;&lt;strong&gt;Finding a Place to Live in the United States &lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;Apartment hunting in the United States can be a fun but frustrating experience. Usually, the best places are the same ones that you cannot afford. The places that you can afford are in a bad location, too small, in an old building, or have some other negative point.&lt;/p&gt;
+&lt;p&gt;It is very exciting, though, when you find the perfect apartment at the right price and immediately want to move in. For many people, apartment hunting is almost a sport or a race to find the best place at the best price.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                        &lt;div&gt;
+                                                    &lt;div&gt;
+                                                            &lt;/div&gt;
+                                            &lt;/div&gt;
+                &lt;/div&gt;"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"&lt;div&gt;
+                                            &lt;h3&gt;Grammar&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt;&lt;strong&gt;The &lt;/strong&gt;&lt;strong&gt;Focus&lt;/strong&gt;&lt;strong&gt; of &lt;/strong&gt;&lt;strong&gt;This Lesson Is Using Appropriately Formal Language&lt;/strong&gt;&lt;strong&gt; in &lt;/strong&gt;&lt;strong&gt;Introductions.&lt;/strong&gt;&lt;/span&gt;&lt;strong&gt;&lt;br&gt;&lt;span&gt; ""Thank you&lt;/span&gt;&lt;/strong&gt;&lt;span&gt;&lt;strong&gt;,&lt;/strong&gt;&lt;strong&gt; Mr. Cantor.""&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;When we are introduced to new people, especially clients, customers, or superiors, it is always appropriate to address them using their last name. We have several terms to put before their last name to indicate our respect.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;""Mr."" (for a man, always appropriate)&lt;/li&gt;
+&lt;li&gt;""Ms."" (for a woman, always appropriate)&lt;/li&gt;
+&lt;li&gt;""Dr."" (for a man or woman who has a Ph.D., not just a medical doctor)&lt;/li&gt;
+&lt;li&gt;""Mrs."" (for a married woman, use with caution)&lt;/li&gt;
+&lt;li&gt;""Miss"" (for an unmarried woman, use with caution)&lt;/li&gt;
+&lt;li&gt;""Master"" (for a young person)&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Although all of these terms are appropriate under the right circumstances, it is always safe to address a man by ""Mr."" and a woman by ""Ms."" These are the most appropriate terms to use, so unless told otherwise, use ""Ms."" for women even if you know whether they are married or single. In a business situation, marital status does not matter, so there is no reason to identify someone as ""Miss"" or ""Mrs.,"" unless told otherwise. ""Dr."" is always appropriate to use when you know the person possesses a Ph.D. or other doctorate degree.&lt;/p&gt;
+&lt;p&gt;When we use these terms, we can use their full name or only their last name. ""Mrs."" is the exception: occasionally, the wife can be called ""Mrs. [full name of husband]""; however, this is growing less common these days.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;&lt;em&gt;&lt;/em&gt;Michael Jackson -&amp;gt; ""&lt;em&gt;&lt;span style=""text-decoration:underline;""&gt;Mr. Michael Jackson&lt;/span&gt;&lt;/em&gt;&lt;em&gt;""&lt;/em&gt; OR ""&lt;em&gt;&lt;span style=""text-decoration:underline;""&gt;Mr. Jackson&lt;/span&gt;&lt;/em&gt;&lt;em&gt;""&lt;/em&gt;&lt;/li&gt;
+&lt;li&gt;Hillary Clinton -&amp;gt; ""&lt;em&gt;&lt;span style=""text-decoration:underline;""&gt;Ms. Hillary Clinton&lt;/span&gt;&lt;/em&gt;&lt;em&gt;""&lt;/em&gt; OR ""&lt;em&gt;&lt;span style=""text-decoration:underline;""&gt;Ms. Clinton&lt;/span&gt;&lt;/em&gt;&lt;em&gt;""&lt;/em&gt; OR ""Mrs. Hillary Clinton"" OR ""Mrs. Bill Clinton"" (&lt;em&gt;rare&lt;/em&gt;)&lt;/li&gt;
+&lt;li&gt;Albert Einstein -&amp;gt; ""Mr. Albert Einstein"" OR ""Mr. Einstein"" OR ""&lt;em&gt;&lt;span style=""text-decoration:underline;""&gt;Dr. Albert Einstein&lt;/span&gt;&lt;/em&gt;&lt;em&gt;""&lt;/em&gt; OR ""&lt;em&gt;&lt;span style=""text-decoration:underline;""&gt;Dr. Einstein&lt;/span&gt;&lt;/em&gt;&lt;em&gt;""&lt;/em&gt;&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;The underlined examples are the most appropriate, but there may be more than one that is most acceptable.&lt;/p&gt;
+&lt;p&gt;When we are talking to someone of higher status, we can use ""sir"" for men and ""ma'am"" for women. These terms, while still widely used for strangers, are not used in the workplace as much these days. They still have widespread use in the military and when you are dealing with strangers, however.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;&lt;br&gt;A: ""&lt;em&gt;We need to get this ship cleaned up.""&lt;/em&gt;&lt;br&gt; &lt;br&gt;B: ""&lt;em&gt;Yes ma'am!""&lt;/em&gt;&lt;/li&gt;
+&lt;li&gt;&lt;br&gt;A: ""&lt;em&gt;Excuse me, sir, but you aren't allowed to park here.""&lt;/em&gt;&lt;br&gt; &lt;br&gt;B: ""&lt;em&gt;Oh, I'm sorry.""&lt;/em&gt;&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;span&gt;&lt;strong&gt;Language Tip&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;Mark says ""That's better now"" to show his approval after Sheila starts calling him by his first name. This is a friendly and reassuring way to let Sheila know that she is doing well. Usually the superior will say this to ensure the subordinate that doing something less formal is acceptable.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;&lt;br&gt;A: ""&lt;em&gt;You can take off your jacket, it's very hot in here.&lt;/em&gt;&lt;em&gt;""&lt;/em&gt;&lt;/li&gt;
+&lt;li&gt; &lt;br&gt;B: ""&lt;em&gt;Ah, thank you.&lt;/em&gt;&lt;em&gt;""&lt;/em&gt;&lt;/li&gt;
+&lt;li&gt; &lt;br&gt;A: ""&lt;em&gt;That's better now, it must have been uncomfortable.&lt;/em&gt;&lt;em&gt;""&lt;/em&gt;&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&lt;em&gt; &lt;br&gt;&lt;/em&gt;&lt;/p&gt;                        &lt;/div&gt;
+                                                                &lt;h3&gt;Cultural Insights&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt;&lt;strong&gt;What's Appropriate in the American Workplace? &lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;The American workplace is well known for being casual. Many, perhaps even most, bosses and employees interact with each other in a very informal manner and on a first-name basis. Although this is true, it is always better to speak too formally rather than too informally. Especially during introductions, you can leave a positive impression by using ""Mr.,"" ""Ms.,"" or ""Dr."" when speaking with someone and using ""sir"" or ""ma'am"" to elevate their status. This is particularly true if you are meeting with clients or customers for the first time.&lt;/p&gt;                        &lt;/div&gt;
+                                        &lt;div&gt;
+                                                    &lt;div&gt;
+                                                            &lt;/div&gt;
+                                            &lt;/div&gt;
+                &lt;/div&gt;"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"&lt;div&gt;
+                                            &lt;h3&gt;Grammar&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt;&lt;strong&gt;The &lt;/strong&gt;&lt;strong&gt;Focus&lt;/strong&gt;&lt;strong&gt; of &lt;/strong&gt;&lt;strong&gt;This Lesson Is Using&lt;/strong&gt;&lt;strong&gt; the &lt;/strong&gt;&lt;strong&gt;Simple&lt;/strong&gt;&lt;strong&gt; and &lt;/strong&gt;&lt;strong&gt;Continuous Past Tenses Together.&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;span&gt;&lt;strong&gt;""I was listening to music when he mugged me&lt;/strong&gt;&lt;strong&gt;.""&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;This is a review of the simple and continuous past tenses for use when describing an event that happened in the past using multiple verbs. We use a combination of these tenses in order to explain the order in which the events occurred.&lt;/p&gt;
+&lt;p&gt;We use the continuous tense to describe what we were doing during a specific time. In the dialogue, Dave ""was listening to music."" Then, when we have another action, we use simple past for ""he mugged me."" We can link these two verbs using phrases like ""when,"" ""as,"" or ""during the time.""&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example: &lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;&lt;em&gt;""I was talking on the phone when my friend called on the other line.&lt;/em&gt;""&lt;/li&gt;
+&lt;li&gt;""&lt;em&gt;We were eating dinner as Dad came home.""&lt;/em&gt;&lt;/li&gt;
+&lt;li&gt;""&lt;em&gt;Everyone was watching TV during the time the first man walked on the moon.&lt;/em&gt;""&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;We can also use two verbs in the past continuous tense when we are describing two things that happened at the same time for the same amount of time.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;&lt;em&gt;&lt;/em&gt;""&lt;em&gt;At ten o'clock, I was taking a shower and singing.&lt;/em&gt;""&lt;/li&gt;
+&lt;li&gt;""&lt;em&gt;During their argument, they were yelling and stomping around.&lt;/em&gt;""&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;We can use two verbs in the past simple tense to describe actions that happen after each other.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Ex&lt;/strong&gt;&lt;strong&gt;ample:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;""&lt;em&gt;Last night, I watched TV and then went to bed.&lt;/em&gt;""&lt;/li&gt;
+&lt;li&gt;""&lt;em&gt;I went to the doctor's office and then drove to the pharmacy.&lt;/em&gt;""&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&lt;em&gt;&lt;/em&gt;Can you figure out the order of action of the verbs in the sentences below?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Ex&lt;/strong&gt;&lt;strong&gt;ample:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;&lt;em&gt;&lt;/em&gt;&lt;em&gt;""I was walking to the bank as the criminal followed me and then mugged me.""&lt;/em&gt;&lt;/li&gt;
+&lt;li&gt;&lt;em&gt;""They were talking and laughing at the party when the neighbors called the police.""&lt;/em&gt;&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;span&gt;&lt;strong&gt;Language Tip&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;Dave says, ""It happened so fast."" This is a phrase we use when we are trying to remember an event, but we are having trouble because it was traumatic. Usually we hear this phrase when people are describing something negative.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;&lt;br&gt;A: ""&lt;em&gt;Can you describe the car accident?&lt;/em&gt;&lt;em&gt;""&lt;/em&gt;&lt;br&gt; &lt;br&gt;B: ""&lt;em&gt;It happened so fast...I was driving and the other car came out of nowhere.""&lt;/em&gt;&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                                                &lt;h3&gt;Cultural Insights&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt;&lt;strong&gt;An American Sign to Watch for &lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;Crime in the United States has fallen significantly over the past twenty years, especially in cities, but it still remains a problem in many parts of the country. Depending on the neighborhood, some parts of cities are dangerous to walk alone in at night. Similarly, crowded areas like train stations are infamous for ""pickpockets,"" people who steal your wallet from your back pocket. Be careful to keep your wallet in a safe place when you are in these areas. Sometimes, criminals even post signs that say ""Beware of pickpockets"" because people usually check their wallets after reading the signs, and the criminals know exactly where to steal them from.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&amp;nbsp;&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                        &lt;div&gt;
+                                                    &lt;div&gt;
+                                                            &lt;/div&gt;
+                                            &lt;/div&gt;
+                &lt;/div&gt;"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"&lt;div&gt;
+                                            &lt;h3&gt;Grammar&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt;&lt;strong&gt;The &lt;/strong&gt;&lt;strong&gt;Focus&lt;/strong&gt;&lt;strong&gt; of &lt;/strong&gt;&lt;strong&gt;This Lesson Is Prepositions&lt;/strong&gt;&lt;strong&gt; and &lt;/strong&gt;&lt;strong&gt;Words&lt;/strong&gt;&lt;strong&gt; for &lt;/strong&gt;&lt;strong&gt;Giving&lt;/strong&gt;&lt;strong&gt; and &lt;/strong&gt;&lt;strong&gt;Receiving Directions Indoors&lt;/strong&gt;&lt;strong&gt;.&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;span&gt;&lt;em&gt;&lt;strong&gt;""To get to the restrooms&lt;/strong&gt;&lt;strong&gt;,&lt;/strong&gt;&lt;strong&gt; you have to go down the hallway to the left and take the escalator up to the third floor.""&lt;/strong&gt;&lt;/em&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;Giving and receiving directions indoors is a little bit different than outdoors. We often use different kind of prepositions. Sometimes they can have multiple meanings. Here are some of the words that we saw in the dialogue.&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;""Go down"": This can mean literally ""to go down,"" as in an elevator or an escalator, or it can mean to go straight along without turning.&lt;/li&gt;
+&lt;li&gt;""Go up"": This is almost the same as ""to go down."" It can mean ""to go up"" literally, or it can mean to go straight along without turning.&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Note&lt;/strong&gt;: ""Go up this corridor"" and ""go down this corridor"" can mean the same thing!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Indoors-only words for directions:&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;""Go upstairs/downstairs.""&lt;/li&gt;
+&lt;li&gt;""Go down/up the hallway/corridor.""&lt;/li&gt;
+&lt;li&gt;""Take the (elevator/escalator) to the (first floor/sixth floor/basement).""&lt;/li&gt;
+&lt;li&gt;""It's the (second, fifth, next) door on the (right/left).""&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;Let's look at some examples. Try to draw a map of the directions that this paragraph describes for a cafeteria in a building.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;&lt;em&gt;""Take the elevator to the &lt;/em&gt;&lt;em&gt;fifth&lt;/em&gt;&lt;em&gt; floor. Turn to the right and go down the hallway. Take a right at the &lt;/em&gt;&lt;em&gt;third&lt;/em&gt;&lt;em&gt; door&lt;/em&gt;&lt;em&gt;,&lt;/em&gt;&lt;em&gt; and take the escalator upstairs to the &lt;/em&gt;&lt;em&gt;sixth&lt;/em&gt;&lt;em&gt; floor. Make a left from the escalator. The cafeteria is the second door on the left.""&lt;/em&gt;&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                                                &lt;h3&gt;Cultural Insights&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt;&lt;strong&gt;Who Is Responsible for Office Errands? &lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;The coffee run is usually the responsibility of the intern or most junior member of the office. It might not be fair, but this person often has to take everybody's orders for coffee, snacks, etc., and then go out and get it. This comes from the impression that the intern's time is not as valuable as that of other staff members, even if the intern is hardworking and diligent. It is almost a tradition within an office to give this assignment to interns and junior members. Almost everyone who works in an office started at the same level.&lt;/p&gt;                        &lt;/div&gt;
+                                        &lt;div&gt;
+                                                    &lt;div&gt;
+                                                            &lt;/div&gt;
+                                            &lt;/div&gt;
+                &lt;/div&gt;"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"&lt;div&gt;
+                                            &lt;h3&gt;Grammar&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt;&lt;strong&gt;The &lt;/strong&gt;&lt;strong&gt;Focus&lt;/strong&gt;&lt;strong&gt; of &lt;/strong&gt;&lt;strong&gt;This Lesson Is Using ""Anything&lt;/strong&gt;&lt;strong&gt;"" and ""&lt;/strong&gt;&lt;strong&gt;Nothing.""&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;span&gt;&lt;strong&gt;""Absolutely nothing. If there were no coffee in Washington&lt;/strong&gt;&lt;strong&gt;,&lt;/strong&gt;&lt;strong&gt; no one would get anything done!""&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Let's start by looking at the list of ""no"" and ""any"" words:&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td width=""194"" class=""lsn3-th""&gt;
+&lt;p&gt;&lt;span&gt;&lt;strong&gt;Question&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width=""194"" class=""lsn3-th""&gt;
+&lt;p&gt;&lt;span&gt;&lt;strong&gt;""No""&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width=""194"" class=""lsn3-th""&gt;
+&lt;p&gt;&lt;span&gt;&lt;strong&gt;""Any""&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width=""194""&gt;
+&lt;p&gt;""what""&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width=""194""&gt;
+&lt;p&gt;""nothing""&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width=""194""&gt;
+&lt;p&gt;""anything""&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width=""194""&gt;
+&lt;p&gt;""where""&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width=""194""&gt;
+&lt;p&gt;""nowhere""&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width=""194""&gt;
+&lt;p&gt;""anywhere""&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;tr&gt;&lt;td width=""194""&gt;
+&lt;p&gt;""who""&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width=""194""&gt;
+&lt;p&gt;""no one""&lt;/p&gt;
+&lt;/td&gt;
+&lt;td width=""194""&gt;
+&lt;p&gt;""anyone""&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;You probably already use these words regularly when speaking English. However, sometimes it can be difficult to know when to use a ""no"" word and when to use an ""any"" word. Usually we can express the same thought using either ""any"" or ""no"" words but we have to make sure that we use an affirmative verb for ""no"" words (""I did nothing!"") and a negative verb for ""any"" words (""I didn't do anything!""). Double negatives, which are a ""negative"" verb plus a ""no"" word, are common in many languages but incorrect in English. Although we use them sometimes, they make the speaker sound uneducated. Here are some correct examples of how to use affirmative and negative verbs with ""any"" and ""no"" words.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;""&lt;em&gt;I was so sick, I didn't eat anything&lt;/em&gt;&lt;em&gt;.""&lt;/em&gt;&lt;em&gt; &lt;/em&gt;=&lt;em&gt; &lt;/em&gt;&lt;em&gt;""&lt;/em&gt;&lt;em&gt;I was so sick I ate nothing&lt;/em&gt;&lt;em&gt;.""&lt;/em&gt;&lt;/li&gt;
+&lt;li&gt;&lt;em&gt;&lt;/em&gt;&lt;em&gt;""&lt;/em&gt;&lt;em&gt;The library was empty; there wasn't anyone there&lt;/em&gt;&lt;em&gt;.""&lt;/em&gt; = ""&lt;em&gt;The library was empty; there was no one there&lt;/em&gt;&lt;em&gt;.""&lt;/em&gt;&lt;/li&gt;
+&lt;li&gt;""&lt;em&gt;I want to go home; I don't want to sleep anywhere else.&lt;/em&gt; = &lt;em&gt;I want to go home; I want to sleep nowhere else.&lt;/em&gt;&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;In these cases, using the ""no"" word with a negative verb sounds more natural. Although the other way is grammatically correct, it can be a bit awkward. We use ""no"" words more often as responses to questions (as one-word answers). Following are some examples.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;""&lt;em&gt;What are you doing&lt;/em&gt;&lt;em&gt;?"" &lt;br&gt; ""&lt;/em&gt;&lt;em&gt;Nothing&lt;/em&gt;&lt;em&gt;.""&lt;br&gt;&lt;/em&gt;(""I am doing nothing."" OR ""I'm not doing anything."")&lt;/li&gt;
+&lt;li&gt;""&lt;em&gt;Where are you going tonight&lt;/em&gt;&lt;em&gt;?"" &lt;br&gt; ""&lt;/em&gt;&lt;em&gt;Nowhere&lt;/em&gt;&lt;em&gt;.""&lt;br&gt;&lt;/em&gt;(""I am going nowhere."" OR ""I'm not going anywhere."")&lt;/li&gt;
+&lt;li&gt;""&lt;em&gt;Who is in your room right now&lt;/em&gt;&lt;em&gt;?"" &lt;br&gt; ""&lt;/em&gt;&lt;em&gt;No one&lt;/em&gt;&lt;em&gt;.""&lt;br&gt;&lt;/em&gt;(""There is no one in my room."" OR ""There isn't anyone in my room."")&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;The biggest mistake you can make is not using a double negative (""I didn't do nothing""), but using a double positive (""I did anything""), which has a very different meaning. Be sure to use either a negative verb and an ""any"" word or an affirmative verb and a ""no"" word.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;We can also use these ""no"" and ""any"" words together, like Mark did in the dialogue when he said that ""no one would get anything done."" This functions the same way as a negative verb. We can only have one negative or ""no"" component in a sentence; everything else has to be ""any"" or positive. Another way to phrase ""No one would get anything done"" would be to say ""Everyone would get nothing done"" or ""Everyone wouldn't get anything done."" In the original sentence, ""no one"" is the negative aspect, ""nothing"" is the negative part of the second sentence, and ""wouldn't"" is the negative part of the last sentence. See below for a few more examples of combinations of ""any"" and ""no"" words.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;&lt;em&gt;&lt;/em&gt;""&lt;em&gt;No one wanted to do anything tonight because they were so tired&lt;/em&gt;&lt;em&gt;.&lt;/em&gt;&lt;em&gt;""&lt;/em&gt;&lt;/li&gt;
+&lt;li&gt;&lt;em&gt;""&lt;/em&gt;&lt;em&gt;Everyone from my team didn't like anyone from the other team&lt;/em&gt;&lt;em&gt;.""&lt;/em&gt;&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                                                &lt;h3&gt;Cultural Insights&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt;&lt;strong&gt;Are You a Slave to the Caffeine?&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;As you can see in this dialogue, coffee is essential for many offices to function. Whereas tea or other beverages are preferred in other countries, coffee is the number one drink in the United States. Many people drink it continuously through the day for its stimulating caffeine and develop mild addictions to it. When coffee addicts do not drink any coffee for a long time, they can even get headaches! That is why some people call themselves ""coffee slaves,"" as in coffee is their master. Coffee is a major point of casual conversation in an office, and jokes and conversation about making, drinking, and cleaning up coffee are a part of every office.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&amp;nbsp;&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                        &lt;div&gt;
+                                                    &lt;div&gt;
+                                                            &lt;/div&gt;
+                                            &lt;/div&gt;
+                &lt;/div&gt;"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"&lt;div&gt;
+                                            &lt;h3&gt;Grammar&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt;&lt;strong&gt;The Focus of This Lesson Is Using the Conditional in Positive and Negative Forms.&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;span&gt;&lt;strong&gt;Sheil&lt;br&gt;A: ""It is. Ugh, I am so stressed out. If I had a bit more time, it would be so much easier.""&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;Dave: ""If I were you, I wouldn't whine. It sounds like really interesting work.""&lt;/strong&gt;&lt;/span&gt; &lt;span&gt;&lt;br&gt;&lt;strong&gt;Sheil&lt;br&gt;A: ""I know... But if I didn't have so much work, I wouldn't be so annoying!""&lt;/strong&gt;&lt;/span&gt; &lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;The conditional tense is most likely not new for you, but we will look at it from a bit different perspective: when we use it in both the positive and negative forms. In the three lines above, we see a positive conditional, a mixed conditional, and a negative conditional. They all share the same form, so it should not be too difficult.&lt;strong&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;We form a conditional statement with two parts: an ""if"" statement and a ""then"" statement. When the ""if"" statement is true, the ""then"" statement will be true as well. Let's look at three examples: a positive, a negative, and a mixed conditional.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;&lt;em&gt;""If I got a million dollars, I would eat sushi every day.""&lt;/em&gt;&lt;/li&gt;
+&lt;li&gt;&lt;em&gt;""If I didn't have a job, I      wouldn't have to get up early.""&lt;/em&gt;&lt;/li&gt;
+&lt;li&gt;&lt;em&gt;""If I didn't like meat, I would be a      vegetarian.""&lt;/em&gt;&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;As you can see, the ""if"" statement is in the past tense, but the ""then"" statement is presented as an infinitive verb. We can always use the form ""If I [&lt;span style=""text-decoration:underline;""&gt;past tense verb&lt;/span&gt;], I would [&lt;span style=""text-decoration:underline;""&gt;verb&lt;/span&gt;].""&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Note&lt;/strong&gt;: The exception to this is when you use the verb ""to be,"" in which case we always use ""were"" and ""weren't."" Dave's sentence, ""If I were you, I wouldn't whine,"" follows this rule, but let's look at two more examples.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;&lt;em&gt;""If I weren't so short, I would      play basketball.""&lt;/em&gt;&lt;em&gt;&lt;/em&gt;&lt;/li&gt;
+&lt;li&gt;&lt;em&gt;""If lobbying were outlawed,      Washington, D.C. would be a better city.""&lt;/em&gt;&lt;em&gt;&lt;/em&gt;&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;span&gt;Language Tip&lt;/span&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Sheila calls Dave ""You dog!"" when Dave says he is thinking of asking out the police officer who interviewed him after he was mugged. Although in some circumstances her comment could be rude, Sheila is saying this in a friendly and affectionate manner. We can call a friend a dog when he is doing something that usually we would consider mildly inappropriate, like asking out a police officer.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;&lt;em&gt;&lt;br&gt;A: ""Did I tell you I have two      dates in a row tonight?""&lt;/em&gt;&lt;em&gt;&lt;br&gt;&lt;/em&gt;&lt;em&gt;&lt;br&gt;B:&lt;/em&gt;&lt;em&gt; &lt;/em&gt;""&lt;em&gt;Ah!      You dog!""&lt;/em&gt;&lt;em&gt;&lt;br&gt;&lt;br&gt;&lt;/em&gt;&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                                                &lt;h3&gt;Cultural Insights&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt;&lt;strong&gt;Can You Buy Politics in Washington?&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Lobbying is a huge industry in Washington, D.C. Lobbyists usually start out as government staff members, but then later they are attracted by the large salary lobbyists receive. Essentially, interest groups (industries, organizations, unions, etc.) pay lobbyists to try to convince Members of the U.S. Congress to pass legislation that their interests support and block legislation they oppose. Lobbyists meet with Members of Congress and their staff, who are often their previous employers and friends, to present their proposals and try to gain their support. Large industries, like pharmaceutical companies or the financial services sector, spend tens or even hundreds of millions of dollars every year on lobbying, which is a point of controversy for those who believe money is corrupting politicians and feel politicians can be ""bought.""&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                        &lt;div&gt;
+                                                    &lt;div&gt;
+                                                            &lt;/div&gt;
+                                            &lt;/div&gt;
+                &lt;/div&gt;"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"&lt;div&gt;
+                                            &lt;h3&gt;Grammar&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt;&lt;strong&gt;The &lt;/strong&gt;&lt;strong&gt;Focus&lt;/strong&gt;&lt;strong&gt; of &lt;/strong&gt;&lt;strong&gt;This Lesson Is Using Noun Clauses&lt;/strong&gt;&lt;strong&gt;.&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;span&gt;&lt;strong&gt;""I love drinks that cost less than three dollars.""&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;A noun clause is a phrase with a subject and verb that functions as a noun in a sentence. When we say, ""People who are tall often play basketball,"" we are using the noun clause ""People who are tall."" By itself, this phrase is not a sentence, but we use the entire phrase as the subject of the sentence. Let's look at some examples of noun clauses as the subjects of sentences.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;&lt;em&gt;""Animals that live in people's homes must be well trained.""&lt;/em&gt; (Noun clause: ""Animals that live in people's homes"")&lt;/li&gt;
+&lt;li&gt;""&lt;em&gt;Bags made in Italy are very expensive.""&lt;/em&gt; (Noun clause: ""Bags made in Italy"")&lt;/li&gt;
+&lt;li&gt;""&lt;em&gt;People who studied in universities have higher salaries than those who didn't graduate.""&lt;/em&gt; (Noun clause: ""People who studied in universities"")&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;We use noun clauses to make our writing and speaking more effective. Rather than saying ""There are a lot of people who are afraid of water. Those people don't like to swim,"" we can combine these thoughts into a single sentence with a noun clause: ""People who are afraid of water don't like to swim."" We can also use a noun clause as the direct object of the action in a sentence, the way Dave did about drinks. Let's look at a few examples of direct object noun clauses.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;&lt;em&gt;""I want a dog that can do tricks.""&lt;/em&gt; (Noun clause: ""dog that can do tricks"")&lt;/li&gt;
+&lt;li&gt;""&lt;em&gt;He bought a car made in Japan.""&lt;/em&gt; (Noun clause: ""car made in Japan"")&lt;/li&gt;
+&lt;li&gt;""&lt;em&gt;We will eat anything that tastes good.&lt;/em&gt;"" (Noun clause: ""anything that tastes good"")&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Noun clauses are a great way to spice up your speaking and writing. Use them to conserve words and to make your communication more effective and targeted.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;span&gt;Language Tip&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Dave talks about his frat-boy past when he says, ""Sure was! Delta Tau Chi all the way!"" Delta Tau Chi was the name of his fraternity. Fraternities are usually named with Greek letters, and by saying ""all the way,"" he means he supports them completely. We can use ""all the way"" with anything that we support and are passionate about.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;&lt;br&gt;A:""&lt;em&gt;Are you a baseball fan?""&lt;/em&gt;&lt;br&gt; &lt;br&gt;B:""&lt;em&gt;Oh yeah, Philadelphia Phillies all the way!""&lt;/em&gt;&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&lt;em&gt; &lt;br&gt;&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                                                &lt;h3&gt;Cultural Insights&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt;&lt;strong&gt;What You May Hear over Drinks in the District of Columbia&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Sheila and Dave sit in a bar here and gossip about politics. Going out to a happy hour and talking about politics is a favorite pastime of many people in D.C. Happy hours usually have cheap drinks and are crowded; a lot of flirting and gossiping is fueled by the alcohol, and happy hours have a culture that surrounds them.&lt;/p&gt;
+&lt;p&gt;A favorite criticism of political people is calling someone a ""flip-flopper,"" meaning that the person changes his views and does not have a firm moral center. A lot of people see ""flip-flopping"" as even more negative than simply holding an opposite view. People feel that flip-floppers are people who lack principles and dignity.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                        &lt;div&gt;
+                                                    &lt;div&gt;
+                                                            &lt;/div&gt;
+                                            &lt;/div&gt;
+                &lt;/div&gt;"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"&lt;div&gt;
+                                            &lt;h3&gt;Grammar&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt;&lt;strong&gt;The &lt;/strong&gt;&lt;strong&gt;Focus&lt;/strong&gt;&lt;strong&gt; of &lt;/strong&gt;&lt;strong&gt;This Lesson Is Using Adverb Clauses&lt;/strong&gt;&lt;strong&gt; with the &lt;/strong&gt;&lt;strong&gt;Conditional.&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;span&gt;&lt;strong&gt;""Unless it's against your rules, would you be free to get a drink sometime?""&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;Adverb clauses, like noun clauses, are phrases that take the place of an adverb and contain a subject, a verb, and a conjunction. Here are some examples.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;""&lt;em&gt;I will get that to you when I have free time&lt;/em&gt;."" (adverb clause: ""when I have free time"")&lt;/li&gt;
+&lt;li&gt;""&lt;em&gt;They ate dinner together once they both got home&lt;/em&gt;&lt;em&gt;.""&lt;/em&gt;&lt;em&gt; &lt;/em&gt;(adverb clause: ""once they both got home"")&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;You are already probably quite familiar with this type of adverb clause in practice if not in name, and you probably understand that it answers the questions ""When?,"" ""How?,"" or ""Why?"" This lesson focuses on using adverb clauses with the conditional tense. We use these regularly with the conditional tense to express the conditions under which something can occur. Often, we see ""if"" being used for the beginning of an adverb clause in this case.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;""&lt;em&gt;If I didn't have to work on Sunday, I would go play golf&lt;/em&gt;&lt;em&gt;.""&lt;/em&gt;&lt;em&gt; &lt;/em&gt;(adverb clause: ""if I didn't have work"")&lt;/li&gt;
+&lt;li&gt;""&lt;em&gt;They would love to eat a slice of pizza if there are any left&lt;/em&gt;&lt;em&gt;.""&lt;/em&gt; (adverb clause: ""if there are any left"")&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;We can also express the conditional tense, as this dialogue showed, by using ""unless"" as the beginning of the adverb clause. ""Unless"" is a somewhat tricky word that is easy to confuse with ""if."" Essentially, we use ""unless"" for negative statements in questions.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;For Example:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;&lt;li&gt;""&lt;em&gt;Unless there is rain, the picnic will be tomorrow&lt;/em&gt;&lt;em&gt;.""&lt;/em&gt; (""If there is no rain, the picnic will be tomorrow."")&lt;/li&gt;
+&lt;li&gt;""&lt;em&gt;I'm going to go unless I have to work&lt;/em&gt;&lt;em&gt;.""&lt;/em&gt; (""If I don't have work, I'm going to go."")&lt;/li&gt;
+&lt;li&gt;""&lt;em&gt;Unless it's prohibited, I would like to go fishing in the stream.&lt;/em&gt;""&lt;/li&gt;
+&lt;/ol&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;By using this structure, Dave asks Isabel out, but he gives her the opportunity to decline by saying that he realizes it may be against the rules of being a police officer. This is a very polite and timid way for Dave to ask her out.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                                                &lt;h3&gt;Cultural Insights&lt;/h3&gt;
+                        &lt;div&gt;
+                            &lt;p&gt;&lt;span&gt;&lt;strong&gt;Are You Looking for a Date in America?&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;hr&gt;&lt;p&gt;It is likely if you travel to the United States that, at some point, someone will ask you out. Asking someone out over the telephone the way Dave did is certainly not the most common manner, but the language that Dave used is very common. The most common way to ask someone out on a first date is to ask them to coffee or a drink. However, it is important to know that just because someone is asking if you are free for a drink does not necessarily mean he or she is asking you out on a date. It is perfectly acceptable to do as Isabel did and clarify what Dave's goal was. Sometimes, the answer may just be that the other person is interested in getting to know you better and be friends, even if &amp;nbsp;he or she is of the opposite gender.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;                        &lt;/div&gt;
+                                        &lt;div&gt;
+                                                    &lt;div&gt;
+                                                            &lt;/div&gt;
+                                            &lt;/div&gt;
+                &lt;/div&gt;"
+</t>
   </si>
 </sst>
 </file>
@@ -3214,13 +4543,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -3543,16 +4869,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.6640625" style="2"/>
-    <col min="4" max="5" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.4140625" customWidth="1"/>
+    <col min="5" max="5" width="39.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3562,14 +4888,14 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>44</v>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
@@ -3577,16 +4903,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
@@ -3594,16 +4920,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
@@ -3611,16 +4937,16 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
@@ -3628,16 +4954,16 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
@@ -3645,16 +4971,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
@@ -3662,16 +4988,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
@@ -3679,16 +5005,16 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
@@ -3696,16 +5022,16 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
@@ -3713,16 +5039,16 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
@@ -3730,16 +5056,16 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
@@ -3747,16 +5073,16 @@
         <v>6</v>
       </c>
       <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
@@ -3764,16 +5090,16 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
@@ -3781,16 +5107,16 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
@@ -3798,16 +5124,16 @@
         <v>6</v>
       </c>
       <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
@@ -3815,16 +5141,16 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
@@ -3832,16 +5158,16 @@
         <v>6</v>
       </c>
       <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
@@ -3849,16 +5175,16 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
@@ -3866,16 +5192,16 @@
         <v>6</v>
       </c>
       <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
@@ -3883,16 +5209,16 @@
         <v>6</v>
       </c>
       <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
@@ -3900,19 +5226,360 @@
         <v>6</v>
       </c>
       <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>7</v>
+      </c>
+      <c r="B25">
         <v>64</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>69</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>72</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>76</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>78</v>
+      </c>
+      <c r="C39" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="D39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s">
         <v>43</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>80</v>
+      </c>
+      <c r="C41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>